--- a/SonarLysaFX/Suivi_Quality_Gate.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="SUIVI Qualité" r:id="rId1" sheetId="8"/>
-    <sheet name="E30" r:id="rId5" sheetId="9"/>
-    <sheet name="E31" r:id="rId6" sheetId="10"/>
+    <sheet name="E30" r:id="rId7" sheetId="15"/>
+    <sheet name="E31" r:id="rId8" sheetId="16"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'SUIVI Qualité'!$A$1:$M$77</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="520">
   <si>
     <t>Edition</t>
   </si>
@@ -1586,7 +1586,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1746,12 +1746,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1770,18 +1764,12 @@
       <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1958,8 +1946,82 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
       </patternFill>
     </fill>
     <fill>
@@ -1973,7 +2035,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2116,6 +2178,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2125,106 +2223,2099 @@
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="10" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="11" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="12" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="13" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="7" fontId="14" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="7" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="10" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="11" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="12" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="5" fontId="13" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="6" fontId="14" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="15" numFmtId="0"/>
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="16" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="7" fontId="17" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0"/>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="9" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="8" fontId="5" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0"/>
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="5" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="20" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="20" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="5" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="20" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="20" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="5" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="20" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="20" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="5" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="20" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="20" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="5" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="20" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="20" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="5" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="20" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="814">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="11" fontId="5" numFmtId="0" xfId="21">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="12" fontId="5" numFmtId="0" xfId="21">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="0" numFmtId="0" xfId="21">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="12" fontId="0" numFmtId="0" xfId="21">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="1">
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="35" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="35" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="38" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="38" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="41" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="41" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="43" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="43" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="46" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="46" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="20" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="19" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="20" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="19" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle builtinId="30" customBuiltin="1" name="20 % - Accent1" xfId="20"/>
@@ -2278,6 +4369,11 @@
     <tableStyle count="0" name="Style de tableau 2" pivot="0"/>
     <tableStyle count="0" name="Style de tableau 3" pivot="0"/>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2578,3544 +4674,3659 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.7109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="34.85546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="36.5703125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="24.7109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="16.42578125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="44.42578125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="36.42578125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="30.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="18.42578125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="5" width="18.42578125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="23.140625" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="77.0" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="5.85546875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="18.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="77.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="15.75" r="1" s="5" spans="1:13" thickBot="1">
-      <c r="A1" s="6" t="s">
+    <row customFormat="1" ht="15.75" r="1" s="2" spans="1:13" thickBot="1">
+      <c r="A1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row ht="16.5" r="2" spans="1:13" thickBot="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>298842</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M2" s="15"/>
+      <c r="M2" s="10"/>
     </row>
     <row ht="16.5" r="3" spans="1:13" thickBot="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>294577</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="11" t="s">
         <v>341</v>
       </c>
     </row>
     <row ht="16.5" r="4" spans="1:13" thickBot="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>292733</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="11" t="s">
         <v>342</v>
       </c>
     </row>
     <row ht="16.5" r="5" spans="1:13" thickBot="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>292733</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row ht="16.5" r="6" spans="1:13" thickBot="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="9">
+      <c r="J6" s="6"/>
+      <c r="K6" s="8">
         <v>298836</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="M6" s="11"/>
     </row>
     <row ht="16.5" r="7" spans="1:13" thickBot="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="9">
+      <c r="J7" s="6"/>
+      <c r="K7" s="8">
         <v>285907</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="9" t="s">
         <v>345</v>
       </c>
     </row>
     <row ht="16.5" r="8" spans="1:13" thickBot="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="9">
+      <c r="J8" s="6"/>
+      <c r="K8" s="8">
         <v>294337</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="11" t="s">
         <v>169</v>
       </c>
     </row>
     <row ht="16.5" r="9" spans="1:13" thickBot="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>294600</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row ht="16.5" r="10" spans="1:13" thickBot="1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>285917</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row ht="16.5" r="11" spans="1:13" thickBot="1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>294557</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row ht="16.5" r="12" spans="1:13" thickBot="1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>285919</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="11" t="s">
         <v>347</v>
       </c>
     </row>
     <row ht="16.5" r="13" spans="1:13" thickBot="1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>292305</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row ht="16.5" r="14" spans="1:13" thickBot="1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="9">
+      <c r="J14" s="6"/>
+      <c r="K14" s="8">
         <v>292625</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row ht="16.5" r="15" spans="1:13" thickBot="1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="598" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="599" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="600" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="601" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="602" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="603" t="s">
         <v>187</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="604" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="605" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="606" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="9">
+      <c r="J15" s="607"/>
+      <c r="K15" s="608">
         <v>285909</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="609" t="s">
         <v>348</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="610" t="s">
         <v>188</v>
       </c>
     </row>
     <row ht="16.5" r="16" spans="1:13" thickBot="1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="J16" s="6"/>
+      <c r="K16" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="11" t="s">
         <v>193</v>
       </c>
     </row>
     <row ht="16.5" r="17" spans="1:13" thickBot="1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>298838</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="11" t="s">
         <v>349</v>
       </c>
     </row>
     <row ht="16.5" r="18" spans="1:13" thickBot="1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="611" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="612" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="613" t="s">
         <v>198</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="614" t="s">
         <v>199</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="615" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="616" t="s">
         <v>200</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="617" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="618" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="619" t="s">
         <v>124</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="620" t="s">
         <v>339</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="621">
         <v>294418</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="622" t="s">
         <v>168</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="623" t="s">
         <v>201</v>
       </c>
     </row>
     <row ht="16.5" r="19" spans="1:13" thickBot="1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="624" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="625" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="626" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="627" t="s">
         <v>199</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="628" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="629" t="s">
         <v>200</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="630" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="631" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="632" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="633" t="s">
         <v>352</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="634">
         <v>294484</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="635" t="s">
         <v>155</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="636" t="s">
         <v>350</v>
       </c>
     </row>
     <row ht="16.5" r="20" spans="1:13" thickBot="1">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>285884</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="9" t="s">
         <v>206</v>
       </c>
     </row>
     <row ht="16.5" r="21" spans="1:13" thickBot="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>285896</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="11" t="s">
         <v>351</v>
       </c>
     </row>
     <row ht="16.5" r="22" spans="1:13" thickBot="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="637" t="s">
         <v>207</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="638" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="639" t="s">
         <v>208</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="640" t="s">
         <v>209</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="641" t="s">
         <v>213</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="642" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="643" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="644" t="s">
         <v>215</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="645" t="s">
         <v>427</v>
       </c>
-      <c r="K22" s="9">
+      <c r="J22" s="646"/>
+      <c r="K22" s="647">
         <v>248089</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="648" t="s">
         <v>216</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="M22" s="649" t="s">
         <v>217</v>
       </c>
     </row>
     <row ht="16.5" r="23" spans="1:13" thickBot="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <v>262615</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M23" s="16" t="s">
+      <c r="M23" s="9" t="s">
         <v>221</v>
       </c>
     </row>
     <row ht="16.5" r="24" spans="1:13" thickBot="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K24" s="9">
+      <c r="J24" s="6"/>
+      <c r="K24" s="8">
         <v>297266</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="M24" s="16" t="s">
+      <c r="M24" s="9" t="s">
         <v>223</v>
       </c>
     </row>
     <row ht="16.5" r="25" spans="1:13" thickBot="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="K25" s="9">
+      <c r="J25" s="6"/>
+      <c r="K25" s="8">
         <v>294407</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="L25" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="M25" s="16" t="s">
+      <c r="M25" s="9" t="s">
         <v>226</v>
       </c>
     </row>
     <row ht="16.5" r="26" spans="1:13" thickBot="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="650" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="651" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="652" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="653" t="s">
         <v>209</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="654" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="655" t="s">
         <v>227</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="656" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="657" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="658" t="s">
         <v>84</v>
       </c>
-      <c r="K26" s="9">
+      <c r="J26" s="659"/>
+      <c r="K26" s="660">
         <v>294356</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="661" t="s">
         <v>343</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="662" t="s">
         <v>161</v>
       </c>
     </row>
     <row ht="16.5" r="27" spans="1:13" thickBot="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K27" s="9">
+      <c r="J27" s="6"/>
+      <c r="K27" s="8">
         <v>294426</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="M27" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row ht="16.5" r="28" spans="1:13" thickBot="1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="8">
         <v>294402</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="L28" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="M28" s="9" t="s">
         <v>354</v>
       </c>
     </row>
     <row ht="16.5" r="29" spans="1:13" thickBot="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="9">
+      <c r="J29" s="6"/>
+      <c r="K29" s="8">
         <v>294406</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="L29" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="M29" s="11" t="s">
         <v>353</v>
       </c>
     </row>
     <row ht="16.5" r="30" spans="1:13" thickBot="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="8">
         <v>294408</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="L30" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="M30" s="16" t="s">
+      <c r="M30" s="9" t="s">
         <v>235</v>
       </c>
     </row>
     <row ht="16.5" r="31" spans="1:13" thickBot="1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K31" s="9">
+      <c r="J31" s="6"/>
+      <c r="K31" s="8">
         <v>294573</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="L31" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M31" s="16" t="s">
+      <c r="M31" s="9" t="s">
         <v>237</v>
       </c>
     </row>
     <row ht="16.5" r="32" spans="1:13" thickBot="1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="663" t="s">
         <v>207</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="664" t="s">
         <v>230</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="665" t="s">
         <v>231</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="666" t="s">
         <v>232</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="667" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="668" t="s">
         <v>236</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="669" t="s">
         <v>108</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="670" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="671" t="s">
         <v>81</v>
       </c>
-      <c r="K32" s="9">
+      <c r="J32" s="672"/>
+      <c r="K32" s="673">
         <v>294352</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="L32" s="674" t="s">
         <v>155</v>
       </c>
-      <c r="M32" s="16" t="s">
+      <c r="M32" s="675" t="s">
         <v>237</v>
       </c>
     </row>
     <row ht="16.5" r="33" spans="1:13" thickBot="1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="676" t="s">
         <v>207</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="677" t="s">
         <v>230</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="678" t="s">
         <v>231</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="679" t="s">
         <v>232</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="680" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="681" t="s">
         <v>238</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="682" t="s">
         <v>111</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="683" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="684" t="s">
         <v>80</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="685" t="s">
         <v>355</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="686">
         <v>294412</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="L33" s="687" t="s">
         <v>155</v>
       </c>
-      <c r="M33" s="16" t="s">
+      <c r="M33" s="688" t="s">
         <v>239</v>
       </c>
     </row>
     <row ht="16.5" r="34" spans="1:13" thickBot="1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="8">
         <v>288251</v>
       </c>
-      <c r="L34" s="16" t="s">
+      <c r="L34" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="11" t="s">
         <v>356</v>
       </c>
     </row>
     <row ht="16.5" r="35" spans="1:13" thickBot="1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="8">
         <v>288162</v>
       </c>
-      <c r="L35" s="16" t="s">
+      <c r="L35" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="11" t="s">
         <v>211</v>
       </c>
     </row>
     <row ht="16.5" r="36" spans="1:13" thickBot="1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="689" t="s">
         <v>207</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="690" t="s">
         <v>230</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="691" t="s">
         <v>231</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="692" t="s">
         <v>232</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="693" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="694" t="s">
         <v>234</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="695" t="s">
         <v>240</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="696" t="s">
         <v>191</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="697" t="s">
         <v>429</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J36" s="698" t="s">
         <v>355</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="699">
         <v>248077</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="L36" s="700" t="s">
         <v>241</v>
       </c>
-      <c r="M36" s="16" t="s">
+      <c r="M36" s="701" t="s">
         <v>242</v>
       </c>
     </row>
     <row ht="16.5" r="37" spans="1:13" thickBot="1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="K37" s="9">
+      <c r="J37" s="6"/>
+      <c r="K37" s="8">
         <v>294588</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="L37" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="M37" s="16" t="s">
+      <c r="M37" s="9" t="s">
         <v>357</v>
       </c>
     </row>
     <row ht="16.5" r="38" spans="1:13" thickBot="1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="8">
         <v>294063</v>
       </c>
-      <c r="L38" s="16" t="s">
+      <c r="L38" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="M38" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row ht="16.5" r="39" spans="1:13" thickBot="1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K39" s="9">
+      <c r="J39" s="6"/>
+      <c r="K39" s="8">
         <v>288150</v>
       </c>
-      <c r="L39" s="16" t="s">
+      <c r="L39" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M39" s="16" t="s">
+      <c r="M39" s="9" t="s">
         <v>206</v>
       </c>
     </row>
     <row ht="16.5" r="40" spans="1:13" thickBot="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I40" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="8">
         <v>285899</v>
       </c>
-      <c r="L40" s="16" t="s">
+      <c r="L40" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="M40" s="11" t="s">
         <v>358</v>
       </c>
     </row>
     <row ht="16.5" r="41" spans="1:13" thickBot="1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="702" t="s">
         <v>207</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="703" t="s">
         <v>249</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="704" t="s">
         <v>249</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="705" t="s">
         <v>250</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="706" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="707" t="s">
         <v>251</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="708" t="s">
         <v>115</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="709" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="710" t="s">
         <v>125</v>
       </c>
-      <c r="K41" s="9">
+      <c r="J41" s="711"/>
+      <c r="K41" s="712">
         <v>294360</v>
       </c>
-      <c r="L41" s="16" t="s">
+      <c r="L41" s="713" t="s">
         <v>304</v>
       </c>
-      <c r="M41" s="8" t="s">
+      <c r="M41" s="714" t="s">
         <v>161</v>
       </c>
     </row>
     <row ht="16.5" r="42" spans="1:13" thickBot="1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="715" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="716" t="s">
         <v>249</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="717" t="s">
         <v>252</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="718" t="s">
         <v>253</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="719" t="s">
         <v>254</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="720" t="s">
         <v>255</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="721" t="s">
         <v>256</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="722" t="s">
         <v>257</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="723" t="s">
         <v>430</v>
       </c>
-      <c r="K42" s="9">
+      <c r="J42" s="724"/>
+      <c r="K42" s="725">
         <v>268009</v>
       </c>
-      <c r="L42" s="16" t="s">
+      <c r="L42" s="726" t="s">
         <v>343</v>
       </c>
-      <c r="M42" s="17" t="s">
+      <c r="M42" s="727" t="s">
         <v>259</v>
       </c>
     </row>
     <row ht="16.5" r="43" spans="1:13" thickBot="1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K43" s="9">
+      <c r="J43" s="6"/>
+      <c r="K43" s="8">
         <v>294560</v>
       </c>
-      <c r="L43" s="16" t="s">
+      <c r="L43" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="M43" s="16" t="s">
+      <c r="M43" s="9" t="s">
         <v>261</v>
       </c>
     </row>
     <row ht="16.5" r="44" spans="1:13" thickBot="1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="7" t="s">
         <v>101</v>
       </c>
       <c r="I44" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J44" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="8">
         <v>298846</v>
       </c>
-      <c r="L44" s="16" t="s">
+      <c r="L44" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="M44" s="11" t="s">
         <v>359</v>
       </c>
     </row>
     <row ht="16.5" r="45" spans="1:13" thickBot="1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K45" s="9">
+      <c r="J45" s="6"/>
+      <c r="K45" s="8">
         <v>288850</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="L45" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="M45" s="8" t="s">
+      <c r="M45" s="11" t="s">
         <v>264</v>
       </c>
     </row>
     <row ht="16.5" r="46" spans="1:13" thickBot="1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="728" t="s">
         <v>207</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="729" t="s">
         <v>249</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="730" t="s">
         <v>252</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="731" t="s">
         <v>253</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="732" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="733" t="s">
         <v>265</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="734" t="s">
         <v>119</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="735" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="736" t="s">
         <v>123</v>
       </c>
-      <c r="K46" s="9">
+      <c r="J46" s="737"/>
+      <c r="K46" s="738">
         <v>294422</v>
       </c>
-      <c r="L46" s="16" t="s">
+      <c r="L46" s="739" t="s">
         <v>266</v>
       </c>
-      <c r="M46" s="16" t="s">
+      <c r="M46" s="740" t="s">
         <v>267</v>
       </c>
     </row>
     <row ht="16.5" r="47" spans="1:13" thickBot="1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="741" t="s">
         <v>207</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="742" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="743" t="s">
         <v>249</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="744" t="s">
         <v>269</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="745" t="s">
         <v>96</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="746" t="s">
         <v>270</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="747" t="s">
         <v>128</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="748" t="s">
         <v>19</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="749" t="s">
         <v>76</v>
       </c>
-      <c r="K47" s="9">
+      <c r="J47" s="750"/>
+      <c r="K47" s="751">
         <v>294604</v>
       </c>
-      <c r="L47" s="16" t="s">
+      <c r="L47" s="752" t="s">
         <v>258</v>
       </c>
-      <c r="M47" s="16" t="s">
+      <c r="M47" s="753" t="s">
         <v>271</v>
       </c>
     </row>
     <row ht="16.5" r="48" spans="1:13" thickBot="1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="8">
         <v>292694</v>
       </c>
-      <c r="L48" s="16" t="s">
+      <c r="L48" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="M48" s="8" t="s">
+      <c r="M48" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row ht="16.5" r="49" spans="1:13" thickBot="1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K49" s="8">
         <v>294594</v>
       </c>
-      <c r="L49" s="16" t="s">
+      <c r="L49" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M49" s="16" t="s">
+      <c r="M49" s="9" t="s">
         <v>277</v>
       </c>
     </row>
     <row ht="16.5" r="50" spans="1:13" thickBot="1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="I50" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K50" s="9">
+      <c r="J50" s="6"/>
+      <c r="K50" s="8">
         <v>292795</v>
       </c>
-      <c r="L50" s="16" t="s">
+      <c r="L50" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="M50" s="16" t="s">
+      <c r="M50" s="9" t="s">
         <v>278</v>
       </c>
     </row>
     <row ht="16.5" r="51" spans="1:13" thickBot="1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I51" s="14" t="s">
+      <c r="I51" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K51" s="9">
+      <c r="J51" s="6"/>
+      <c r="K51" s="8">
         <v>294804</v>
       </c>
-      <c r="L51" s="16" t="s">
+      <c r="L51" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="M51" s="8" t="s">
+      <c r="M51" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row ht="16.5" r="52" spans="1:13" thickBot="1">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="I52" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="8">
         <v>294568</v>
       </c>
-      <c r="L52" s="16" t="s">
+      <c r="L52" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M52" s="16" t="s">
+      <c r="M52" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row ht="16.5" r="53" spans="1:13" thickBot="1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="I53" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53" s="8">
         <v>294591</v>
       </c>
-      <c r="L53" s="16" t="s">
+      <c r="L53" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M53" s="16" t="s">
+      <c r="M53" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row ht="16.5" r="54" spans="1:13" thickBot="1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="I54" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54" s="8">
         <v>301700</v>
       </c>
-      <c r="L54" s="7" t="s">
+      <c r="L54" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="M54" s="8" t="s">
+      <c r="M54" s="11" t="s">
         <v>349</v>
       </c>
     </row>
     <row ht="16.5" r="55" spans="1:13" thickBot="1">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="K55" s="9">
+      <c r="J55" s="6"/>
+      <c r="K55" s="8">
         <v>301702</v>
       </c>
-      <c r="L55" s="7" t="s">
+      <c r="L55" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="M55" s="8"/>
+      <c r="M55" s="11"/>
     </row>
     <row ht="16.5" r="56" spans="1:13" thickBot="1">
-      <c r="A56" s="1"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2" t="s">
+      <c r="A56" s="6"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
+      <c r="F56" s="6"/>
+      <c r="G56" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="I56" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="K56" s="9">
+      <c r="J56" s="6"/>
+      <c r="K56" s="8">
         <v>301710</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="L56" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="M56" s="8"/>
+      <c r="M56" s="11"/>
     </row>
     <row ht="16.5" r="57" spans="1:13" thickBot="1">
-      <c r="A57" s="1"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2" t="s">
+      <c r="A57" s="6"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
+      <c r="F57" s="6"/>
+      <c r="G57" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="I57" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="J57" s="5" t="s">
+      <c r="J57" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K57" s="8">
         <v>301717</v>
       </c>
-      <c r="L57" s="7"/>
-      <c r="M57" s="8" t="s">
+      <c r="L57" s="18"/>
+      <c r="M57" s="11" t="s">
         <v>362</v>
       </c>
     </row>
     <row ht="16.5" r="58" spans="1:13" thickBot="1">
-      <c r="A58" s="1"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="10" t="s">
+      <c r="A58" s="754"/>
+      <c r="B58" s="755"/>
+      <c r="C58" s="756"/>
+      <c r="D58" s="757"/>
+      <c r="E58" s="758"/>
+      <c r="F58" s="759"/>
+      <c r="G58" s="760"/>
+      <c r="H58" s="761"/>
+      <c r="I58" s="762" t="s">
         <v>293</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="J58" s="763" t="s">
         <v>339</v>
       </c>
-      <c r="K58" s="9"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="8" t="s">
+      <c r="K58" s="764"/>
+      <c r="L58" s="765"/>
+      <c r="M58" s="766" t="s">
         <v>294</v>
       </c>
     </row>
     <row ht="16.5" r="59" spans="1:13" thickBot="1">
-      <c r="A59" s="1"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2" t="s">
+      <c r="A59" s="6"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1" t="s">
+      <c r="F59" s="6"/>
+      <c r="G59" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="I59" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="J59" s="5" t="s">
+      <c r="J59" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K59" s="9">
+      <c r="K59" s="8">
         <v>301750</v>
       </c>
-      <c r="L59" s="7"/>
-      <c r="M59" s="8" t="s">
+      <c r="L59" s="18"/>
+      <c r="M59" s="11" t="s">
         <v>363</v>
       </c>
     </row>
     <row ht="16.5" r="60" spans="1:13" thickBot="1">
-      <c r="A60" s="1"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="10" t="s">
+      <c r="A60" s="6"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="J60" s="5" t="s">
+      <c r="J60" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K60" s="9"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="8" t="s">
+      <c r="K60" s="8"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="11" t="s">
         <v>294</v>
       </c>
     </row>
     <row ht="16.5" r="61" spans="1:13" thickBot="1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="I61" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="J61" s="5" t="s">
+      <c r="J61" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K61" s="8">
         <v>301756</v>
       </c>
-      <c r="L61" s="7"/>
-      <c r="M61" s="8"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="11"/>
     </row>
     <row ht="16.5" r="62" spans="1:13" thickBot="1">
-      <c r="A62" s="1"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="10" t="s">
+      <c r="A62" s="6"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="J62" s="5" t="s">
+      <c r="J62" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K62" s="9"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="8" t="s">
+      <c r="K62" s="8"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="11" t="s">
         <v>300</v>
       </c>
     </row>
     <row ht="16.5" r="63" spans="1:13" thickBot="1">
-      <c r="A63" t="s">
+      <c r="A63" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="I63" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="K63" s="9">
+      <c r="J63" s="6"/>
+      <c r="K63" s="8">
         <v>301765</v>
       </c>
-      <c r="L63" s="7" t="s">
+      <c r="L63" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="M63" s="8"/>
+      <c r="M63" s="11"/>
     </row>
     <row ht="16.5" r="64" spans="1:13" thickBot="1">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H64" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="I64" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="K64" s="9"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="8" t="s">
+      <c r="J64" s="6"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="11" t="s">
         <v>307</v>
       </c>
     </row>
     <row ht="16.5" r="65" spans="1:13" thickBot="1">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="10" t="s">
+      <c r="A65" s="6"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J65" s="5" t="s">
+      <c r="J65" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K65" s="9"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="8" t="s">
+      <c r="K65" s="8"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="11" t="s">
         <v>308</v>
       </c>
     </row>
     <row ht="16.5" r="66" spans="1:13" thickBot="1">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="10" t="s">
+      <c r="A66" s="6"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="K66" s="9"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="8" t="s">
+      <c r="J66" s="6"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="11" t="s">
         <v>294</v>
       </c>
     </row>
     <row ht="16.5" r="67" spans="1:13" thickBot="1">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="I67" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="K67" s="9">
+      <c r="J67" s="6"/>
+      <c r="K67" s="8">
         <v>301771</v>
       </c>
-      <c r="L67" s="7" t="s">
+      <c r="L67" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="M67" s="8"/>
+      <c r="M67" s="11"/>
     </row>
     <row ht="16.5" r="68" spans="1:13" thickBot="1">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="5" t="s">
+      <c r="A68" s="6"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="I68" s="10" t="s">
+      <c r="I68" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="J68" s="5" t="s">
+      <c r="J68" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K68" s="9"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="8" t="s">
+      <c r="K68" s="8"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="11" t="s">
         <v>308</v>
       </c>
     </row>
     <row ht="16.5" r="69" spans="1:13" thickBot="1">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="I69" s="10" t="s">
+      <c r="I69" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="J69" s="5" t="s">
+      <c r="J69" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K69" s="9">
+      <c r="K69" s="8">
         <v>301775</v>
       </c>
-      <c r="L69" s="7"/>
-      <c r="M69" s="8" t="s">
+      <c r="L69" s="18"/>
+      <c r="M69" s="11" t="s">
         <v>364</v>
       </c>
     </row>
     <row ht="16.5" r="70" spans="1:13" thickBot="1">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="767" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="768" t="s">
         <v>157</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="769" t="s">
         <v>163</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="770" t="s">
         <v>164</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="771" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="772" t="s">
         <v>334</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" s="773" t="s">
         <v>313</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="774" t="s">
         <v>314</v>
       </c>
-      <c r="I70" s="10" t="s">
+      <c r="I70" s="775" t="s">
         <v>315</v>
       </c>
-      <c r="J70" s="5" t="s">
+      <c r="J70" s="776" t="s">
         <v>365</v>
       </c>
-      <c r="K70" s="9">
+      <c r="K70" s="777">
         <v>302777</v>
       </c>
-      <c r="L70" s="7"/>
-      <c r="M70" s="2" t="s">
+      <c r="L70" s="778"/>
+      <c r="M70" s="779" t="s">
         <v>364</v>
       </c>
     </row>
     <row ht="16.5" r="71" spans="1:13" thickBot="1">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H71" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I71" s="10" t="s">
+      <c r="I71" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="J71" s="5" t="s">
+      <c r="J71" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K71" s="9">
+      <c r="K71" s="8">
         <v>302780</v>
       </c>
-      <c r="L71" s="1"/>
-      <c r="M71" s="8" t="s">
+      <c r="L71" s="6"/>
+      <c r="M71" s="11" t="s">
         <v>364</v>
       </c>
     </row>
     <row ht="16.5" r="72" spans="1:13" thickBot="1">
-      <c r="A72" t="s">
+      <c r="A72" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="H72" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I72" s="10" t="s">
+      <c r="I72" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J72" s="5" t="s">
+      <c r="J72" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K72" s="9">
+      <c r="K72" s="8">
         <v>302782</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="L72" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="M72" s="1"/>
+      <c r="M72" s="6"/>
     </row>
     <row ht="16.5" r="73" spans="1:13" thickBot="1">
-      <c r="A73" t="s">
+      <c r="A73" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H73" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I73" s="10" t="s">
+      <c r="I73" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J73" s="5" t="s">
+      <c r="J73" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K73" s="9">
+      <c r="K73" s="8">
         <v>302796</v>
       </c>
-      <c r="L73" s="1"/>
-      <c r="M73" s="8" t="s">
+      <c r="L73" s="6"/>
+      <c r="M73" s="11" t="s">
         <v>366</v>
       </c>
     </row>
     <row ht="16.5" r="74" spans="1:13" thickBot="1">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2" t="s">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
+      <c r="F74" s="6"/>
+      <c r="G74" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H74" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="10" t="s">
+      <c r="I74" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="J74" s="5" t="s">
+      <c r="J74" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K74" s="9">
+      <c r="K74" s="8">
         <v>302833</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="L74" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="M74" s="1"/>
+      <c r="M74" s="6"/>
     </row>
     <row ht="16.5" r="75" spans="1:13" thickBot="1">
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I75" s="10" t="s">
+      <c r="I75" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="J75" s="5" t="s">
+      <c r="J75" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K75" s="9">
+      <c r="K75" s="8">
         <v>302838</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="L75" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="M75" s="6" t="s">
         <v>367</v>
       </c>
     </row>
     <row ht="16.5" r="76" spans="1:13" thickBot="1">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1" t="s">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H76" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I76" s="10" t="s">
+      <c r="I76" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="J76" s="5" t="s">
+      <c r="J76" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K76" s="9">
+      <c r="K76" s="8">
         <v>302841</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="L76" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="M76" s="1"/>
+      <c r="M76" s="6"/>
     </row>
     <row ht="16.5" r="77" spans="1:13" thickBot="1">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1" t="s">
+      <c r="A77" s="780"/>
+      <c r="B77" s="781"/>
+      <c r="C77" s="782"/>
+      <c r="D77" s="783"/>
+      <c r="E77" s="784"/>
+      <c r="F77" s="785"/>
+      <c r="G77" s="786" t="s">
         <v>321</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H77" s="787" t="s">
         <v>24</v>
       </c>
-      <c r="I77" s="10" t="s">
+      <c r="I77" s="788" t="s">
         <v>322</v>
       </c>
-      <c r="J77" s="5" t="s">
+      <c r="J77" s="789" t="s">
         <v>365</v>
       </c>
-      <c r="K77" s="9">
+      <c r="K77" s="790">
         <v>302845</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="L77" s="791" t="s">
         <v>155</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="M77" s="792" t="s">
         <v>364</v>
       </c>
     </row>
     <row ht="16.5" r="78" spans="1:13" thickBot="1">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="793" t="s">
         <v>207</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="794" t="s">
         <v>230</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="795" t="s">
         <v>243</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="796" t="s">
         <v>244</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="797" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="798" t="s">
         <v>408</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="799" t="s">
         <v>113</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="800" t="s">
         <v>18</v>
       </c>
-      <c r="I78" s="10" t="s">
+      <c r="I78" s="801" t="s">
         <v>1</v>
       </c>
-      <c r="J78" s="5" t="s">
+      <c r="J78" s="802" t="s">
         <v>346</v>
       </c>
-      <c r="K78" s="9">
+      <c r="K78" s="803">
         <v>307394</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="L78" s="804" t="s">
         <v>155</v>
       </c>
-      <c r="M78" s="1"/>
+      <c r="M78" s="805"/>
     </row>
     <row ht="16.5" r="79" spans="1:13" thickBot="1">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="H79" s="18" t="s">
+      <c r="H79" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I79" s="10" t="s">
+      <c r="I79" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J79" s="5" t="s">
+      <c r="J79" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K79" s="9">
+      <c r="K79" s="8">
         <v>307395</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="L79" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="M79" s="6"/>
     </row>
     <row ht="16.5" r="80" spans="1:13" thickBot="1">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="6" t="s">
         <v>388</v>
       </c>
       <c r="F80" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="H80" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I80" s="10" t="s">
+      <c r="I80" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="J80" s="5" t="s">
+      <c r="J80" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K80" s="9">
+      <c r="K80" s="8">
         <v>307396</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="L80" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="M80" s="6"/>
     </row>
     <row ht="16.5" r="81" spans="1:13" thickBot="1">
-      <c r="A81" t="s">
+      <c r="A81" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="5" t="s">
         <v>389</v>
       </c>
       <c r="F81" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="H81" s="18" t="s">
+      <c r="H81" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I81" s="10" t="s">
+      <c r="I81" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="J81" s="5" t="s">
+      <c r="J81" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K81" s="9">
+      <c r="K81" s="8">
         <v>307398</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="L81" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="M81" s="6"/>
     </row>
     <row ht="16.5" r="82" spans="1:13" thickBot="1">
-      <c r="E82" s="2" t="s">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G82" t="s">
+      <c r="F82" s="6"/>
+      <c r="G82" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H82" s="18" t="s">
+      <c r="H82" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I82" s="10" t="s">
+      <c r="I82" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="J82" s="5" t="s">
+      <c r="J82" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K82" s="9">
+      <c r="K82" s="8">
         <v>307400</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="L82" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="M82" s="6"/>
     </row>
     <row ht="16.5" r="83" spans="1:13" thickBot="1">
-      <c r="E83" s="2" t="s">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="G83" t="s">
+      <c r="F83" s="6"/>
+      <c r="G83" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="H83" s="18" t="s">
+      <c r="H83" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I83" s="10" t="s">
+      <c r="I83" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="J83" s="5" t="s">
+      <c r="J83" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K83" s="9">
+      <c r="K83" s="8">
         <v>307402</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="L83" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="M83" s="6"/>
     </row>
     <row ht="16.5" r="84" spans="1:13" thickBot="1">
-      <c r="G84" t="s">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="H84" s="18" t="s">
+      <c r="H84" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="I84" s="10" t="s">
+      <c r="I84" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="J84" s="5" t="s">
+      <c r="J84" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K84" s="9">
+      <c r="K84" s="8">
         <v>307405</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="L84" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="M84" s="6"/>
     </row>
     <row ht="16.5" r="85" spans="1:13" thickBot="1">
-      <c r="G85" t="s">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="H85" s="18" t="s">
+      <c r="H85" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I85" s="10" t="s">
+      <c r="I85" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="J85" s="5" t="s">
+      <c r="J85" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K85" s="9">
+      <c r="K85" s="8">
         <v>307407</v>
       </c>
-      <c r="L85" s="2" t="s">
+      <c r="L85" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="M85" s="6"/>
     </row>
     <row ht="16.5" r="86" spans="1:13" thickBot="1">
-      <c r="A86" t="s">
+      <c r="A86" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="5" t="s">
         <v>397</v>
       </c>
       <c r="F86" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="H86" s="18" t="s">
+      <c r="H86" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="I86" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="J86" s="5" t="s">
+      <c r="J86" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K86" s="9">
+      <c r="K86" s="8">
         <v>307408</v>
       </c>
-      <c r="L86" s="2" t="s">
+      <c r="L86" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="M86" s="6"/>
     </row>
     <row ht="16.5" r="87" spans="1:13" thickBot="1">
-      <c r="A87" t="s">
+      <c r="A87" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="5" t="s">
         <v>399</v>
       </c>
       <c r="F87" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="H87" s="18" t="s">
+      <c r="H87" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="I87" s="10" t="s">
+      <c r="I87" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="J87" s="5" t="s">
+      <c r="J87" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K87" s="9">
+      <c r="K87" s="8">
         <v>307494</v>
       </c>
-      <c r="L87" s="2" t="s">
+      <c r="L87" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="M87" s="6"/>
     </row>
     <row ht="16.5" r="88" spans="1:13" thickBot="1">
-      <c r="A88" t="s">
+      <c r="A88" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C88" t="s">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="D88" s="6"/>
+      <c r="E88" s="5" t="s">
         <v>400</v>
       </c>
       <c r="F88" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="H88" s="18" t="s">
+      <c r="H88" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="I88" s="10" t="s">
+      <c r="I88" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="J88" s="5" t="s">
+      <c r="J88" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K88" s="9">
+      <c r="K88" s="8">
         <v>307527</v>
       </c>
-      <c r="L88" s="2" t="s">
+      <c r="L88" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="M88" s="6"/>
     </row>
     <row ht="16.5" r="89" spans="1:13" thickBot="1">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="5" t="s">
         <v>99</v>
       </c>
       <c r="F89" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="H89" s="18" t="s">
+      <c r="H89" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="I89" s="10" t="s">
+      <c r="I89" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="J89" s="5" t="s">
+      <c r="J89" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K89" s="9">
+      <c r="K89" s="8">
         <v>307534</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="L89" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="M89" s="6"/>
     </row>
     <row ht="16.5" r="90" spans="1:13" thickBot="1">
-      <c r="A90" t="s">
+      <c r="A90" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="5" t="s">
         <v>92</v>
       </c>
       <c r="F90" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H90" s="18" t="s">
+      <c r="H90" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I90" s="10" t="s">
+      <c r="I90" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="J90" s="5" t="s">
+      <c r="J90" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K90" s="9">
+      <c r="K90" s="8">
         <v>307535</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="L90" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="M90" s="6"/>
     </row>
     <row ht="16.5" r="91" spans="1:13" thickBot="1">
-      <c r="E91" s="2" t="s">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="G91" t="s">
+      <c r="F91" s="6"/>
+      <c r="G91" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="H91" s="18" t="s">
+      <c r="H91" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="I91" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="J91" s="5" t="s">
+      <c r="J91" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K91" s="9"/>
-      <c r="M91" t="s">
+      <c r="K91" s="8"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6" t="s">
         <v>404</v>
       </c>
     </row>
     <row ht="16.5" r="92" spans="1:13" thickBot="1">
-      <c r="A92" t="s">
+      <c r="A92" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="5" t="s">
         <v>405</v>
       </c>
       <c r="F92" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H92" s="18" t="s">
+      <c r="H92" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="I92" s="10" t="s">
+      <c r="I92" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="J92" s="5" t="s">
+      <c r="J92" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K92" s="9">
+      <c r="K92" s="8">
         <v>307542</v>
       </c>
-      <c r="L92" s="2" t="s">
+      <c r="L92" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="M92" s="6"/>
     </row>
     <row ht="16.5" r="93" spans="1:13" thickBot="1">
-      <c r="A93" t="s">
+      <c r="A93" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="5" t="s">
         <v>99</v>
       </c>
       <c r="F93" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="H93" s="18" t="s">
+      <c r="H93" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="I93" s="10" t="s">
+      <c r="I93" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="J93" s="5" t="s">
+      <c r="J93" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K93" s="9">
+      <c r="K93" s="8">
         <v>307551</v>
       </c>
-      <c r="L93" s="2" t="s">
+      <c r="L93" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="M93" s="6"/>
     </row>
     <row ht="16.5" r="94" spans="1:13" thickBot="1">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="H94" s="18" t="s">
+      <c r="H94" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I94" s="10" t="s">
+      <c r="I94" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="J94" s="5" t="s">
+      <c r="J94" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K94" s="9">
+      <c r="K94" s="8">
         <v>307554</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="L94" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="M94" s="6"/>
     </row>
     <row ht="16.5" r="95" spans="1:13" thickBot="1">
-      <c r="E95" s="2" t="s">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="H95" s="18" t="s">
+      <c r="H95" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="I95" s="10" t="s">
+      <c r="I95" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="J95" s="5" t="s">
+      <c r="J95" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K95" s="9"/>
-      <c r="M95" t="s">
+      <c r="K95" s="8"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="H96" s="18" t="s">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="I96" s="5" t="s">
+      <c r="I96" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="J96" s="5" t="s">
+      <c r="J96" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="M96" s="1" t="s">
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="H97" s="18" t="s">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I97" s="5" t="s">
+      <c r="I97" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="J97" s="5" t="s">
+      <c r="J97" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="21" t="s">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="I98" s="22" t="s">
+      <c r="I98" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="J98" s="22" t="s">
+      <c r="J98" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="20" t="s">
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="21" t="s">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="I99" s="22" t="s">
+      <c r="I99" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="J99" s="22" t="s">
+      <c r="J99" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="20" t="s">
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="20"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="21" t="s">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="I100" s="22" t="s">
+      <c r="I100" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="J100" s="22" t="s">
+      <c r="J100" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K100" s="20"/>
-      <c r="L100" s="20"/>
-      <c r="M100" s="20" t="s">
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="101" spans="1:13">
-      <c r="H101" s="18" t="s">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="I101" s="5" t="s">
+      <c r="I101" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="J101" s="5" t="s">
+      <c r="J101" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M101" s="1" t="s">
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6" t="s">
         <v>434</v>
       </c>
     </row>
@@ -6281,121 +8492,599 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:D11"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.84375" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="807" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="807" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="807" t="s">
+        <v>431</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" t="s" s="809">
+        <v>445</v>
+      </c>
+      <c r="B2" t="s" s="806">
+        <v>446</v>
+      </c>
+      <c r="C2" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="809">
+        <v>448</v>
+      </c>
+      <c r="B3" t="s" s="806">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s" s="809">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="809">
         <v>449</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B4" t="s" s="806">
         <v>18</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C4" t="s" s="809">
         <v>447</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="24" t="s">
+    <row r="5">
+      <c r="A5" t="s" s="809">
+        <v>450</v>
+      </c>
+      <c r="B5" t="s" s="806">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="809">
+        <v>451</v>
+      </c>
+      <c r="B6" t="s" s="806">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s" s="809">
         <v>339</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="24" t="s">
+    <row r="7">
+      <c r="A7" t="s" s="809">
+        <v>452</v>
+      </c>
+      <c r="B7" t="s" s="806">
+        <v>453</v>
+      </c>
+      <c r="C7" t="s" s="809">
         <v>447</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="24" t="s">
+    <row r="8">
+      <c r="A8" t="s" s="809">
+        <v>454</v>
+      </c>
+      <c r="B8" t="s" s="806">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="809">
+        <v>455</v>
+      </c>
+      <c r="B9" t="s" s="806">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="809">
+        <v>456</v>
+      </c>
+      <c r="B10" t="s" s="806">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="809">
+        <v>457</v>
+      </c>
+      <c r="B11" t="s" s="806">
+        <v>458</v>
+      </c>
+      <c r="C11" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="809">
+        <v>459</v>
+      </c>
+      <c r="B12" t="s" s="806">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="809">
+        <v>460</v>
+      </c>
+      <c r="B13" t="s" s="806">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s" s="809">
         <v>339</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="24" t="s">
+    <row r="14">
+      <c r="A14" t="s" s="809">
+        <v>461</v>
+      </c>
+      <c r="B14" t="s" s="806">
+        <v>462</v>
+      </c>
+      <c r="C14" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="809">
+        <v>463</v>
+      </c>
+      <c r="B15" t="s" s="806">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="809">
+        <v>464</v>
+      </c>
+      <c r="B16" t="s" s="806">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="809">
+        <v>465</v>
+      </c>
+      <c r="B17" t="s" s="806">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="809">
+        <v>466</v>
+      </c>
+      <c r="B18" t="s" s="806">
+        <v>433</v>
+      </c>
+      <c r="C18" t="s" s="809">
         <v>339</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="24" t="s">
+    <row r="19">
+      <c r="A19" t="s" s="809">
+        <v>467</v>
+      </c>
+      <c r="B19" t="s" s="806">
+        <v>468</v>
+      </c>
+      <c r="C19" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="809">
+        <v>469</v>
+      </c>
+      <c r="B20" t="s" s="806">
+        <v>470</v>
+      </c>
+      <c r="C20" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="809">
+        <v>471</v>
+      </c>
+      <c r="B21" t="s" s="806">
+        <v>472</v>
+      </c>
+      <c r="C21" t="s" s="809">
         <v>339</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="24" t="s">
+    <row r="22">
+      <c r="A22" t="s" s="809">
+        <v>473</v>
+      </c>
+      <c r="B22" t="s" s="806">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s" s="809">
         <v>339</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="C9" s="24" t="s">
+    <row r="23">
+      <c r="A23" t="s" s="809">
+        <v>474</v>
+      </c>
+      <c r="B23" t="s" s="806">
+        <v>433</v>
+      </c>
+      <c r="C23" t="s" s="809">
         <v>339</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="24" t="s">
+    <row r="24">
+      <c r="A24" t="s" s="809">
+        <v>475</v>
+      </c>
+      <c r="B24" t="s" s="806">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="809">
+        <v>476</v>
+      </c>
+      <c r="B25" t="s" s="806">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s" s="809">
         <v>339</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="C11" s="24" t="s">
+    <row r="26">
+      <c r="A26" t="s" s="809">
+        <v>477</v>
+      </c>
+      <c r="B26" t="s" s="806">
+        <v>468</v>
+      </c>
+      <c r="C26" t="s" s="809">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="809">
+        <v>478</v>
+      </c>
+      <c r="B27" t="s" s="806">
+        <v>458</v>
+      </c>
+      <c r="C27" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="809">
+        <v>479</v>
+      </c>
+      <c r="B28" t="s" s="806">
+        <v>470</v>
+      </c>
+      <c r="C28" t="s" s="809">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="809">
+        <v>480</v>
+      </c>
+      <c r="B29" t="s" s="806">
+        <v>481</v>
+      </c>
+      <c r="C29" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="809">
+        <v>482</v>
+      </c>
+      <c r="B30" t="s" s="806">
+        <v>481</v>
+      </c>
+      <c r="C30" t="s" s="809">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="809">
+        <v>483</v>
+      </c>
+      <c r="B31" t="s" s="806">
+        <v>481</v>
+      </c>
+      <c r="C31" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="809">
+        <v>484</v>
+      </c>
+      <c r="B32" t="s" s="806">
+        <v>481</v>
+      </c>
+      <c r="C32" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="809">
+        <v>485</v>
+      </c>
+      <c r="B33" t="s" s="806">
+        <v>486</v>
+      </c>
+      <c r="C33" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="809">
+        <v>487</v>
+      </c>
+      <c r="B34" t="s" s="806">
+        <v>481</v>
+      </c>
+      <c r="C34" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="809">
+        <v>488</v>
+      </c>
+      <c r="B35" t="s" s="806">
+        <v>481</v>
+      </c>
+      <c r="C35" t="s" s="809">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="809">
+        <v>489</v>
+      </c>
+      <c r="B36" t="s" s="806">
+        <v>373</v>
+      </c>
+      <c r="C36" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="809">
+        <v>490</v>
+      </c>
+      <c r="B37" t="s" s="806">
+        <v>373</v>
+      </c>
+      <c r="C37" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="809">
+        <v>491</v>
+      </c>
+      <c r="B38" t="s" s="806">
+        <v>481</v>
+      </c>
+      <c r="C38" t="s" s="809">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="809">
+        <v>492</v>
+      </c>
+      <c r="B39" t="s" s="806">
+        <v>481</v>
+      </c>
+      <c r="C39" t="s" s="809">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="809">
+        <v>493</v>
+      </c>
+      <c r="B40" t="s" s="806">
+        <v>373</v>
+      </c>
+      <c r="C40" t="s" s="809">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="809">
+        <v>494</v>
+      </c>
+      <c r="B41" t="s" s="806">
+        <v>481</v>
+      </c>
+      <c r="C41" t="s" s="809">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="809">
+        <v>495</v>
+      </c>
+      <c r="B42" t="s" s="806">
+        <v>373</v>
+      </c>
+      <c r="C42" t="s" s="809">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="809">
+        <v>496</v>
+      </c>
+      <c r="B43" t="s" s="806">
+        <v>373</v>
+      </c>
+      <c r="C43" t="s" s="809">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="809">
+        <v>497</v>
+      </c>
+      <c r="B44" t="s" s="806">
+        <v>373</v>
+      </c>
+      <c r="C44" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="809">
+        <v>498</v>
+      </c>
+      <c r="B45" t="s" s="806">
+        <v>373</v>
+      </c>
+      <c r="C45" t="s" s="809">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="809">
+        <v>499</v>
+      </c>
+      <c r="B46" t="s" s="806">
+        <v>373</v>
+      </c>
+      <c r="C46" t="s" s="809">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="809">
+        <v>500</v>
+      </c>
+      <c r="B47" t="s" s="806">
+        <v>373</v>
+      </c>
+      <c r="C47" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="809">
+        <v>501</v>
+      </c>
+      <c r="B48" t="s" s="806">
+        <v>373</v>
+      </c>
+      <c r="C48" t="s" s="809">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="809">
+        <v>502</v>
+      </c>
+      <c r="B49" t="s" s="806">
+        <v>373</v>
+      </c>
+      <c r="C49" t="s" s="809">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="809">
+        <v>503</v>
+      </c>
+      <c r="B50" t="s" s="806">
+        <v>373</v>
+      </c>
+      <c r="C50" t="s" s="809">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="809">
+        <v>504</v>
+      </c>
+      <c r="B51" t="s" s="806">
+        <v>458</v>
+      </c>
+      <c r="C51" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="809">
+        <v>505</v>
+      </c>
+      <c r="B52" t="s" s="806">
+        <v>373</v>
+      </c>
+      <c r="C52" t="s" s="809">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="809">
+        <v>506</v>
+      </c>
+      <c r="B53" t="s" s="806">
+        <v>507</v>
+      </c>
+      <c r="C53" t="s" s="809">
         <v>339</v>
       </c>
     </row>
@@ -6404,583 +9093,137 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:D53"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.84375" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="811" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="811" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="811" t="s">
+        <v>431</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="A2" t="s" s="813">
+        <v>449</v>
+      </c>
+      <c r="B2" t="s" s="810">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s" s="813">
         <v>447</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="A3" t="s" s="813">
+        <v>508</v>
+      </c>
+      <c r="B3" t="s" s="810">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s" s="813">
         <v>339</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="A4" t="s" s="813">
+        <v>509</v>
+      </c>
+      <c r="B4" t="s" s="810">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="813">
         <v>447</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="23" t="s">
-        <v>450</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>447</v>
+      <c r="A5" t="s" s="813">
+        <v>510</v>
+      </c>
+      <c r="B5" t="s" s="810">
+        <v>511</v>
+      </c>
+      <c r="C5" t="s" s="813">
+        <v>339</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="A6" t="s" s="813">
+        <v>512</v>
+      </c>
+      <c r="B6" t="s" s="810">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s" s="813">
         <v>339</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>453</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>447</v>
+      <c r="A7" t="s" s="813">
+        <v>513</v>
+      </c>
+      <c r="B7" t="s" s="810">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s" s="813">
+        <v>339</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="23" t="s">
-        <v>454</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>447</v>
+      <c r="A8" t="s" s="813">
+        <v>514</v>
+      </c>
+      <c r="B8" t="s" s="810">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s" s="813">
+        <v>339</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>455</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>447</v>
+      <c r="A9" t="s" s="813">
+        <v>515</v>
+      </c>
+      <c r="B9" t="s" s="810">
+        <v>516</v>
+      </c>
+      <c r="C9" t="s" s="813">
+        <v>339</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>447</v>
+      <c r="A10" t="s" s="813">
+        <v>517</v>
+      </c>
+      <c r="B10" t="s" s="810">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s" s="813">
+        <v>339</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>458</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="23" t="s">
-        <v>469</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="23" t="s">
-        <v>471</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>472</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="23" t="s">
-        <v>473</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="23" t="s">
-        <v>474</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="23" t="s">
-        <v>476</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="23" t="s">
-        <v>477</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>458</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="23" t="s">
-        <v>479</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="23" t="s">
-        <v>482</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="23" t="s">
-        <v>483</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="23" t="s">
-        <v>487</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="23" t="s">
-        <v>492</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="23" t="s">
-        <v>495</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="23" t="s">
-        <v>496</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>458</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="23" t="s">
-        <v>505</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="23" t="s">
-        <v>506</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="C53" s="23" t="s">
+      <c r="A11" t="s" s="813">
+        <v>518</v>
+      </c>
+      <c r="B11" t="s" s="810">
+        <v>519</v>
+      </c>
+      <c r="C11" t="s" s="813">
         <v>339</v>
       </c>
     </row>

--- a/SonarLysaFX/Suivi_Quality_Gate.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="SUIVI Qualité" r:id="rId1" sheetId="8"/>
-    <sheet name="E30" r:id="rId7" sheetId="15"/>
-    <sheet name="E31" r:id="rId8" sheetId="16"/>
+    <sheet name="E30" r:id="rId7" sheetId="17"/>
+    <sheet name="E31" r:id="rId8" sheetId="18"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'SUIVI Qualité'!$A$1:$M$77</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="520">
   <si>
     <t>Edition</t>
   </si>
@@ -1764,7 +1764,7 @@
       <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="57">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2034,8 +2034,38 @@
         <fgColor indexed="43"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2214,6 +2244,18 @@
       <right style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2261,7 +2303,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="20" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="814">
+  <cellXfs count="1056">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="11" fontId="5" numFmtId="0" xfId="21">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4292,28 +4334,630 @@
       <alignment horizontal="left"/>
     </xf>
     <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+    <xf applyBorder="true" borderId="19" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="20" xfId="0" applyBorder="true" applyFill="true">
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="48" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="50" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="19" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="19" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="48" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="50" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="19" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" applyFont="1" borderId="0" fillId="51" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" borderId="1" fillId="51" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="23" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="19" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="22" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="20" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="23" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="19" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="22" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5258,41 +5902,41 @@
       </c>
     </row>
     <row ht="16.5" r="15" spans="1:13" thickBot="1">
-      <c r="A15" s="598" t="s">
+      <c r="A15" s="814" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="599" t="s">
+      <c r="B15" s="815" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="600" t="s">
+      <c r="C15" s="816" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="601" t="s">
+      <c r="D15" s="817" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="602" t="s">
+      <c r="E15" s="818" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="603" t="s">
+      <c r="F15" s="819" t="s">
         <v>187</v>
       </c>
-      <c r="G15" s="604" t="s">
+      <c r="G15" s="820" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="605" t="s">
+      <c r="H15" s="821" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="606" t="s">
+      <c r="I15" s="822" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="607"/>
-      <c r="K15" s="608">
+      <c r="J15" s="823"/>
+      <c r="K15" s="824">
         <v>285909</v>
       </c>
-      <c r="L15" s="609" t="s">
+      <c r="L15" s="825" t="s">
         <v>348</v>
       </c>
-      <c r="M15" s="610" t="s">
+      <c r="M15" s="826" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5377,125 +6021,125 @@
       </c>
     </row>
     <row ht="16.5" r="18" spans="1:13" thickBot="1">
-      <c r="A18" s="611" t="s">
+      <c r="A18" s="827" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="612" t="s">
+      <c r="B18" s="828" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="613" t="s">
+      <c r="C18" s="829" t="s">
         <v>198</v>
       </c>
-      <c r="D18" s="614" t="s">
+      <c r="D18" s="830" t="s">
         <v>199</v>
       </c>
-      <c r="E18" s="615" t="s">
+      <c r="E18" s="831" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="616" t="s">
+      <c r="F18" s="832" t="s">
         <v>200</v>
       </c>
-      <c r="G18" s="617" t="s">
+      <c r="G18" s="833" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="618" t="s">
+      <c r="H18" s="834" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="619" t="s">
+      <c r="I18" s="835" t="s">
         <v>124</v>
       </c>
-      <c r="J18" s="620" t="s">
+      <c r="J18" s="836" t="s">
         <v>339</v>
       </c>
-      <c r="K18" s="621">
+      <c r="K18" s="837">
         <v>294418</v>
       </c>
-      <c r="L18" s="622" t="s">
+      <c r="L18" s="838" t="s">
         <v>168</v>
       </c>
-      <c r="M18" s="623" t="s">
+      <c r="M18" s="839" t="s">
         <v>201</v>
       </c>
     </row>
     <row ht="16.5" r="19" spans="1:13" thickBot="1">
-      <c r="A19" s="624" t="s">
+      <c r="A19" s="840" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="625" t="s">
+      <c r="B19" s="841" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="626" t="s">
+      <c r="C19" s="842" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="627" t="s">
+      <c r="D19" s="843" t="s">
         <v>199</v>
       </c>
-      <c r="E19" s="628" t="s">
+      <c r="E19" s="844" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="629" t="s">
+      <c r="F19" s="845" t="s">
         <v>200</v>
       </c>
-      <c r="G19" s="630" t="s">
+      <c r="G19" s="846" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="631" t="s">
+      <c r="H19" s="847" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="632" t="s">
+      <c r="I19" s="848" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="633" t="s">
+      <c r="J19" s="849" t="s">
         <v>352</v>
       </c>
-      <c r="K19" s="634">
+      <c r="K19" s="850">
         <v>294484</v>
       </c>
-      <c r="L19" s="635" t="s">
+      <c r="L19" s="851" t="s">
         <v>155</v>
       </c>
-      <c r="M19" s="636" t="s">
+      <c r="M19" s="852" t="s">
         <v>350</v>
       </c>
     </row>
     <row ht="16.5" r="20" spans="1:13" thickBot="1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="853" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="854" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="855" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="856" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="857" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="858" t="s">
         <v>205</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="859" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="860" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="861" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="862" t="s">
         <v>340</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="863">
         <v>285884</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="864" t="s">
         <v>155</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="865" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5541,41 +6185,41 @@
       </c>
     </row>
     <row ht="16.5" r="22" spans="1:13" thickBot="1">
-      <c r="A22" s="637" t="s">
+      <c r="A22" s="866" t="s">
         <v>207</v>
       </c>
-      <c r="B22" s="638" t="s">
+      <c r="B22" s="867" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="639" t="s">
+      <c r="C22" s="868" t="s">
         <v>208</v>
       </c>
-      <c r="D22" s="640" t="s">
+      <c r="D22" s="869" t="s">
         <v>209</v>
       </c>
-      <c r="E22" s="641" t="s">
+      <c r="E22" s="870" t="s">
         <v>213</v>
       </c>
-      <c r="F22" s="642" t="s">
+      <c r="F22" s="871" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="643" t="s">
+      <c r="G22" s="872" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="644" t="s">
+      <c r="H22" s="873" t="s">
         <v>215</v>
       </c>
-      <c r="I22" s="645" t="s">
+      <c r="I22" s="874" t="s">
         <v>427</v>
       </c>
-      <c r="J22" s="646"/>
-      <c r="K22" s="647">
+      <c r="J22" s="875"/>
+      <c r="K22" s="876">
         <v>248089</v>
       </c>
-      <c r="L22" s="648" t="s">
+      <c r="L22" s="877" t="s">
         <v>216</v>
       </c>
-      <c r="M22" s="649" t="s">
+      <c r="M22" s="878" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5699,41 +6343,41 @@
       </c>
     </row>
     <row ht="16.5" r="26" spans="1:13" thickBot="1">
-      <c r="A26" s="650" t="s">
+      <c r="A26" s="879" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="651" t="s">
+      <c r="B26" s="880" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="652" t="s">
+      <c r="C26" s="881" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="653" t="s">
+      <c r="D26" s="882" t="s">
         <v>209</v>
       </c>
-      <c r="E26" s="654" t="s">
+      <c r="E26" s="883" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="655" t="s">
+      <c r="F26" s="884" t="s">
         <v>227</v>
       </c>
-      <c r="G26" s="656" t="s">
+      <c r="G26" s="885" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="657" t="s">
+      <c r="H26" s="886" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="658" t="s">
+      <c r="I26" s="887" t="s">
         <v>84</v>
       </c>
-      <c r="J26" s="659"/>
-      <c r="K26" s="660">
+      <c r="J26" s="888"/>
+      <c r="K26" s="889">
         <v>294356</v>
       </c>
-      <c r="L26" s="661" t="s">
+      <c r="L26" s="890" t="s">
         <v>343</v>
       </c>
-      <c r="M26" s="662" t="s">
+      <c r="M26" s="891" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5777,43 +6421,43 @@
       </c>
     </row>
     <row ht="16.5" r="28" spans="1:13" thickBot="1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="892" t="s">
         <v>207</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="893" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="894" t="s">
         <v>228</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="895" t="s">
         <v>204</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="896" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="897" t="s">
         <v>205</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="898" t="s">
         <v>114</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="899" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="900" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="901" t="s">
         <v>340</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="902">
         <v>294402</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="903" t="s">
         <v>229</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="904" t="s">
         <v>354</v>
       </c>
     </row>
@@ -5937,82 +6581,82 @@
       </c>
     </row>
     <row ht="16.5" r="32" spans="1:13" thickBot="1">
-      <c r="A32" s="663" t="s">
+      <c r="A32" s="905" t="s">
         <v>207</v>
       </c>
-      <c r="B32" s="664" t="s">
+      <c r="B32" s="906" t="s">
         <v>230</v>
       </c>
-      <c r="C32" s="665" t="s">
+      <c r="C32" s="907" t="s">
         <v>231</v>
       </c>
-      <c r="D32" s="666" t="s">
+      <c r="D32" s="908" t="s">
         <v>232</v>
       </c>
-      <c r="E32" s="667" t="s">
+      <c r="E32" s="909" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="668" t="s">
+      <c r="F32" s="910" t="s">
         <v>236</v>
       </c>
-      <c r="G32" s="669" t="s">
+      <c r="G32" s="911" t="s">
         <v>108</v>
       </c>
-      <c r="H32" s="670" t="s">
+      <c r="H32" s="912" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="671" t="s">
+      <c r="I32" s="913" t="s">
         <v>81</v>
       </c>
-      <c r="J32" s="672"/>
-      <c r="K32" s="673">
+      <c r="J32" s="914"/>
+      <c r="K32" s="915">
         <v>294352</v>
       </c>
-      <c r="L32" s="674" t="s">
+      <c r="L32" s="916" t="s">
         <v>155</v>
       </c>
-      <c r="M32" s="675" t="s">
+      <c r="M32" s="917" t="s">
         <v>237</v>
       </c>
     </row>
     <row ht="16.5" r="33" spans="1:13" thickBot="1">
-      <c r="A33" s="676" t="s">
+      <c r="A33" s="918" t="s">
         <v>207</v>
       </c>
-      <c r="B33" s="677" t="s">
+      <c r="B33" s="919" t="s">
         <v>230</v>
       </c>
-      <c r="C33" s="678" t="s">
+      <c r="C33" s="920" t="s">
         <v>231</v>
       </c>
-      <c r="D33" s="679" t="s">
+      <c r="D33" s="921" t="s">
         <v>232</v>
       </c>
-      <c r="E33" s="680" t="s">
+      <c r="E33" s="922" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="681" t="s">
+      <c r="F33" s="923" t="s">
         <v>238</v>
       </c>
-      <c r="G33" s="682" t="s">
+      <c r="G33" s="924" t="s">
         <v>111</v>
       </c>
-      <c r="H33" s="683" t="s">
+      <c r="H33" s="925" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="684" t="s">
+      <c r="I33" s="926" t="s">
         <v>80</v>
       </c>
-      <c r="J33" s="685" t="s">
+      <c r="J33" s="927" t="s">
         <v>355</v>
       </c>
-      <c r="K33" s="686">
+      <c r="K33" s="928">
         <v>294412</v>
       </c>
-      <c r="L33" s="687" t="s">
+      <c r="L33" s="929" t="s">
         <v>155</v>
       </c>
-      <c r="M33" s="688" t="s">
+      <c r="M33" s="930" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6099,43 +6743,43 @@
       </c>
     </row>
     <row ht="16.5" r="36" spans="1:13" thickBot="1">
-      <c r="A36" s="689" t="s">
+      <c r="A36" s="931" t="s">
         <v>207</v>
       </c>
-      <c r="B36" s="690" t="s">
+      <c r="B36" s="932" t="s">
         <v>230</v>
       </c>
-      <c r="C36" s="691" t="s">
+      <c r="C36" s="933" t="s">
         <v>231</v>
       </c>
-      <c r="D36" s="692" t="s">
+      <c r="D36" s="934" t="s">
         <v>232</v>
       </c>
-      <c r="E36" s="693" t="s">
+      <c r="E36" s="935" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="694" t="s">
+      <c r="F36" s="936" t="s">
         <v>234</v>
       </c>
-      <c r="G36" s="695" t="s">
+      <c r="G36" s="937" t="s">
         <v>240</v>
       </c>
-      <c r="H36" s="696" t="s">
+      <c r="H36" s="938" t="s">
         <v>191</v>
       </c>
-      <c r="I36" s="697" t="s">
+      <c r="I36" s="939" t="s">
         <v>429</v>
       </c>
-      <c r="J36" s="698" t="s">
+      <c r="J36" s="940" t="s">
         <v>355</v>
       </c>
-      <c r="K36" s="699">
+      <c r="K36" s="941">
         <v>248077</v>
       </c>
-      <c r="L36" s="700" t="s">
+      <c r="L36" s="942" t="s">
         <v>241</v>
       </c>
-      <c r="M36" s="701" t="s">
+      <c r="M36" s="943" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6300,80 +6944,80 @@
       </c>
     </row>
     <row ht="16.5" r="41" spans="1:13" thickBot="1">
-      <c r="A41" s="702" t="s">
+      <c r="A41" s="944" t="s">
         <v>207</v>
       </c>
-      <c r="B41" s="703" t="s">
+      <c r="B41" s="945" t="s">
         <v>249</v>
       </c>
-      <c r="C41" s="704" t="s">
+      <c r="C41" s="946" t="s">
         <v>249</v>
       </c>
-      <c r="D41" s="705" t="s">
+      <c r="D41" s="947" t="s">
         <v>250</v>
       </c>
-      <c r="E41" s="706" t="s">
+      <c r="E41" s="948" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="707" t="s">
+      <c r="F41" s="949" t="s">
         <v>251</v>
       </c>
-      <c r="G41" s="708" t="s">
+      <c r="G41" s="950" t="s">
         <v>115</v>
       </c>
-      <c r="H41" s="709" t="s">
+      <c r="H41" s="951" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="710" t="s">
+      <c r="I41" s="952" t="s">
         <v>125</v>
       </c>
-      <c r="J41" s="711"/>
-      <c r="K41" s="712">
+      <c r="J41" s="953"/>
+      <c r="K41" s="954">
         <v>294360</v>
       </c>
-      <c r="L41" s="713" t="s">
+      <c r="L41" s="955" t="s">
         <v>304</v>
       </c>
-      <c r="M41" s="714" t="s">
+      <c r="M41" s="956" t="s">
         <v>161</v>
       </c>
     </row>
     <row ht="16.5" r="42" spans="1:13" thickBot="1">
-      <c r="A42" s="715" t="s">
+      <c r="A42" s="957" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="716" t="s">
+      <c r="B42" s="958" t="s">
         <v>249</v>
       </c>
-      <c r="C42" s="717" t="s">
+      <c r="C42" s="959" t="s">
         <v>252</v>
       </c>
-      <c r="D42" s="718" t="s">
+      <c r="D42" s="960" t="s">
         <v>253</v>
       </c>
-      <c r="E42" s="719" t="s">
+      <c r="E42" s="961" t="s">
         <v>254</v>
       </c>
-      <c r="F42" s="720" t="s">
+      <c r="F42" s="962" t="s">
         <v>255</v>
       </c>
-      <c r="G42" s="721" t="s">
+      <c r="G42" s="963" t="s">
         <v>256</v>
       </c>
-      <c r="H42" s="722" t="s">
+      <c r="H42" s="964" t="s">
         <v>257</v>
       </c>
-      <c r="I42" s="723" t="s">
+      <c r="I42" s="965" t="s">
         <v>430</v>
       </c>
-      <c r="J42" s="724"/>
-      <c r="K42" s="725">
+      <c r="J42" s="966"/>
+      <c r="K42" s="967">
         <v>268009</v>
       </c>
-      <c r="L42" s="726" t="s">
+      <c r="L42" s="968" t="s">
         <v>343</v>
       </c>
-      <c r="M42" s="727" t="s">
+      <c r="M42" s="969" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6497,80 +7141,80 @@
       </c>
     </row>
     <row ht="16.5" r="46" spans="1:13" thickBot="1">
-      <c r="A46" s="728" t="s">
+      <c r="A46" s="970" t="s">
         <v>207</v>
       </c>
-      <c r="B46" s="729" t="s">
+      <c r="B46" s="971" t="s">
         <v>249</v>
       </c>
-      <c r="C46" s="730" t="s">
+      <c r="C46" s="972" t="s">
         <v>252</v>
       </c>
-      <c r="D46" s="731" t="s">
+      <c r="D46" s="973" t="s">
         <v>253</v>
       </c>
-      <c r="E46" s="732" t="s">
+      <c r="E46" s="974" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="733" t="s">
+      <c r="F46" s="975" t="s">
         <v>265</v>
       </c>
-      <c r="G46" s="734" t="s">
+      <c r="G46" s="976" t="s">
         <v>119</v>
       </c>
-      <c r="H46" s="735" t="s">
+      <c r="H46" s="977" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="736" t="s">
+      <c r="I46" s="978" t="s">
         <v>123</v>
       </c>
-      <c r="J46" s="737"/>
-      <c r="K46" s="738">
+      <c r="J46" s="979"/>
+      <c r="K46" s="980">
         <v>294422</v>
       </c>
-      <c r="L46" s="739" t="s">
+      <c r="L46" s="981" t="s">
         <v>266</v>
       </c>
-      <c r="M46" s="740" t="s">
+      <c r="M46" s="982" t="s">
         <v>267</v>
       </c>
     </row>
     <row ht="16.5" r="47" spans="1:13" thickBot="1">
-      <c r="A47" s="741" t="s">
+      <c r="A47" s="983" t="s">
         <v>207</v>
       </c>
-      <c r="B47" s="742" t="s">
+      <c r="B47" s="984" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="743" t="s">
+      <c r="C47" s="985" t="s">
         <v>249</v>
       </c>
-      <c r="D47" s="744" t="s">
+      <c r="D47" s="986" t="s">
         <v>269</v>
       </c>
-      <c r="E47" s="745" t="s">
+      <c r="E47" s="987" t="s">
         <v>96</v>
       </c>
-      <c r="F47" s="746" t="s">
+      <c r="F47" s="988" t="s">
         <v>270</v>
       </c>
-      <c r="G47" s="747" t="s">
+      <c r="G47" s="989" t="s">
         <v>128</v>
       </c>
-      <c r="H47" s="748" t="s">
+      <c r="H47" s="990" t="s">
         <v>19</v>
       </c>
-      <c r="I47" s="749" t="s">
+      <c r="I47" s="991" t="s">
         <v>76</v>
       </c>
-      <c r="J47" s="750"/>
-      <c r="K47" s="751">
+      <c r="J47" s="992"/>
+      <c r="K47" s="993">
         <v>294604</v>
       </c>
-      <c r="L47" s="752" t="s">
+      <c r="L47" s="994" t="s">
         <v>258</v>
       </c>
-      <c r="M47" s="753" t="s">
+      <c r="M47" s="995" t="s">
         <v>271</v>
       </c>
     </row>
@@ -6951,23 +7595,23 @@
       </c>
     </row>
     <row ht="16.5" r="58" spans="1:13" thickBot="1">
-      <c r="A58" s="754"/>
-      <c r="B58" s="755"/>
-      <c r="C58" s="756"/>
-      <c r="D58" s="757"/>
-      <c r="E58" s="758"/>
-      <c r="F58" s="759"/>
-      <c r="G58" s="760"/>
-      <c r="H58" s="761"/>
-      <c r="I58" s="762" t="s">
+      <c r="A58" s="996"/>
+      <c r="B58" s="997"/>
+      <c r="C58" s="998"/>
+      <c r="D58" s="999"/>
+      <c r="E58" s="1000"/>
+      <c r="F58" s="1001"/>
+      <c r="G58" s="1002"/>
+      <c r="H58" s="1003"/>
+      <c r="I58" s="1004" t="s">
         <v>293</v>
       </c>
-      <c r="J58" s="763" t="s">
+      <c r="J58" s="1005" t="s">
         <v>339</v>
       </c>
-      <c r="K58" s="764"/>
-      <c r="L58" s="765"/>
-      <c r="M58" s="766" t="s">
+      <c r="K58" s="1006"/>
+      <c r="L58" s="1007"/>
+      <c r="M58" s="1008" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7291,41 +7935,41 @@
       </c>
     </row>
     <row ht="16.5" r="70" spans="1:13" thickBot="1">
-      <c r="A70" s="767" t="s">
+      <c r="A70" s="1009" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="768" t="s">
+      <c r="B70" s="1010" t="s">
         <v>157</v>
       </c>
-      <c r="C70" s="769" t="s">
+      <c r="C70" s="1011" t="s">
         <v>163</v>
       </c>
-      <c r="D70" s="770" t="s">
+      <c r="D70" s="1012" t="s">
         <v>164</v>
       </c>
-      <c r="E70" s="771" t="s">
+      <c r="E70" s="1013" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="772" t="s">
+      <c r="F70" s="1014" t="s">
         <v>334</v>
       </c>
-      <c r="G70" s="773" t="s">
+      <c r="G70" s="1015" t="s">
         <v>313</v>
       </c>
-      <c r="H70" s="774" t="s">
+      <c r="H70" s="1016" t="s">
         <v>314</v>
       </c>
-      <c r="I70" s="775" t="s">
+      <c r="I70" s="1017" t="s">
         <v>315</v>
       </c>
-      <c r="J70" s="776" t="s">
+      <c r="J70" s="1018" t="s">
         <v>365</v>
       </c>
-      <c r="K70" s="777">
+      <c r="K70" s="1019">
         <v>302777</v>
       </c>
-      <c r="L70" s="778"/>
-      <c r="M70" s="779" t="s">
+      <c r="L70" s="1020"/>
+      <c r="M70" s="1021" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7532,72 +8176,72 @@
       <c r="M76" s="6"/>
     </row>
     <row ht="16.5" r="77" spans="1:13" thickBot="1">
-      <c r="A77" s="780"/>
-      <c r="B77" s="781"/>
-      <c r="C77" s="782"/>
-      <c r="D77" s="783"/>
-      <c r="E77" s="784"/>
-      <c r="F77" s="785"/>
-      <c r="G77" s="786" t="s">
+      <c r="A77" s="1022"/>
+      <c r="B77" s="1023"/>
+      <c r="C77" s="1024"/>
+      <c r="D77" s="1025"/>
+      <c r="E77" s="1026"/>
+      <c r="F77" s="1027"/>
+      <c r="G77" s="1028" t="s">
         <v>321</v>
       </c>
-      <c r="H77" s="787" t="s">
+      <c r="H77" s="1029" t="s">
         <v>24</v>
       </c>
-      <c r="I77" s="788" t="s">
+      <c r="I77" s="1030" t="s">
         <v>322</v>
       </c>
-      <c r="J77" s="789" t="s">
+      <c r="J77" s="1031" t="s">
         <v>365</v>
       </c>
-      <c r="K77" s="790">
+      <c r="K77" s="1032">
         <v>302845</v>
       </c>
-      <c r="L77" s="791" t="s">
+      <c r="L77" s="1033" t="s">
         <v>155</v>
       </c>
-      <c r="M77" s="792" t="s">
+      <c r="M77" s="1034" t="s">
         <v>364</v>
       </c>
     </row>
     <row ht="16.5" r="78" spans="1:13" thickBot="1">
-      <c r="A78" s="793" t="s">
+      <c r="A78" s="1035" t="s">
         <v>207</v>
       </c>
-      <c r="B78" s="794" t="s">
+      <c r="B78" s="1036" t="s">
         <v>230</v>
       </c>
-      <c r="C78" s="795" t="s">
+      <c r="C78" s="1037" t="s">
         <v>243</v>
       </c>
-      <c r="D78" s="796" t="s">
+      <c r="D78" s="1038" t="s">
         <v>244</v>
       </c>
-      <c r="E78" s="797" t="s">
+      <c r="E78" s="1039" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="798" t="s">
+      <c r="F78" s="1040" t="s">
         <v>408</v>
       </c>
-      <c r="G78" s="799" t="s">
+      <c r="G78" s="1041" t="s">
         <v>113</v>
       </c>
-      <c r="H78" s="800" t="s">
+      <c r="H78" s="1042" t="s">
         <v>18</v>
       </c>
-      <c r="I78" s="801" t="s">
+      <c r="I78" s="1043" t="s">
         <v>1</v>
       </c>
-      <c r="J78" s="802" t="s">
+      <c r="J78" s="1044" t="s">
         <v>346</v>
       </c>
-      <c r="K78" s="803">
+      <c r="K78" s="1045">
         <v>307394</v>
       </c>
-      <c r="L78" s="804" t="s">
+      <c r="L78" s="1046" t="s">
         <v>155</v>
       </c>
-      <c r="M78" s="805"/>
+      <c r="M78" s="1047"/>
     </row>
     <row ht="16.5" r="79" spans="1:13" thickBot="1">
       <c r="A79" s="6" t="s">
@@ -8492,7 +9136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D53"/>
   <sheetViews>
@@ -8506,585 +9150,585 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="807" t="s">
+      <c r="A1" s="1049" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="807" t="s">
+      <c r="B1" s="1049" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="807" t="s">
+      <c r="C1" s="1049" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="809">
+      <c r="A2" t="s" s="1051">
         <v>445</v>
       </c>
-      <c r="B2" t="s" s="806">
+      <c r="B2" t="s" s="1048">
         <v>446</v>
       </c>
-      <c r="C2" t="s" s="809">
+      <c r="C2" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="809">
+      <c r="A3" t="s" s="1051">
         <v>448</v>
       </c>
-      <c r="B3" t="s" s="806">
+      <c r="B3" t="s" s="1048">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="809">
+      <c r="C3" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="809">
+      <c r="A4" t="s" s="1051">
         <v>449</v>
       </c>
-      <c r="B4" t="s" s="806">
+      <c r="B4" t="s" s="1048">
         <v>18</v>
       </c>
-      <c r="C4" t="s" s="809">
+      <c r="C4" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="809">
+      <c r="A5" t="s" s="1051">
         <v>450</v>
       </c>
-      <c r="B5" t="s" s="806">
+      <c r="B5" t="s" s="1048">
         <v>18</v>
       </c>
-      <c r="C5" t="s" s="809">
+      <c r="C5" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="809">
+      <c r="A6" t="s" s="1051">
         <v>451</v>
       </c>
-      <c r="B6" t="s" s="806">
+      <c r="B6" t="s" s="1048">
         <v>18</v>
       </c>
-      <c r="C6" t="s" s="809">
+      <c r="C6" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="809">
+      <c r="A7" t="s" s="1051">
         <v>452</v>
       </c>
-      <c r="B7" t="s" s="806">
+      <c r="B7" t="s" s="1048">
         <v>453</v>
       </c>
-      <c r="C7" t="s" s="809">
+      <c r="C7" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="809">
+      <c r="A8" t="s" s="1051">
         <v>454</v>
       </c>
-      <c r="B8" t="s" s="806">
+      <c r="B8" t="s" s="1048">
         <v>18</v>
       </c>
-      <c r="C8" t="s" s="809">
+      <c r="C8" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="809">
+      <c r="A9" t="s" s="1051">
         <v>455</v>
       </c>
-      <c r="B9" t="s" s="806">
+      <c r="B9" t="s" s="1048">
         <v>18</v>
       </c>
-      <c r="C9" t="s" s="809">
+      <c r="C9" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="809">
+      <c r="A10" t="s" s="1051">
         <v>456</v>
       </c>
-      <c r="B10" t="s" s="806">
+      <c r="B10" t="s" s="1048">
         <v>18</v>
       </c>
-      <c r="C10" t="s" s="809">
+      <c r="C10" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="809">
+      <c r="A11" t="s" s="1051">
         <v>457</v>
       </c>
-      <c r="B11" t="s" s="806">
+      <c r="B11" t="s" s="1048">
         <v>458</v>
       </c>
-      <c r="C11" t="s" s="809">
+      <c r="C11" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="809">
+      <c r="A12" t="s" s="1051">
         <v>459</v>
       </c>
-      <c r="B12" t="s" s="806">
+      <c r="B12" t="s" s="1048">
         <v>18</v>
       </c>
-      <c r="C12" t="s" s="809">
+      <c r="C12" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="809">
+      <c r="A13" t="s" s="1051">
         <v>460</v>
       </c>
-      <c r="B13" t="s" s="806">
+      <c r="B13" t="s" s="1048">
         <v>18</v>
       </c>
-      <c r="C13" t="s" s="809">
+      <c r="C13" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="809">
+      <c r="A14" t="s" s="1051">
         <v>461</v>
       </c>
-      <c r="B14" t="s" s="806">
+      <c r="B14" t="s" s="1048">
         <v>462</v>
       </c>
-      <c r="C14" t="s" s="809">
+      <c r="C14" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="809">
+      <c r="A15" t="s" s="1051">
         <v>463</v>
       </c>
-      <c r="B15" t="s" s="806">
+      <c r="B15" t="s" s="1048">
         <v>36</v>
       </c>
-      <c r="C15" t="s" s="809">
+      <c r="C15" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="809">
+      <c r="A16" t="s" s="1051">
         <v>464</v>
       </c>
-      <c r="B16" t="s" s="806">
+      <c r="B16" t="s" s="1048">
         <v>36</v>
       </c>
-      <c r="C16" t="s" s="809">
+      <c r="C16" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="809">
+      <c r="A17" t="s" s="1051">
         <v>465</v>
       </c>
-      <c r="B17" t="s" s="806">
+      <c r="B17" t="s" s="1048">
         <v>18</v>
       </c>
-      <c r="C17" t="s" s="809">
+      <c r="C17" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="809">
+      <c r="A18" t="s" s="1051">
         <v>466</v>
       </c>
-      <c r="B18" t="s" s="806">
+      <c r="B18" t="s" s="1048">
         <v>433</v>
       </c>
-      <c r="C18" t="s" s="809">
+      <c r="C18" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="809">
+      <c r="A19" t="s" s="1051">
         <v>467</v>
       </c>
-      <c r="B19" t="s" s="806">
+      <c r="B19" t="s" s="1048">
         <v>468</v>
       </c>
-      <c r="C19" t="s" s="809">
+      <c r="C19" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="809">
+      <c r="A20" t="s" s="1051">
         <v>469</v>
       </c>
-      <c r="B20" t="s" s="806">
+      <c r="B20" t="s" s="1048">
         <v>470</v>
       </c>
-      <c r="C20" t="s" s="809">
+      <c r="C20" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="809">
+      <c r="A21" t="s" s="1051">
         <v>471</v>
       </c>
-      <c r="B21" t="s" s="806">
+      <c r="B21" t="s" s="1048">
         <v>472</v>
       </c>
-      <c r="C21" t="s" s="809">
+      <c r="C21" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="809">
+      <c r="A22" t="s" s="1051">
         <v>473</v>
       </c>
-      <c r="B22" t="s" s="806">
+      <c r="B22" t="s" s="1048">
         <v>36</v>
       </c>
-      <c r="C22" t="s" s="809">
+      <c r="C22" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="809">
+      <c r="A23" t="s" s="1051">
         <v>474</v>
       </c>
-      <c r="B23" t="s" s="806">
+      <c r="B23" t="s" s="1048">
         <v>433</v>
       </c>
-      <c r="C23" t="s" s="809">
+      <c r="C23" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="809">
+      <c r="A24" t="s" s="1051">
         <v>475</v>
       </c>
-      <c r="B24" t="s" s="806">
+      <c r="B24" t="s" s="1048">
         <v>18</v>
       </c>
-      <c r="C24" t="s" s="809">
+      <c r="C24" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="809">
+      <c r="A25" t="s" s="1051">
         <v>476</v>
       </c>
-      <c r="B25" t="s" s="806">
+      <c r="B25" t="s" s="1048">
         <v>36</v>
       </c>
-      <c r="C25" t="s" s="809">
+      <c r="C25" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="809">
+      <c r="A26" t="s" s="1051">
         <v>477</v>
       </c>
-      <c r="B26" t="s" s="806">
+      <c r="B26" t="s" s="1048">
         <v>468</v>
       </c>
-      <c r="C26" t="s" s="809">
+      <c r="C26" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="809">
+      <c r="A27" t="s" s="1051">
         <v>478</v>
       </c>
-      <c r="B27" t="s" s="806">
+      <c r="B27" t="s" s="1048">
         <v>458</v>
       </c>
-      <c r="C27" t="s" s="809">
+      <c r="C27" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="809">
+      <c r="A28" t="s" s="1051">
         <v>479</v>
       </c>
-      <c r="B28" t="s" s="806">
+      <c r="B28" t="s" s="1048">
         <v>470</v>
       </c>
-      <c r="C28" t="s" s="809">
+      <c r="C28" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="809">
+      <c r="A29" t="s" s="1051">
         <v>480</v>
       </c>
-      <c r="B29" t="s" s="806">
+      <c r="B29" t="s" s="1048">
         <v>481</v>
       </c>
-      <c r="C29" t="s" s="809">
+      <c r="C29" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="809">
+      <c r="A30" t="s" s="1051">
         <v>482</v>
       </c>
-      <c r="B30" t="s" s="806">
+      <c r="B30" t="s" s="1048">
         <v>481</v>
       </c>
-      <c r="C30" t="s" s="809">
+      <c r="C30" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="809">
+      <c r="A31" t="s" s="1051">
         <v>483</v>
       </c>
-      <c r="B31" t="s" s="806">
+      <c r="B31" t="s" s="1048">
         <v>481</v>
       </c>
-      <c r="C31" t="s" s="809">
+      <c r="C31" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="809">
+      <c r="A32" t="s" s="1051">
         <v>484</v>
       </c>
-      <c r="B32" t="s" s="806">
+      <c r="B32" t="s" s="1048">
         <v>481</v>
       </c>
-      <c r="C32" t="s" s="809">
+      <c r="C32" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="809">
+      <c r="A33" t="s" s="1051">
         <v>485</v>
       </c>
-      <c r="B33" t="s" s="806">
+      <c r="B33" t="s" s="1048">
         <v>486</v>
       </c>
-      <c r="C33" t="s" s="809">
+      <c r="C33" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="809">
+      <c r="A34" t="s" s="1051">
         <v>487</v>
       </c>
-      <c r="B34" t="s" s="806">
+      <c r="B34" t="s" s="1048">
         <v>481</v>
       </c>
-      <c r="C34" t="s" s="809">
+      <c r="C34" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="809">
+      <c r="A35" t="s" s="1051">
         <v>488</v>
       </c>
-      <c r="B35" t="s" s="806">
+      <c r="B35" t="s" s="1048">
         <v>481</v>
       </c>
-      <c r="C35" t="s" s="809">
+      <c r="C35" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="809">
+      <c r="A36" t="s" s="1051">
         <v>489</v>
       </c>
-      <c r="B36" t="s" s="806">
+      <c r="B36" t="s" s="1048">
         <v>373</v>
       </c>
-      <c r="C36" t="s" s="809">
+      <c r="C36" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="809">
+      <c r="A37" t="s" s="1051">
         <v>490</v>
       </c>
-      <c r="B37" t="s" s="806">
+      <c r="B37" t="s" s="1048">
         <v>373</v>
       </c>
-      <c r="C37" t="s" s="809">
+      <c r="C37" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="809">
+      <c r="A38" t="s" s="1051">
         <v>491</v>
       </c>
-      <c r="B38" t="s" s="806">
+      <c r="B38" t="s" s="1048">
         <v>481</v>
       </c>
-      <c r="C38" t="s" s="809">
+      <c r="C38" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="809">
+      <c r="A39" t="s" s="1051">
         <v>492</v>
       </c>
-      <c r="B39" t="s" s="806">
+      <c r="B39" t="s" s="1048">
         <v>481</v>
       </c>
-      <c r="C39" t="s" s="809">
+      <c r="C39" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="809">
+      <c r="A40" t="s" s="1051">
         <v>493</v>
       </c>
-      <c r="B40" t="s" s="806">
+      <c r="B40" t="s" s="1048">
         <v>373</v>
       </c>
-      <c r="C40" t="s" s="809">
+      <c r="C40" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="809">
+      <c r="A41" t="s" s="1051">
         <v>494</v>
       </c>
-      <c r="B41" t="s" s="806">
+      <c r="B41" t="s" s="1048">
         <v>481</v>
       </c>
-      <c r="C41" t="s" s="809">
+      <c r="C41" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="809">
+      <c r="A42" t="s" s="1051">
         <v>495</v>
       </c>
-      <c r="B42" t="s" s="806">
+      <c r="B42" t="s" s="1048">
         <v>373</v>
       </c>
-      <c r="C42" t="s" s="809">
+      <c r="C42" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="809">
+      <c r="A43" t="s" s="1051">
         <v>496</v>
       </c>
-      <c r="B43" t="s" s="806">
+      <c r="B43" t="s" s="1048">
         <v>373</v>
       </c>
-      <c r="C43" t="s" s="809">
+      <c r="C43" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="809">
+      <c r="A44" t="s" s="1051">
         <v>497</v>
       </c>
-      <c r="B44" t="s" s="806">
+      <c r="B44" t="s" s="1048">
         <v>373</v>
       </c>
-      <c r="C44" t="s" s="809">
+      <c r="C44" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="809">
+      <c r="A45" t="s" s="1051">
         <v>498</v>
       </c>
-      <c r="B45" t="s" s="806">
+      <c r="B45" t="s" s="1048">
         <v>373</v>
       </c>
-      <c r="C45" t="s" s="809">
+      <c r="C45" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="809">
+      <c r="A46" t="s" s="1051">
         <v>499</v>
       </c>
-      <c r="B46" t="s" s="806">
+      <c r="B46" t="s" s="1048">
         <v>373</v>
       </c>
-      <c r="C46" t="s" s="809">
+      <c r="C46" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="809">
+      <c r="A47" t="s" s="1051">
         <v>500</v>
       </c>
-      <c r="B47" t="s" s="806">
+      <c r="B47" t="s" s="1048">
         <v>373</v>
       </c>
-      <c r="C47" t="s" s="809">
+      <c r="C47" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="809">
+      <c r="A48" t="s" s="1051">
         <v>501</v>
       </c>
-      <c r="B48" t="s" s="806">
+      <c r="B48" t="s" s="1048">
         <v>373</v>
       </c>
-      <c r="C48" t="s" s="809">
+      <c r="C48" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="809">
+      <c r="A49" t="s" s="1051">
         <v>502</v>
       </c>
-      <c r="B49" t="s" s="806">
+      <c r="B49" t="s" s="1048">
         <v>373</v>
       </c>
-      <c r="C49" t="s" s="809">
+      <c r="C49" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="809">
+      <c r="A50" t="s" s="1051">
         <v>503</v>
       </c>
-      <c r="B50" t="s" s="806">
+      <c r="B50" t="s" s="1048">
         <v>373</v>
       </c>
-      <c r="C50" t="s" s="809">
+      <c r="C50" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="809">
+      <c r="A51" t="s" s="1051">
         <v>504</v>
       </c>
-      <c r="B51" t="s" s="806">
+      <c r="B51" t="s" s="1048">
         <v>458</v>
       </c>
-      <c r="C51" t="s" s="809">
+      <c r="C51" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="809">
+      <c r="A52" t="s" s="1051">
         <v>505</v>
       </c>
-      <c r="B52" t="s" s="806">
+      <c r="B52" t="s" s="1048">
         <v>373</v>
       </c>
-      <c r="C52" t="s" s="809">
+      <c r="C52" t="s" s="1051">
         <v>447</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="809">
+      <c r="A53" t="s" s="1051">
         <v>506</v>
       </c>
-      <c r="B53" t="s" s="806">
+      <c r="B53" t="s" s="1048">
         <v>507</v>
       </c>
-      <c r="C53" t="s" s="809">
+      <c r="C53" t="s" s="1051">
         <v>339</v>
       </c>
     </row>
@@ -9093,7 +9737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -9107,123 +9751,123 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="811" t="s">
+      <c r="A1" s="1053" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="811" t="s">
+      <c r="B1" s="1053" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="811" t="s">
+      <c r="C1" s="1053" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="813">
+      <c r="A2" t="s" s="1055">
         <v>449</v>
       </c>
-      <c r="B2" t="s" s="810">
+      <c r="B2" t="s" s="1052">
         <v>18</v>
       </c>
-      <c r="C2" t="s" s="813">
+      <c r="C2" t="s" s="1055">
         <v>447</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="813">
+      <c r="A3" t="s" s="1055">
         <v>508</v>
       </c>
-      <c r="B3" t="s" s="810">
+      <c r="B3" t="s" s="1052">
         <v>24</v>
       </c>
-      <c r="C3" t="s" s="813">
+      <c r="C3" t="s" s="1055">
         <v>339</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="813">
+      <c r="A4" t="s" s="1055">
         <v>509</v>
       </c>
-      <c r="B4" t="s" s="810">
+      <c r="B4" t="s" s="1052">
         <v>24</v>
       </c>
-      <c r="C4" t="s" s="813">
+      <c r="C4" t="s" s="1055">
         <v>447</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="813">
+      <c r="A5" t="s" s="1055">
         <v>510</v>
       </c>
-      <c r="B5" t="s" s="810">
+      <c r="B5" t="s" s="1052">
         <v>511</v>
       </c>
-      <c r="C5" t="s" s="813">
+      <c r="C5" t="s" s="1055">
         <v>339</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="813">
+      <c r="A6" t="s" s="1055">
         <v>512</v>
       </c>
-      <c r="B6" t="s" s="810">
+      <c r="B6" t="s" s="1052">
         <v>24</v>
       </c>
-      <c r="C6" t="s" s="813">
+      <c r="C6" t="s" s="1055">
         <v>339</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="813">
+      <c r="A7" t="s" s="1055">
         <v>513</v>
       </c>
-      <c r="B7" t="s" s="810">
+      <c r="B7" t="s" s="1052">
         <v>24</v>
       </c>
-      <c r="C7" t="s" s="813">
+      <c r="C7" t="s" s="1055">
         <v>339</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="813">
+      <c r="A8" t="s" s="1055">
         <v>514</v>
       </c>
-      <c r="B8" t="s" s="810">
+      <c r="B8" t="s" s="1052">
         <v>24</v>
       </c>
-      <c r="C8" t="s" s="813">
+      <c r="C8" t="s" s="1055">
         <v>339</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="813">
+      <c r="A9" t="s" s="1055">
         <v>515</v>
       </c>
-      <c r="B9" t="s" s="810">
+      <c r="B9" t="s" s="1052">
         <v>516</v>
       </c>
-      <c r="C9" t="s" s="813">
+      <c r="C9" t="s" s="1055">
         <v>339</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="813">
+      <c r="A10" t="s" s="1055">
         <v>517</v>
       </c>
-      <c r="B10" t="s" s="810">
+      <c r="B10" t="s" s="1052">
         <v>24</v>
       </c>
-      <c r="C10" t="s" s="813">
+      <c r="C10" t="s" s="1055">
         <v>339</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="813">
+      <c r="A11" t="s" s="1055">
         <v>518</v>
       </c>
-      <c r="B11" t="s" s="810">
+      <c r="B11" t="s" s="1052">
         <v>519</v>
       </c>
-      <c r="C11" t="s" s="813">
+      <c r="C11" t="s" s="1055">
         <v>339</v>
       </c>
     </row>

--- a/SonarLysaFX/Suivi_Quality_Gate.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="360" windowWidth="27315" windowHeight="12285"/>
+    <workbookView windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="SUIVI Qualité" sheetId="8" r:id="rId1"/>
-    <sheet name="E30" sheetId="33" r:id="rId2"/>
-    <sheet name="E31" sheetId="34" r:id="rId3"/>
+    <sheet name="SUIVI Qualité" r:id="rId1" sheetId="8"/>
+    <sheet name="E30" r:id="rId7" sheetId="35"/>
+    <sheet name="E31" r:id="rId8" sheetId="36"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SUIVI Qualité'!$A$1:$M$77</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'SUIVI Qualité'!$A$1:$M$77</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="540">
   <si>
     <t>Edition</t>
   </si>
@@ -1618,12 +1618,34 @@
   </si>
   <si>
     <t>liv E30 FDL RTC 308141</t>
+  </si>
+  <si>
+    <t>Lot 204194</t>
+  </si>
+  <si>
+    <t>E30_Fil_De_Leau FDL/CC 10.03</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Lot 308715</t>
+  </si>
+  <si>
+    <t>CHC2018-S12</t>
+  </si>
+  <si>
+    <t>Lot 309120</t>
+  </si>
+  <si>
+    <t>CHC2018-S15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -1808,7 +1830,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2008,8 +2030,38 @@
         <fgColor indexed="43"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2196,3037 +2248,3452 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="7" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="8" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="9" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="10" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="11" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="12" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="5" fontId="13" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="6" fontId="14" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="16" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="7" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="8" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1403">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="21" applyBorder="1" applyAlignment="1">
+  <cellXfs count="1539">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="11" fontId="5" numFmtId="0" xfId="21">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="0" numFmtId="0" xfId="21">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="33" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="24" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="14" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="14" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="35" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="36" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="35" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20 % - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="15" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
-    <cellStyle name="Neutre" xfId="9" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="30" customBuiltin="1" name="20 % - Accent1" xfId="20"/>
+    <cellStyle builtinId="34" customBuiltin="1" name="20 % - Accent2" xfId="24"/>
+    <cellStyle builtinId="38" customBuiltin="1" name="20 % - Accent3" xfId="28"/>
+    <cellStyle builtinId="42" customBuiltin="1" name="20 % - Accent4" xfId="32"/>
+    <cellStyle builtinId="46" customBuiltin="1" name="20 % - Accent5" xfId="36"/>
+    <cellStyle builtinId="50" customBuiltin="1" name="20 % - Accent6" xfId="40"/>
+    <cellStyle builtinId="31" customBuiltin="1" name="40 % - Accent1" xfId="21"/>
+    <cellStyle builtinId="35" customBuiltin="1" name="40 % - Accent2" xfId="25"/>
+    <cellStyle builtinId="39" customBuiltin="1" name="40 % - Accent3" xfId="29"/>
+    <cellStyle builtinId="43" customBuiltin="1" name="40 % - Accent4" xfId="33"/>
+    <cellStyle builtinId="47" customBuiltin="1" name="40 % - Accent5" xfId="37"/>
+    <cellStyle builtinId="51" customBuiltin="1" name="40 % - Accent6" xfId="41"/>
+    <cellStyle builtinId="32" customBuiltin="1" name="60 % - Accent1" xfId="22"/>
+    <cellStyle builtinId="36" customBuiltin="1" name="60 % - Accent2" xfId="26"/>
+    <cellStyle builtinId="40" customBuiltin="1" name="60 % - Accent3" xfId="30"/>
+    <cellStyle builtinId="44" customBuiltin="1" name="60 % - Accent4" xfId="34"/>
+    <cellStyle builtinId="48" customBuiltin="1" name="60 % - Accent5" xfId="38"/>
+    <cellStyle builtinId="52" customBuiltin="1" name="60 % - Accent6" xfId="42"/>
+    <cellStyle builtinId="29" customBuiltin="1" name="Accent1" xfId="19"/>
+    <cellStyle builtinId="33" customBuiltin="1" name="Accent2" xfId="23"/>
+    <cellStyle builtinId="37" customBuiltin="1" name="Accent3" xfId="27"/>
+    <cellStyle builtinId="41" customBuiltin="1" name="Accent4" xfId="31"/>
+    <cellStyle builtinId="45" customBuiltin="1" name="Accent5" xfId="35"/>
+    <cellStyle builtinId="49" customBuiltin="1" name="Accent6" xfId="39"/>
+    <cellStyle builtinId="11" customBuiltin="1" name="Avertissement" xfId="15"/>
+    <cellStyle builtinId="22" customBuiltin="1" name="Calcul" xfId="12"/>
+    <cellStyle builtinId="24" customBuiltin="1" name="Cellule liée" xfId="13"/>
+    <cellStyle builtinId="10" customBuiltin="1" name="Commentaire" xfId="16"/>
+    <cellStyle builtinId="20" customBuiltin="1" name="Entrée" xfId="10"/>
+    <cellStyle builtinId="27" customBuiltin="1" name="Insatisfaisant" xfId="8"/>
+    <cellStyle builtinId="8" name="Lien hypertexte" xfId="1"/>
+    <cellStyle builtinId="28" customBuiltin="1" name="Neutre" xfId="9"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="43"/>
-    <cellStyle name="Satisfaisant" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle builtinId="26" customBuiltin="1" name="Satisfaisant" xfId="7"/>
+    <cellStyle builtinId="21" customBuiltin="1" name="Sortie" xfId="11"/>
+    <cellStyle builtinId="53" customBuiltin="1" name="Texte explicatif" xfId="17"/>
+    <cellStyle builtinId="15" customBuiltin="1" name="Titre" xfId="2"/>
+    <cellStyle builtinId="16" customBuiltin="1" name="Titre 1" xfId="3"/>
+    <cellStyle builtinId="17" customBuiltin="1" name="Titre 2" xfId="4"/>
+    <cellStyle builtinId="18" customBuiltin="1" name="Titre 3" xfId="5"/>
+    <cellStyle builtinId="19" customBuiltin="1" name="Titre 4" xfId="6"/>
+    <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="18"/>
+    <cellStyle builtinId="23" customBuiltin="1" name="Vérification" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Style de tableau 1" pivot="0" count="0"/>
-    <tableStyle name="Style de tableau 2" pivot="0" count="0"/>
-    <tableStyle name="Style de tableau 3" pivot="0" count="0"/>
+  <tableStyles count="3" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="0" name="Style de tableau 1" pivot="0"/>
+    <tableStyle count="0" name="Style de tableau 2" pivot="0"/>
+    <tableStyle count="0" name="Style de tableau 3" pivot="0"/>
   </tableStyles>
   <colors>
     <mruColors>
@@ -5246,10 +5713,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5407,7 +5874,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -5416,13 +5883,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5432,7 +5899,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -5441,7 +5908,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5450,7 +5917,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5460,12 +5927,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -5496,7 +5963,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -5515,7 +5982,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -5527,11 +5994,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z104"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E79" workbookViewId="0">
       <selection activeCell="G97" sqref="G97"/>
@@ -5539,22 +6006,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="77" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="5.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="18.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="77.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row customFormat="1" ht="15.75" r="1" s="2" spans="1:13" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>139</v>
       </c>
@@ -5595,7 +6062,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="2" spans="1:13" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>150</v>
       </c>
@@ -5634,7 +6101,7 @@
       </c>
       <c r="M2" s="16"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="3" spans="1:13" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>156</v>
       </c>
@@ -5675,7 +6142,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="4" spans="1:13" thickBot="1">
       <c r="A4" s="30" t="s">
         <v>156</v>
       </c>
@@ -5716,7 +6183,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="5" spans="1:13" thickBot="1">
       <c r="A5" s="43" t="s">
         <v>156</v>
       </c>
@@ -5757,7 +6224,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="6" spans="1:13" thickBot="1">
       <c r="A6" s="56" t="s">
         <v>156</v>
       </c>
@@ -5794,7 +6261,7 @@
       </c>
       <c r="M6" s="68"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="7" spans="1:13" thickBot="1">
       <c r="A7" s="69" t="s">
         <v>156</v>
       </c>
@@ -5833,7 +6300,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="8" spans="1:13" thickBot="1">
       <c r="A8" s="82" t="s">
         <v>156</v>
       </c>
@@ -5872,7 +6339,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="9" spans="1:13" thickBot="1">
       <c r="A9" s="95" t="s">
         <v>156</v>
       </c>
@@ -5913,7 +6380,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="10" spans="1:13" thickBot="1">
       <c r="A10" s="108" t="s">
         <v>156</v>
       </c>
@@ -5954,7 +6421,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="11" spans="1:13" thickBot="1">
       <c r="A11" s="121" t="s">
         <v>156</v>
       </c>
@@ -5995,7 +6462,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="12" spans="1:13" thickBot="1">
       <c r="A12" s="134" t="s">
         <v>156</v>
       </c>
@@ -6036,7 +6503,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="13" spans="1:13" thickBot="1">
       <c r="A13" s="147" t="s">
         <v>156</v>
       </c>
@@ -6077,7 +6544,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="14" spans="1:13" thickBot="1">
       <c r="A14" s="160" t="s">
         <v>179</v>
       </c>
@@ -6116,7 +6583,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="15" spans="1:13" thickBot="1">
       <c r="A15" s="173" t="s">
         <v>179</v>
       </c>
@@ -6155,7 +6622,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="16" spans="1:13" thickBot="1">
       <c r="A16" s="186" t="s">
         <v>179</v>
       </c>
@@ -6194,7 +6661,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="17" spans="1:13" thickBot="1">
       <c r="A17" s="199" t="s">
         <v>179</v>
       </c>
@@ -6235,7 +6702,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="18" spans="1:13" thickBot="1">
       <c r="A18" s="212" t="s">
         <v>195</v>
       </c>
@@ -6276,7 +6743,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="19" spans="1:13" thickBot="1">
       <c r="A19" s="225" t="s">
         <v>195</v>
       </c>
@@ -6317,7 +6784,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="20" spans="1:13" thickBot="1">
       <c r="A20" s="238" t="s">
         <v>195</v>
       </c>
@@ -6358,7 +6825,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="21" spans="1:13" thickBot="1">
       <c r="A21" s="251" t="s">
         <v>206</v>
       </c>
@@ -6399,7 +6866,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="22" spans="1:13" thickBot="1">
       <c r="A22" s="264" t="s">
         <v>206</v>
       </c>
@@ -6438,7 +6905,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="23" spans="1:13" thickBot="1">
       <c r="A23" s="277" t="s">
         <v>206</v>
       </c>
@@ -6479,7 +6946,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="24" spans="1:13" thickBot="1">
       <c r="A24" s="290" t="s">
         <v>206</v>
       </c>
@@ -6518,7 +6985,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="25" spans="1:13" thickBot="1">
       <c r="A25" s="303" t="s">
         <v>206</v>
       </c>
@@ -6557,7 +7024,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="26" spans="1:13" thickBot="1">
       <c r="A26" s="316" t="s">
         <v>206</v>
       </c>
@@ -6596,7 +7063,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="27" spans="1:13" thickBot="1">
       <c r="A27" s="329" t="s">
         <v>206</v>
       </c>
@@ -6635,7 +7102,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="28" spans="1:13" thickBot="1">
       <c r="A28" s="342" t="s">
         <v>206</v>
       </c>
@@ -6676,7 +7143,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="29" spans="1:13" thickBot="1">
       <c r="A29" s="355" t="s">
         <v>206</v>
       </c>
@@ -6715,7 +7182,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="30" spans="1:13" thickBot="1">
       <c r="A30" s="368" t="s">
         <v>206</v>
       </c>
@@ -6756,7 +7223,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="31" spans="1:13" thickBot="1">
       <c r="A31" s="381" t="s">
         <v>206</v>
       </c>
@@ -6795,7 +7262,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="32" spans="1:13" thickBot="1">
       <c r="A32" s="394" t="s">
         <v>206</v>
       </c>
@@ -6834,7 +7301,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="33" spans="1:13" thickBot="1">
       <c r="A33" s="407" t="s">
         <v>206</v>
       </c>
@@ -6875,7 +7342,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="34" spans="1:13" thickBot="1">
       <c r="A34" s="420" t="s">
         <v>206</v>
       </c>
@@ -6916,7 +7383,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="35" spans="1:13" thickBot="1">
       <c r="A35" s="433" t="s">
         <v>206</v>
       </c>
@@ -6957,7 +7424,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="36" spans="1:13" thickBot="1">
       <c r="A36" s="446" t="s">
         <v>206</v>
       </c>
@@ -6998,7 +7465,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="37" spans="1:13" thickBot="1">
       <c r="A37" s="459" t="s">
         <v>206</v>
       </c>
@@ -7037,7 +7504,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="38" spans="1:13" thickBot="1">
       <c r="A38" s="472" t="s">
         <v>206</v>
       </c>
@@ -7078,7 +7545,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="39" spans="1:13" thickBot="1">
       <c r="A39" s="485" t="s">
         <v>206</v>
       </c>
@@ -7117,7 +7584,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="40" spans="1:13" thickBot="1">
       <c r="A40" s="498" t="s">
         <v>206</v>
       </c>
@@ -7158,7 +7625,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="41" spans="1:13" thickBot="1">
       <c r="A41" s="511" t="s">
         <v>206</v>
       </c>
@@ -7197,7 +7664,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="42" spans="1:13" thickBot="1">
       <c r="A42" s="524" t="s">
         <v>206</v>
       </c>
@@ -7236,7 +7703,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="43" spans="1:13" thickBot="1">
       <c r="A43" s="537" t="s">
         <v>206</v>
       </c>
@@ -7275,7 +7742,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="44" spans="1:13" thickBot="1">
       <c r="A44" s="550" t="s">
         <v>206</v>
       </c>
@@ -7316,7 +7783,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="45" spans="1:13" thickBot="1">
       <c r="A45" s="563" t="s">
         <v>206</v>
       </c>
@@ -7355,7 +7822,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="46" spans="1:13" thickBot="1">
       <c r="A46" s="576" t="s">
         <v>206</v>
       </c>
@@ -7394,7 +7861,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="47" spans="1:13" thickBot="1">
       <c r="A47" s="589" t="s">
         <v>206</v>
       </c>
@@ -7433,7 +7900,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="48" spans="1:13" thickBot="1">
       <c r="A48" s="602" t="s">
         <v>271</v>
       </c>
@@ -7474,7 +7941,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="49" spans="1:13" thickBot="1">
       <c r="A49" s="615" t="s">
         <v>271</v>
       </c>
@@ -7515,7 +7982,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="50" spans="1:13" thickBot="1">
       <c r="A50" s="628" t="s">
         <v>271</v>
       </c>
@@ -7554,7 +8021,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="51" spans="1:13" thickBot="1">
       <c r="A51" s="641" t="s">
         <v>271</v>
       </c>
@@ -7593,7 +8060,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="52" spans="1:13" thickBot="1">
       <c r="A52" s="654" t="s">
         <v>278</v>
       </c>
@@ -7634,7 +8101,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="53" spans="1:13" thickBot="1">
       <c r="A53" s="667" t="s">
         <v>278</v>
       </c>
@@ -7675,7 +8142,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="54" spans="1:13" thickBot="1">
       <c r="A54" s="680" t="s">
         <v>206</v>
       </c>
@@ -7716,7 +8183,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="55" spans="1:13" thickBot="1">
       <c r="A55" s="693" t="s">
         <v>206</v>
       </c>
@@ -7753,7 +8220,7 @@
       </c>
       <c r="M55" s="705"/>
     </row>
-    <row r="56" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="56" spans="1:13" thickBot="1">
       <c r="A56" s="706"/>
       <c r="B56" s="707"/>
       <c r="C56" s="708"/>
@@ -7780,7 +8247,7 @@
       </c>
       <c r="M56" s="718"/>
     </row>
-    <row r="57" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="57" spans="1:13" thickBot="1">
       <c r="A57" s="719"/>
       <c r="B57" s="720"/>
       <c r="C57" s="721"/>
@@ -7809,7 +8276,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="58" spans="1:13" thickBot="1">
       <c r="A58" s="732"/>
       <c r="B58" s="733"/>
       <c r="C58" s="734"/>
@@ -7830,7 +8297,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="59" spans="1:13" thickBot="1">
       <c r="A59" s="745"/>
       <c r="B59" s="746"/>
       <c r="C59" s="747"/>
@@ -7859,7 +8326,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="60" spans="1:13" thickBot="1">
       <c r="A60" s="758"/>
       <c r="B60" s="759"/>
       <c r="C60" s="760"/>
@@ -7880,7 +8347,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="61" spans="1:13" thickBot="1">
       <c r="A61" s="771" t="s">
         <v>206</v>
       </c>
@@ -7917,7 +8384,7 @@
       <c r="L61" s="782"/>
       <c r="M61" s="783"/>
     </row>
-    <row r="62" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="62" spans="1:13" thickBot="1">
       <c r="A62" s="784"/>
       <c r="B62" s="785"/>
       <c r="C62" s="786"/>
@@ -7938,7 +8405,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="63" spans="1:13" thickBot="1">
       <c r="A63" s="797" t="s">
         <v>206</v>
       </c>
@@ -7975,7 +8442,7 @@
       </c>
       <c r="M63" s="809"/>
     </row>
-    <row r="64" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="64" spans="1:13" thickBot="1">
       <c r="A64" s="810" t="s">
         <v>206</v>
       </c>
@@ -8010,7 +8477,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="65" spans="1:13" thickBot="1">
       <c r="A65" s="823"/>
       <c r="B65" s="824"/>
       <c r="C65" s="825"/>
@@ -8031,7 +8498,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="66" spans="1:13" thickBot="1">
       <c r="A66" s="836"/>
       <c r="B66" s="837"/>
       <c r="C66" s="838"/>
@@ -8050,7 +8517,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="67" spans="1:13" thickBot="1">
       <c r="A67" s="849" t="s">
         <v>206</v>
       </c>
@@ -8087,7 +8554,7 @@
       </c>
       <c r="M67" s="861"/>
     </row>
-    <row r="68" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="68" spans="1:13" thickBot="1">
       <c r="A68" s="862"/>
       <c r="B68" s="863"/>
       <c r="C68" s="864"/>
@@ -8110,7 +8577,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="69" spans="1:13" thickBot="1">
       <c r="A69" s="875" t="s">
         <v>179</v>
       </c>
@@ -8149,7 +8616,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="70" spans="1:13" thickBot="1">
       <c r="A70" s="888" t="s">
         <v>156</v>
       </c>
@@ -8188,7 +8655,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="71" spans="1:13" thickBot="1">
       <c r="A71" s="901" t="s">
         <v>156</v>
       </c>
@@ -8227,7 +8694,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="72" spans="1:13" thickBot="1">
       <c r="A72" s="914" t="s">
         <v>206</v>
       </c>
@@ -8266,7 +8733,7 @@
       </c>
       <c r="M72" s="926"/>
     </row>
-    <row r="73" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="73" spans="1:13" thickBot="1">
       <c r="A73" s="927" t="s">
         <v>179</v>
       </c>
@@ -8305,7 +8772,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="74" spans="1:13" thickBot="1">
       <c r="A74" s="940"/>
       <c r="B74" s="941"/>
       <c r="C74" s="942"/>
@@ -8334,7 +8801,7 @@
       </c>
       <c r="M74" s="952"/>
     </row>
-    <row r="75" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="75" spans="1:13" thickBot="1">
       <c r="A75" s="953"/>
       <c r="B75" s="954"/>
       <c r="C75" s="955"/>
@@ -8363,7 +8830,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="76" spans="1:13" thickBot="1">
       <c r="A76" s="966"/>
       <c r="B76" s="967"/>
       <c r="C76" s="968"/>
@@ -8390,7 +8857,7 @@
       </c>
       <c r="M76" s="978"/>
     </row>
-    <row r="77" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="77" spans="1:13" thickBot="1">
       <c r="A77" s="979"/>
       <c r="B77" s="980"/>
       <c r="C77" s="981"/>
@@ -8419,7 +8886,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="78" spans="1:13" thickBot="1">
       <c r="A78" s="992" t="s">
         <v>206</v>
       </c>
@@ -8458,7 +8925,7 @@
       </c>
       <c r="M78" s="1004"/>
     </row>
-    <row r="79" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="79" spans="1:13" thickBot="1">
       <c r="A79" s="1005" t="s">
         <v>206</v>
       </c>
@@ -8497,7 +8964,7 @@
       </c>
       <c r="M79" s="1017"/>
     </row>
-    <row r="80" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="80" spans="1:13" thickBot="1">
       <c r="A80" s="1018" t="s">
         <v>206</v>
       </c>
@@ -8536,7 +9003,7 @@
       </c>
       <c r="M80" s="1030"/>
     </row>
-    <row r="81" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="81" spans="1:13" thickBot="1">
       <c r="A81" s="1031" t="s">
         <v>156</v>
       </c>
@@ -8575,7 +9042,7 @@
       </c>
       <c r="M81" s="1043"/>
     </row>
-    <row r="82" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="82" spans="1:13" thickBot="1">
       <c r="A82" s="1044"/>
       <c r="B82" s="1045"/>
       <c r="C82" s="1046"/>
@@ -8604,7 +9071,7 @@
       </c>
       <c r="M82" s="1056"/>
     </row>
-    <row r="83" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="83" spans="1:13" thickBot="1">
       <c r="A83" s="1057"/>
       <c r="B83" s="1058"/>
       <c r="C83" s="1059"/>
@@ -8633,7 +9100,7 @@
       </c>
       <c r="M83" s="1069"/>
     </row>
-    <row r="84" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="84" spans="1:13" thickBot="1">
       <c r="A84" s="1070"/>
       <c r="B84" s="1071"/>
       <c r="C84" s="1072"/>
@@ -8660,7 +9127,7 @@
       </c>
       <c r="M84" s="1082"/>
     </row>
-    <row r="85" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="85" spans="1:13" thickBot="1">
       <c r="A85" s="1083"/>
       <c r="B85" s="1084"/>
       <c r="C85" s="1085"/>
@@ -8687,7 +9154,7 @@
       </c>
       <c r="M85" s="1095"/>
     </row>
-    <row r="86" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="86" spans="1:13" thickBot="1">
       <c r="A86" s="1096" t="s">
         <v>179</v>
       </c>
@@ -8726,7 +9193,7 @@
       </c>
       <c r="M86" s="1108"/>
     </row>
-    <row r="87" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="87" spans="1:13" thickBot="1">
       <c r="A87" s="1109" t="s">
         <v>206</v>
       </c>
@@ -8765,7 +9232,7 @@
       </c>
       <c r="M87" s="1121"/>
     </row>
-    <row r="88" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="88" spans="1:13" thickBot="1">
       <c r="A88" s="1122" t="s">
         <v>418</v>
       </c>
@@ -8800,7 +9267,7 @@
       </c>
       <c r="M88" s="1134"/>
     </row>
-    <row r="89" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="89" spans="1:13" thickBot="1">
       <c r="A89" s="1135" t="s">
         <v>195</v>
       </c>
@@ -8839,7 +9306,7 @@
       </c>
       <c r="M89" s="1147"/>
     </row>
-    <row r="90" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="90" spans="1:13" thickBot="1">
       <c r="A90" s="1148" t="s">
         <v>206</v>
       </c>
@@ -8878,7 +9345,7 @@
       </c>
       <c r="M90" s="1160"/>
     </row>
-    <row r="91" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="91" spans="1:13" thickBot="1">
       <c r="A91" s="1161"/>
       <c r="B91" s="1162"/>
       <c r="C91" s="1163"/>
@@ -8905,7 +9372,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="92" spans="1:13" thickBot="1">
       <c r="A92" s="1174" t="s">
         <v>156</v>
       </c>
@@ -8944,7 +9411,7 @@
       </c>
       <c r="M92" s="1186"/>
     </row>
-    <row r="93" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="93" spans="1:13" thickBot="1">
       <c r="A93" s="1187" t="s">
         <v>195</v>
       </c>
@@ -8983,7 +9450,7 @@
       </c>
       <c r="M93" s="1199"/>
     </row>
-    <row r="94" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="94" spans="1:13" thickBot="1">
       <c r="A94" s="1200" t="s">
         <v>206</v>
       </c>
@@ -9022,7 +9489,7 @@
       </c>
       <c r="M94" s="1212"/>
     </row>
-    <row r="95" spans="1:13" ht="16.5" thickBot="1">
+    <row ht="16.5" r="95" spans="1:13" thickBot="1">
       <c r="A95" s="1213"/>
       <c r="B95" s="1214"/>
       <c r="C95" s="1215"/>
@@ -9245,7 +9712,7 @@
       <c r="L103" s="1328"/>
       <c r="M103" s="1329"/>
     </row>
-    <row r="104" spans="1:13" s="1402" customFormat="1">
+    <row customFormat="1" r="104" s="1402" spans="1:13">
       <c r="A104" s="1400"/>
       <c r="B104" s="1400"/>
       <c r="C104" s="1400"/>
@@ -9277,1139 +9744,1163 @@
   </sheetData>
   <autoFilter ref="A1:M77"/>
   <hyperlinks>
-    <hyperlink ref="I37" r:id="rId1" tooltip="view_lot_270040" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/745316"/>
-    <hyperlink ref="I23" r:id="rId2" tooltip="view_lot_272467" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/752982"/>
-    <hyperlink ref="I45" r:id="rId3" tooltip="view_lot_275117" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/771933"/>
-    <hyperlink ref="I7" r:id="rId4" tooltip="view_lot_275457" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/758600"/>
-    <hyperlink ref="I17" r:id="rId5" tooltip="view_lot_277288" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/770581"/>
-    <hyperlink ref="I10" r:id="rId6" tooltip="view_lot_278180" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/774447"/>
-    <hyperlink ref="I12" r:id="rId7" tooltip="view_lot_279752" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/784997"/>
-    <hyperlink ref="I38" r:id="rId8" tooltip="view_lot_252247" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/768824"/>
-    <hyperlink ref="I44" r:id="rId9" tooltip="view_lot_283790" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/813364"/>
-    <hyperlink ref="K13" r:id="rId10" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292305" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFMKRT_MDP_Ma Carte - action=com.ibm.team.workitem.viewWorkItem&amp;id=292305"/>
-    <hyperlink ref="K48" r:id="rId11" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292436" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=292436"/>
-    <hyperlink ref="K15" r:id="rId12" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292625" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0232_CRE_P%C3%A9gase - action=com.ibm.team.workitem.viewWorkItem&amp;id=292625"/>
-    <hyperlink ref="K55" r:id="rId13" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292694" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00157_MSP_NEO_D%C3%A9mat doss engagt entrep - action=com.ibm.team.workitem.viewWorkItem&amp;id=292694"/>
-    <hyperlink ref="K5" r:id="rId14" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292733" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P01212_CCP_OFAC NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292733"/>
-    <hyperlink ref="K4" r:id="rId15" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292733" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P01212_CCP_OFAC NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292733"/>
-    <hyperlink ref="K57" r:id="rId16" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292795" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00739_MSP_Decom Oscare - action=com.ibm.team.workitem.viewWorkItem&amp;id=292795"/>
-    <hyperlink ref="K41" r:id="rId17" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294063" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0300_DML_Sol Genesys Multicanal - action=com.ibm.team.workitem.viewWorkItem&amp;id=294063"/>
-    <hyperlink ref="K26" r:id="rId18" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294266" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0211_TRV_Dossier Num. Client NPC - action=com.ibm.team.workitem.viewWorkItem&amp;id=294266"/>
-    <hyperlink ref="K14" r:id="rId19" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294308" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0231_CRE_DIGICONSO - action=com.ibm.team.workitem.viewWorkItem&amp;id=294308"/>
-    <hyperlink ref="K31" r:id="rId20" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294325" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFCC70_MKT_Mise place pr%C3%A9req Charte - action=com.ibm.team.workitem.viewWorkItem&amp;id=294325"/>
-    <hyperlink ref="K8" r:id="rId21" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294337" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00589_PLA_Base Fiscale - action=com.ibm.team.workitem.viewWorkItem&amp;id=294337"/>
-    <hyperlink ref="K35" r:id="rId22" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294352" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000036_GSI EER PCH VP EPTICA EDS - action=com.ibm.team.workitem.viewWorkItem&amp;id=294352"/>
-    <hyperlink ref="K28" r:id="rId23" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294356" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P01181_DML_OIC - Compl%C3%A9ments fonc. - action=com.ibm.team.workitem.viewWorkItem&amp;id=294356"/>
-    <hyperlink ref="K46" r:id="rId24" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294360" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0337_DML_SiMM Lot 4 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294360"/>
-    <hyperlink ref="K30" r:id="rId25" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294402" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFCC20_MKT_Comm client Etape 2 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294402"/>
-    <hyperlink ref="K32" r:id="rId26" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294406" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0248_PLA_D%C3%A9marche Epargne Patrim. - action=com.ibm.team.workitem.viewWorkItem&amp;id=294406"/>
-    <hyperlink ref="K27" r:id="rId27" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294407" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0220_DML_Bouton Vert - action=com.ibm.team.workitem.viewWorkItem&amp;id=294407"/>
-    <hyperlink ref="K33" r:id="rId28" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294408" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0315_DML_MDC NPCD lot3 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294408"/>
-    <hyperlink ref="K36" r:id="rId29" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294412" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_T300473 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294412"/>
-    <hyperlink ref="K50" r:id="rId30" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294414" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294414"/>
-    <hyperlink ref="K20" r:id="rId31" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294418" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=294418"/>
-    <hyperlink ref="K29" r:id="rId32" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294426" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0170_TRV_Refonte Docth%C3%A8que - action=com.ibm.team.workitem.viewWorkItem&amp;id=294426"/>
-    <hyperlink ref="K51" r:id="rId33" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294554" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000062_Coclico_SOA - action=com.ibm.team.workitem.viewWorkItem&amp;id=294554"/>
-    <hyperlink ref="K53" r:id="rId34" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294555" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000063 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294555"/>
-    <hyperlink ref="K21" r:id="rId35" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294484" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=294484"/>
-    <hyperlink ref="K11" r:id="rId36" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294557" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFMKRT_MDP_Ma Carte - action=com.ibm.team.workitem.viewWorkItem&amp;id=294557"/>
-    <hyperlink ref="K49" r:id="rId37" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294560" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294560"/>
-    <hyperlink ref="K59" r:id="rId38" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294568" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000026_GSI Risques Bale II - action=com.ibm.team.workitem.viewWorkItem&amp;id=294568"/>
-    <hyperlink ref="K34" r:id="rId39" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294573" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000036_GSI EER PCH VP EPTICA EDS - action=com.ibm.team.workitem.viewWorkItem&amp;id=294573"/>
-    <hyperlink ref="K3" r:id="rId40" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294577" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000013_GSI_CCP_Client - action=com.ibm.team.workitem.viewWorkItem&amp;id=294577"/>
-    <hyperlink ref="K40" r:id="rId41" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294588" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0070_MSP_Evol. Gestion Conseill%C3%A9e - action=com.ibm.team.workitem.viewWorkItem&amp;id=294588"/>
-    <hyperlink ref="K43" r:id="rId42" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294590" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00849_MSP_INTEGR OUTIL SOUSCR SCPI - action=com.ibm.team.workitem.viewWorkItem&amp;id=294590"/>
-    <hyperlink ref="K60" r:id="rId43" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294591" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000026_GSI Risques Bale II - action=com.ibm.team.workitem.viewWorkItem&amp;id=294591"/>
-    <hyperlink ref="K56" r:id="rId44" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294594" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00738_MSP_Urba SI International - action=com.ibm.team.workitem.viewWorkItem&amp;id=294594"/>
-    <hyperlink ref="K9" r:id="rId45" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294600" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0083_MDP_Rep. BDF recyclage billet - action=com.ibm.team.workitem.viewWorkItem&amp;id=294600"/>
-    <hyperlink ref="K54" r:id="rId46" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294604" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_FE000066_Maintenance Portail-IA-SEA-Ergo - action=com.ibm.team.workitem.viewWorkItem&amp;id=294604"/>
-    <hyperlink ref="K58" r:id="rId47" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294804" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00739_MSP_Decom Oscare - action=com.ibm.team.workitem.viewWorkItem&amp;id=294804"/>
-    <hyperlink ref="K42" r:id="rId48" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294809" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0377_DML_Refonte Ident Auth forte - action=com.ibm.team.workitem.viewWorkItem&amp;id=294809"/>
-    <hyperlink ref="K6" r:id="rId49" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298836" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0369_CCP_NPC Access Banking Cible - action=com.ibm.team.workitem.viewWorkItem&amp;id=298836"/>
-    <hyperlink ref="K19" r:id="rId50" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298838" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00184_CRE_Process Agri-Pro - action=com.ibm.team.workitem.viewWorkItem&amp;id=298838"/>
-    <hyperlink ref="K2" r:id="rId51" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298842" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJT_SDJ_PE000133 - action=com.ibm.team.workitem.viewWorkItem&amp;id=298842"/>
-    <hyperlink ref="K52" r:id="rId52" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298846" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000062_Coclico_SOA - action=com.ibm.team.workitem.viewWorkItem&amp;id=298846"/>
-    <hyperlink ref="I13" r:id="rId53"/>
-    <hyperlink ref="I48" r:id="rId54"/>
-    <hyperlink ref="I15" r:id="rId55"/>
-    <hyperlink ref="I55" r:id="rId56"/>
-    <hyperlink ref="I5" r:id="rId57"/>
-    <hyperlink ref="I4" r:id="rId58"/>
-    <hyperlink ref="I57" r:id="rId59"/>
-    <hyperlink ref="I16" r:id="rId60" display="http://ttp10-snar.ca-technologies.fr/governance?id=790392"/>
-    <hyperlink ref="I21" r:id="rId61"/>
-    <hyperlink ref="I20" r:id="rId62" display="http://ttp10-snar.ca-technologies.fr/governance?id=846505"/>
-    <hyperlink ref="I46" r:id="rId63"/>
-    <hyperlink ref="I50" r:id="rId64"/>
-    <hyperlink ref="I28" r:id="rId65"/>
-    <hyperlink ref="I43" r:id="rId66"/>
-    <hyperlink ref="I35" r:id="rId67"/>
-    <hyperlink ref="I14" r:id="rId68"/>
-    <hyperlink ref="I36" r:id="rId69" display="http://ttp10-snar.ca-technologies.fr/governance?id=841853"/>
-    <hyperlink ref="I40" r:id="rId70"/>
-    <hyperlink ref="I33" r:id="rId71"/>
-    <hyperlink ref="I54" r:id="rId72"/>
-    <hyperlink ref="I59" r:id="rId73"/>
-    <hyperlink ref="I53" r:id="rId74"/>
-    <hyperlink ref="I49" r:id="rId75"/>
-    <hyperlink ref="I41" r:id="rId76"/>
-    <hyperlink ref="I34" r:id="rId77"/>
-    <hyperlink ref="I51" r:id="rId78"/>
-    <hyperlink ref="I9" r:id="rId79"/>
-    <hyperlink ref="I27" r:id="rId80"/>
-    <hyperlink ref="I29" r:id="rId81"/>
-    <hyperlink ref="I56" r:id="rId82"/>
-    <hyperlink ref="I11" r:id="rId83"/>
-    <hyperlink ref="I3" r:id="rId84"/>
-    <hyperlink ref="I8" r:id="rId85"/>
-    <hyperlink ref="I32" r:id="rId86"/>
-    <hyperlink ref="I60" r:id="rId87"/>
-    <hyperlink ref="I26" r:id="rId88"/>
-    <hyperlink ref="I30" r:id="rId89"/>
-    <hyperlink ref="I31" r:id="rId90"/>
-    <hyperlink ref="I58" r:id="rId91"/>
-    <hyperlink ref="I42" r:id="rId92" display="http://ttp10-snar.ca-technologies.fr/governance?id=846900"/>
-    <hyperlink ref="I52" r:id="rId93" tooltip="view_lot_280871" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/776827"/>
-    <hyperlink ref="I2" r:id="rId94" tooltip="view_lot_295711" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/851214"/>
-    <hyperlink ref="I19" r:id="rId95" tooltip="view_lot_292978" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/852227"/>
-    <hyperlink ref="I6" r:id="rId96" tooltip="view_lot_259176" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/847192"/>
-    <hyperlink ref="I63" r:id="rId97"/>
-    <hyperlink ref="I64" r:id="rId98"/>
-    <hyperlink ref="I65" r:id="rId99"/>
-    <hyperlink ref="I66" r:id="rId100"/>
-    <hyperlink ref="I67" r:id="rId101"/>
-    <hyperlink ref="I68" r:id="rId102"/>
-    <hyperlink ref="I69" r:id="rId103"/>
-    <hyperlink ref="I70" r:id="rId104"/>
-    <hyperlink ref="I71" r:id="rId105"/>
-    <hyperlink ref="I72" r:id="rId106"/>
-    <hyperlink ref="I73" r:id="rId107"/>
-    <hyperlink ref="I74" r:id="rId108"/>
-    <hyperlink ref="I75" r:id="rId109"/>
-    <hyperlink ref="I76" r:id="rId110"/>
-    <hyperlink ref="I77" r:id="rId111"/>
-    <hyperlink ref="K63" r:id="rId112" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301700" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_T300473 - action=com.ibm.team.workitem.viewWorkItem&amp;id=301700"/>
-    <hyperlink ref="K64" r:id="rId113" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301702" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0106_ASS_Refonte PREDICA pour NPV - action=com.ibm.team.workitem.viewWorkItem&amp;id=301702"/>
-    <hyperlink ref="K65" r:id="rId114" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301710" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_RE0127_Portail-IA-ERGO - action=com.ibm.team.workitem.viewWorkItem&amp;id=301710"/>
-    <hyperlink ref="K66" r:id="rId115" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301717" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000063 - action=com.ibm.team.workitem.viewWorkItem&amp;id=301717"/>
-    <hyperlink ref="K68" r:id="rId116" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301750" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_RE0134_Maintenance SEA - action=com.ibm.team.workitem.viewWorkItem&amp;id=301750"/>
-    <hyperlink ref="K71" r:id="rId117" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301765" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0437_PLA_Process epargn patrim PCO - action=com.ibm.team.workitem.viewWorkItem&amp;id=301765"/>
-    <hyperlink ref="K75" r:id="rId118" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301771" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0106_ASS_Refonte PREDICA pour NPV - action=com.ibm.team.workitem.viewWorkItem&amp;id=301771"/>
-    <hyperlink ref="K77" r:id="rId119" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301775" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000046_GSI_CRE_U4 - action=com.ibm.team.workitem.viewWorkItem&amp;id=301775"/>
-    <hyperlink ref="I78" r:id="rId120" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_227799"/>
-    <hyperlink ref="I79" r:id="rId121" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_253567"/>
-    <hyperlink ref="I80" r:id="rId122" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_275647"/>
-    <hyperlink ref="I81" r:id="rId123" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_279136"/>
-    <hyperlink ref="I82" r:id="rId124" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_279749"/>
-    <hyperlink ref="I83" r:id="rId125" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_286290"/>
-    <hyperlink ref="I84" r:id="rId126" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_288672"/>
-    <hyperlink ref="I85" r:id="rId127" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_293974"/>
-    <hyperlink ref="I86" r:id="rId128" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_294256"/>
-    <hyperlink ref="I87" r:id="rId129" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_295576"/>
-    <hyperlink ref="I88" r:id="rId130" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_299372"/>
-    <hyperlink ref="I89" r:id="rId131" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_299960"/>
-    <hyperlink ref="I90" r:id="rId132" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_300888"/>
-    <hyperlink ref="I91" r:id="rId133" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_301508"/>
-    <hyperlink ref="I92" r:id="rId134" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_301648"/>
-    <hyperlink ref="I93" r:id="rId135" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_301946"/>
-    <hyperlink ref="I94" r:id="rId136" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_305990"/>
-    <hyperlink ref="K78" r:id="rId137" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307394" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0220_DML_Bouton Vert - action=com.ibm.team.workitem.viewWorkItem&amp;id=307394"/>
-    <hyperlink ref="K79" r:id="rId138" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307395" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFP031_DML_Fonct transactionnelles - action=com.ibm.team.workitem.viewWorkItem&amp;id=307395"/>
-    <hyperlink ref="K80" r:id="rId139" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307396" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0377_DML_Refonte Ident Auth forte - action=com.ibm.team.workitem.viewWorkItem&amp;id=307396"/>
-    <hyperlink ref="K81" r:id="rId140" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307398" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0319_CCP_Access Banking - action=com.ibm.team.workitem.viewWorkItem&amp;id=307398"/>
-    <hyperlink ref="K82" r:id="rId141" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307400" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFMKRT_MDP_Ma Carte - action=com.ibm.team.workitem.viewWorkItem&amp;id=307400"/>
-    <hyperlink ref="K83" r:id="rId142" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307402" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0298_DML_Mont%C3%A9e version EPTICA - action=com.ibm.team.workitem.viewWorkItem&amp;id=307402"/>
-    <hyperlink ref="K84" r:id="rId143" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307405" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_RE0057_CCP_WDRC - action=com.ibm.team.workitem.viewWorkItem&amp;id=307405"/>
-    <hyperlink ref="K85" r:id="rId144" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307407" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0379_MDP_DSP2 - action=com.ibm.team.workitem.viewWorkItem&amp;id=307407"/>
-    <hyperlink ref="K86" r:id="rId145" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307408" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0398_CRE_Loi Sapin 2 R%C3%A9sil. ADE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307408"/>
-    <hyperlink ref="K87" r:id="rId146" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307494" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0441_DML_Outils commerciaux Agenda - action=com.ibm.team.workitem.viewWorkItem&amp;id=307494"/>
-    <hyperlink ref="K88" r:id="rId147" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307527" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000018_GSI PLA Titres - action=com.ibm.team.workitem.viewWorkItem&amp;id=307527"/>
-    <hyperlink ref="K89" r:id="rId148" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307534" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=307534"/>
-    <hyperlink ref="K90" r:id="rId149" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307535" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0211_TRV_Dossier Num. Client NPC - action=com.ibm.team.workitem.viewWorkItem&amp;id=307535"/>
-    <hyperlink ref="K92" r:id="rId150" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307542" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00521_MDP_BOA - action=com.ibm.team.workitem.viewWorkItem&amp;id=307542"/>
-    <hyperlink ref="K93" r:id="rId151" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307551" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=307551"/>
-    <hyperlink ref="K94" r:id="rId152" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307554" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFP031_DML_Fonct transactionnelles - action=com.ibm.team.workitem.viewWorkItem&amp;id=307554"/>
-    <hyperlink ref="I95" r:id="rId153" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_304138"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/745316" r:id="rId1" ref="I37" tooltip="view_lot_270040"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/752982" r:id="rId2" ref="I23" tooltip="view_lot_272467"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/771933" r:id="rId3" ref="I45" tooltip="view_lot_275117"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/758600" r:id="rId4" ref="I7" tooltip="view_lot_275457"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/770581" r:id="rId5" ref="I17" tooltip="view_lot_277288"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/774447" r:id="rId6" ref="I10" tooltip="view_lot_278180"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/784997" r:id="rId7" ref="I12" tooltip="view_lot_279752"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/768824" r:id="rId8" ref="I38" tooltip="view_lot_252247"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/813364" r:id="rId9" ref="I44" tooltip="view_lot_283790"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFMKRT_MDP_Ma Carte - action=com.ibm.team.workitem.viewWorkItem&amp;id=292305" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292305" r:id="rId10" ref="K13"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=292436" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292436" r:id="rId11" ref="K48"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0232_CRE_P%C3%A9gase - action=com.ibm.team.workitem.viewWorkItem&amp;id=292625" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292625" r:id="rId12" ref="K15"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00157_MSP_NEO_D%C3%A9mat doss engagt entrep - action=com.ibm.team.workitem.viewWorkItem&amp;id=292694" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292694" r:id="rId13" ref="K55"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P01212_CCP_OFAC NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292733" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292733" r:id="rId14" ref="K5"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P01212_CCP_OFAC NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292733" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292733" r:id="rId15" ref="K4"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00739_MSP_Decom Oscare - action=com.ibm.team.workitem.viewWorkItem&amp;id=292795" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292795" r:id="rId16" ref="K57"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0300_DML_Sol Genesys Multicanal - action=com.ibm.team.workitem.viewWorkItem&amp;id=294063" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294063" r:id="rId17" ref="K41"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0211_TRV_Dossier Num. Client NPC - action=com.ibm.team.workitem.viewWorkItem&amp;id=294266" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294266" r:id="rId18" ref="K26"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0231_CRE_DIGICONSO - action=com.ibm.team.workitem.viewWorkItem&amp;id=294308" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294308" r:id="rId19" ref="K14"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFCC70_MKT_Mise place pr%C3%A9req Charte - action=com.ibm.team.workitem.viewWorkItem&amp;id=294325" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294325" r:id="rId20" ref="K31"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00589_PLA_Base Fiscale - action=com.ibm.team.workitem.viewWorkItem&amp;id=294337" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294337" r:id="rId21" ref="K8"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000036_GSI EER PCH VP EPTICA EDS - action=com.ibm.team.workitem.viewWorkItem&amp;id=294352" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294352" r:id="rId22" ref="K35"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P01181_DML_OIC - Compl%C3%A9ments fonc. - action=com.ibm.team.workitem.viewWorkItem&amp;id=294356" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294356" r:id="rId23" ref="K28"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0337_DML_SiMM Lot 4 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294360" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294360" r:id="rId24" ref="K46"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFCC20_MKT_Comm client Etape 2 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294402" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294402" r:id="rId25" ref="K30"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0248_PLA_D%C3%A9marche Epargne Patrim. - action=com.ibm.team.workitem.viewWorkItem&amp;id=294406" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294406" r:id="rId26" ref="K32"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0220_DML_Bouton Vert - action=com.ibm.team.workitem.viewWorkItem&amp;id=294407" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294407" r:id="rId27" ref="K27"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0315_DML_MDC NPCD lot3 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294408" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294408" r:id="rId28" ref="K33"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_T300473 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294412" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294412" r:id="rId29" ref="K36"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294414" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294414" r:id="rId30" ref="K50"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=294418" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294418" r:id="rId31" ref="K20"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0170_TRV_Refonte Docth%C3%A8que - action=com.ibm.team.workitem.viewWorkItem&amp;id=294426" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294426" r:id="rId32" ref="K29"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000062_Coclico_SOA - action=com.ibm.team.workitem.viewWorkItem&amp;id=294554" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294554" r:id="rId33" ref="K51"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000063 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294555" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294555" r:id="rId34" ref="K53"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=294484" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294484" r:id="rId35" ref="K21"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFMKRT_MDP_Ma Carte - action=com.ibm.team.workitem.viewWorkItem&amp;id=294557" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294557" r:id="rId36" ref="K11"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294560" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294560" r:id="rId37" ref="K49"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000026_GSI Risques Bale II - action=com.ibm.team.workitem.viewWorkItem&amp;id=294568" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294568" r:id="rId38" ref="K59"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000036_GSI EER PCH VP EPTICA EDS - action=com.ibm.team.workitem.viewWorkItem&amp;id=294573" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294573" r:id="rId39" ref="K34"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000013_GSI_CCP_Client - action=com.ibm.team.workitem.viewWorkItem&amp;id=294577" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294577" r:id="rId40" ref="K3"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0070_MSP_Evol. Gestion Conseill%C3%A9e - action=com.ibm.team.workitem.viewWorkItem&amp;id=294588" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294588" r:id="rId41" ref="K40"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00849_MSP_INTEGR OUTIL SOUSCR SCPI - action=com.ibm.team.workitem.viewWorkItem&amp;id=294590" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294590" r:id="rId42" ref="K43"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000026_GSI Risques Bale II - action=com.ibm.team.workitem.viewWorkItem&amp;id=294591" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294591" r:id="rId43" ref="K60"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00738_MSP_Urba SI International - action=com.ibm.team.workitem.viewWorkItem&amp;id=294594" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294594" r:id="rId44" ref="K56"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0083_MDP_Rep. BDF recyclage billet - action=com.ibm.team.workitem.viewWorkItem&amp;id=294600" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294600" r:id="rId45" ref="K9"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_FE000066_Maintenance Portail-IA-SEA-Ergo - action=com.ibm.team.workitem.viewWorkItem&amp;id=294604" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294604" r:id="rId46" ref="K54"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00739_MSP_Decom Oscare - action=com.ibm.team.workitem.viewWorkItem&amp;id=294804" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294804" r:id="rId47" ref="K58"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0377_DML_Refonte Ident Auth forte - action=com.ibm.team.workitem.viewWorkItem&amp;id=294809" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294809" r:id="rId48" ref="K42"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0369_CCP_NPC Access Banking Cible - action=com.ibm.team.workitem.viewWorkItem&amp;id=298836" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298836" r:id="rId49" ref="K6"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00184_CRE_Process Agri-Pro - action=com.ibm.team.workitem.viewWorkItem&amp;id=298838" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298838" r:id="rId50" ref="K19"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJT_SDJ_PE000133 - action=com.ibm.team.workitem.viewWorkItem&amp;id=298842" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298842" r:id="rId51" ref="K2"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000062_Coclico_SOA - action=com.ibm.team.workitem.viewWorkItem&amp;id=298846" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298846" r:id="rId52" ref="K52"/>
+    <hyperlink r:id="rId53" ref="I13"/>
+    <hyperlink r:id="rId54" ref="I48"/>
+    <hyperlink r:id="rId55" ref="I15"/>
+    <hyperlink r:id="rId56" ref="I55"/>
+    <hyperlink r:id="rId57" ref="I5"/>
+    <hyperlink r:id="rId58" ref="I4"/>
+    <hyperlink r:id="rId59" ref="I57"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=790392" r:id="rId60" ref="I16"/>
+    <hyperlink r:id="rId61" ref="I21"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=846505" r:id="rId62" ref="I20"/>
+    <hyperlink r:id="rId63" ref="I46"/>
+    <hyperlink r:id="rId64" ref="I50"/>
+    <hyperlink r:id="rId65" ref="I28"/>
+    <hyperlink r:id="rId66" ref="I43"/>
+    <hyperlink r:id="rId67" ref="I35"/>
+    <hyperlink r:id="rId68" ref="I14"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=841853" r:id="rId69" ref="I36"/>
+    <hyperlink r:id="rId70" ref="I40"/>
+    <hyperlink r:id="rId71" ref="I33"/>
+    <hyperlink r:id="rId72" ref="I54"/>
+    <hyperlink r:id="rId73" ref="I59"/>
+    <hyperlink r:id="rId74" ref="I53"/>
+    <hyperlink r:id="rId75" ref="I49"/>
+    <hyperlink r:id="rId76" ref="I41"/>
+    <hyperlink r:id="rId77" ref="I34"/>
+    <hyperlink r:id="rId78" ref="I51"/>
+    <hyperlink r:id="rId79" ref="I9"/>
+    <hyperlink r:id="rId80" ref="I27"/>
+    <hyperlink r:id="rId81" ref="I29"/>
+    <hyperlink r:id="rId82" ref="I56"/>
+    <hyperlink r:id="rId83" ref="I11"/>
+    <hyperlink r:id="rId84" ref="I3"/>
+    <hyperlink r:id="rId85" ref="I8"/>
+    <hyperlink r:id="rId86" ref="I32"/>
+    <hyperlink r:id="rId87" ref="I60"/>
+    <hyperlink r:id="rId88" ref="I26"/>
+    <hyperlink r:id="rId89" ref="I30"/>
+    <hyperlink r:id="rId90" ref="I31"/>
+    <hyperlink r:id="rId91" ref="I58"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=846900" r:id="rId92" ref="I42"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/776827" r:id="rId93" ref="I52" tooltip="view_lot_280871"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/851214" r:id="rId94" ref="I2" tooltip="view_lot_295711"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/852227" r:id="rId95" ref="I19" tooltip="view_lot_292978"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/847192" r:id="rId96" ref="I6" tooltip="view_lot_259176"/>
+    <hyperlink r:id="rId97" ref="I63"/>
+    <hyperlink r:id="rId98" ref="I64"/>
+    <hyperlink r:id="rId99" ref="I65"/>
+    <hyperlink r:id="rId100" ref="I66"/>
+    <hyperlink r:id="rId101" ref="I67"/>
+    <hyperlink r:id="rId102" ref="I68"/>
+    <hyperlink r:id="rId103" ref="I69"/>
+    <hyperlink r:id="rId104" ref="I70"/>
+    <hyperlink r:id="rId105" ref="I71"/>
+    <hyperlink r:id="rId106" ref="I72"/>
+    <hyperlink r:id="rId107" ref="I73"/>
+    <hyperlink r:id="rId108" ref="I74"/>
+    <hyperlink r:id="rId109" ref="I75"/>
+    <hyperlink r:id="rId110" ref="I76"/>
+    <hyperlink r:id="rId111" ref="I77"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_T300473 - action=com.ibm.team.workitem.viewWorkItem&amp;id=301700" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301700" r:id="rId112" ref="K63"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0106_ASS_Refonte PREDICA pour NPV - action=com.ibm.team.workitem.viewWorkItem&amp;id=301702" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301702" r:id="rId113" ref="K64"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_RE0127_Portail-IA-ERGO - action=com.ibm.team.workitem.viewWorkItem&amp;id=301710" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301710" r:id="rId114" ref="K65"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000063 - action=com.ibm.team.workitem.viewWorkItem&amp;id=301717" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301717" r:id="rId115" ref="K66"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_RE0134_Maintenance SEA - action=com.ibm.team.workitem.viewWorkItem&amp;id=301750" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301750" r:id="rId116" ref="K68"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0437_PLA_Process epargn patrim PCO - action=com.ibm.team.workitem.viewWorkItem&amp;id=301765" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301765" r:id="rId117" ref="K71"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0106_ASS_Refonte PREDICA pour NPV - action=com.ibm.team.workitem.viewWorkItem&amp;id=301771" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301771" r:id="rId118" ref="K75"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000046_GSI_CRE_U4 - action=com.ibm.team.workitem.viewWorkItem&amp;id=301775" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301775" r:id="rId119" ref="K77"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_227799" r:id="rId120" ref="I78"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_253567" r:id="rId121" ref="I79"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_275647" r:id="rId122" ref="I80"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_279136" r:id="rId123" ref="I81"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_279749" r:id="rId124" ref="I82"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_286290" r:id="rId125" ref="I83"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_288672" r:id="rId126" ref="I84"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_293974" r:id="rId127" ref="I85"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_294256" r:id="rId128" ref="I86"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_295576" r:id="rId129" ref="I87"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_299372" r:id="rId130" ref="I88"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_299960" r:id="rId131" ref="I89"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_300888" r:id="rId132" ref="I90"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_301508" r:id="rId133" ref="I91"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_301648" r:id="rId134" ref="I92"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_301946" r:id="rId135" ref="I93"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_305990" r:id="rId136" ref="I94"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0220_DML_Bouton Vert - action=com.ibm.team.workitem.viewWorkItem&amp;id=307394" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307394" r:id="rId137" ref="K78"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFP031_DML_Fonct transactionnelles - action=com.ibm.team.workitem.viewWorkItem&amp;id=307395" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307395" r:id="rId138" ref="K79"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0377_DML_Refonte Ident Auth forte - action=com.ibm.team.workitem.viewWorkItem&amp;id=307396" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307396" r:id="rId139" ref="K80"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0319_CCP_Access Banking - action=com.ibm.team.workitem.viewWorkItem&amp;id=307398" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307398" r:id="rId140" ref="K81"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFMKRT_MDP_Ma Carte - action=com.ibm.team.workitem.viewWorkItem&amp;id=307400" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307400" r:id="rId141" ref="K82"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0298_DML_Mont%C3%A9e version EPTICA - action=com.ibm.team.workitem.viewWorkItem&amp;id=307402" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307402" r:id="rId142" ref="K83"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_RE0057_CCP_WDRC - action=com.ibm.team.workitem.viewWorkItem&amp;id=307405" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307405" r:id="rId143" ref="K84"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0379_MDP_DSP2 - action=com.ibm.team.workitem.viewWorkItem&amp;id=307407" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307407" r:id="rId144" ref="K85"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0398_CRE_Loi Sapin 2 R%C3%A9sil. ADE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307408" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307408" r:id="rId145" ref="K86"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0441_DML_Outils commerciaux Agenda - action=com.ibm.team.workitem.viewWorkItem&amp;id=307494" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307494" r:id="rId146" ref="K87"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000018_GSI PLA Titres - action=com.ibm.team.workitem.viewWorkItem&amp;id=307527" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307527" r:id="rId147" ref="K88"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=307534" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307534" r:id="rId148" ref="K89"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0211_TRV_Dossier Num. Client NPC - action=com.ibm.team.workitem.viewWorkItem&amp;id=307535" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307535" r:id="rId149" ref="K90"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00521_MDP_BOA - action=com.ibm.team.workitem.viewWorkItem&amp;id=307542" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307542" r:id="rId150" ref="K92"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=307551" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307551" r:id="rId151" ref="K93"/>
+    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFP031_DML_Fonct transactionnelles - action=com.ibm.team.workitem.viewWorkItem&amp;id=307554" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307554" r:id="rId152" ref="K94"/>
+    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_304138" r:id="rId153" ref="I95"/>
   </hyperlinks>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId154"/>
+  <pageMargins bottom="0" footer="0.31496062992125984" header="0.31496062992125984" left="0" right="0" top="0"/>
+  <pageSetup orientation="landscape" paperSize="9" r:id="rId154" scale="53"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1330" t="s">
+    <row r="1">
+      <c r="A1" s="1403" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="1330" t="s">
+      <c r="B1" s="1403" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1330" t="s">
+      <c r="C1" s="1403" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="1330" t="s">
+      <c r="D1" s="1403" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1331" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="1404">
         <v>444</v>
       </c>
-      <c r="B2" s="1333" t="s">
+      <c r="B2" t="s" s="1405">
         <v>445</v>
       </c>
-      <c r="C2" s="1331" t="s">
+      <c r="C2" t="s" s="1404">
         <v>446</v>
       </c>
-      <c r="D2" s="1331" t="s">
+      <c r="D2" t="s" s="1404">
         <v>519</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1331" t="s">
+    <row r="3">
+      <c r="A3" t="s" s="1406">
+        <v>533</v>
+      </c>
+      <c r="B3" t="s" s="1407">
+        <v>534</v>
+      </c>
+      <c r="C3" t="s" s="1406">
+        <v>446</v>
+      </c>
+      <c r="D3" t="s" s="1406">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1408">
         <v>447</v>
       </c>
-      <c r="B3" s="1334" t="s">
+      <c r="B4" t="s" s="1409">
         <v>24</v>
       </c>
-      <c r="C3" s="1331" t="s">
+      <c r="C4" t="s" s="1408">
         <v>338</v>
       </c>
-      <c r="D3" s="1331" t="s">
+      <c r="D4" t="s" s="1408">
         <v>519</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1331" t="s">
+    <row r="5">
+      <c r="A5" t="s" s="1410">
         <v>448</v>
       </c>
-      <c r="B4" s="1335" t="s">
+      <c r="B5" t="s" s="1411">
         <v>18</v>
       </c>
-      <c r="C4" s="1331" t="s">
+      <c r="C5" t="s" s="1410">
         <v>446</v>
       </c>
-      <c r="D4" s="1331" t="s">
+      <c r="D5" t="s" s="1410">
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1331" t="s">
+    <row r="6">
+      <c r="A6" t="s" s="1412">
         <v>449</v>
       </c>
-      <c r="B5" s="1336" t="s">
+      <c r="B6" t="s" s="1413">
         <v>18</v>
       </c>
-      <c r="C5" s="1331" t="s">
+      <c r="C6" t="s" s="1412">
         <v>446</v>
       </c>
-      <c r="D5" s="1331" t="s">
+      <c r="D6" t="s" s="1412">
         <v>519</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1331" t="s">
+    <row r="7">
+      <c r="A7" t="s" s="1414">
         <v>450</v>
       </c>
-      <c r="B6" s="1337" t="s">
+      <c r="B7" t="s" s="1415">
         <v>18</v>
       </c>
-      <c r="C6" s="1331" t="s">
+      <c r="C7" t="s" s="1414">
         <v>338</v>
       </c>
-      <c r="D6" s="1331" t="s">
+      <c r="D7" t="s" s="1414">
         <v>519</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1331" t="s">
+    <row r="8">
+      <c r="A8" t="s" s="1416">
         <v>451</v>
       </c>
-      <c r="B7" s="1338" t="s">
+      <c r="B8" t="s" s="1417">
         <v>452</v>
       </c>
-      <c r="C7" s="1331" t="s">
+      <c r="C8" t="s" s="1416">
         <v>446</v>
       </c>
-      <c r="D7" s="1331" t="s">
+      <c r="D8" t="s" s="1416">
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1331" t="s">
+    <row r="9">
+      <c r="A9" t="s" s="1418">
         <v>453</v>
       </c>
-      <c r="B8" s="1339" t="s">
+      <c r="B9" t="s" s="1419">
         <v>18</v>
       </c>
-      <c r="C8" s="1331" t="s">
+      <c r="C9" t="s" s="1418">
         <v>446</v>
       </c>
-      <c r="D8" s="1331" t="s">
+      <c r="D9" t="s" s="1418">
         <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1331" t="s">
+    <row r="10">
+      <c r="A10" t="s" s="1420">
         <v>454</v>
       </c>
-      <c r="B9" s="1340" t="s">
+      <c r="B10" t="s" s="1421">
         <v>18</v>
       </c>
-      <c r="C9" s="1331" t="s">
+      <c r="C10" t="s" s="1420">
         <v>446</v>
       </c>
-      <c r="D9" s="1331" t="s">
+      <c r="D10" t="s" s="1420">
         <v>519</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1331" t="s">
+    <row r="11">
+      <c r="A11" t="s" s="1422">
         <v>455</v>
       </c>
-      <c r="B10" s="1341" t="s">
+      <c r="B11" t="s" s="1423">
         <v>18</v>
       </c>
-      <c r="C10" s="1331" t="s">
+      <c r="C11" t="s" s="1422">
         <v>446</v>
       </c>
-      <c r="D10" s="1331" t="s">
+      <c r="D11" t="s" s="1422">
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1331" t="s">
+    <row r="12">
+      <c r="A12" t="s" s="1424">
         <v>456</v>
       </c>
-      <c r="B11" s="1342" t="s">
+      <c r="B12" t="s" s="1425">
         <v>520</v>
       </c>
-      <c r="C11" s="1331" t="s">
+      <c r="C12" t="s" s="1424">
         <v>446</v>
       </c>
-      <c r="D11" s="1331" t="s">
+      <c r="D12" t="s" s="1424">
         <v>519</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1331" t="s">
+    <row r="13">
+      <c r="A13" t="s" s="1426">
         <v>458</v>
       </c>
-      <c r="B12" s="1343" t="s">
+      <c r="B13" t="s" s="1427">
         <v>18</v>
       </c>
-      <c r="C12" s="1331" t="s">
+      <c r="C13" t="s" s="1426">
         <v>446</v>
       </c>
-      <c r="D12" s="1331" t="s">
+      <c r="D13" t="s" s="1426">
         <v>519</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1331" t="s">
+    <row r="14">
+      <c r="A14" t="s" s="1428">
         <v>459</v>
       </c>
-      <c r="B13" s="1344" t="s">
+      <c r="B14" t="s" s="1429">
         <v>467</v>
       </c>
-      <c r="C13" s="1331" t="s">
+      <c r="C14" t="s" s="1428">
         <v>338</v>
       </c>
-      <c r="D13" s="1331" t="s">
+      <c r="D14" t="s" s="1428">
         <v>519</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1331" t="s">
+    <row r="15">
+      <c r="A15" t="s" s="1430">
         <v>460</v>
       </c>
-      <c r="B14" s="1345" t="s">
+      <c r="B15" t="s" s="1431">
         <v>461</v>
       </c>
-      <c r="C14" s="1331" t="s">
+      <c r="C15" t="s" s="1430">
         <v>446</v>
       </c>
-      <c r="D14" s="1331" t="s">
+      <c r="D15" t="s" s="1430">
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1331" t="s">
+    <row r="16">
+      <c r="A16" t="s" s="1432">
         <v>462</v>
       </c>
-      <c r="B15" s="1346" t="s">
+      <c r="B16" t="s" s="1433">
         <v>36</v>
       </c>
-      <c r="C15" s="1331" t="s">
+      <c r="C16" t="s" s="1432">
         <v>446</v>
       </c>
-      <c r="D15" s="1331" t="s">
+      <c r="D16" t="s" s="1432">
         <v>519</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1331" t="s">
+    <row r="17">
+      <c r="A17" t="s" s="1434">
         <v>463</v>
       </c>
-      <c r="B16" s="1347" t="s">
+      <c r="B17" t="s" s="1435">
         <v>36</v>
       </c>
-      <c r="C16" s="1331" t="s">
+      <c r="C17" t="s" s="1434">
         <v>446</v>
       </c>
-      <c r="D16" s="1331" t="s">
+      <c r="D17" t="s" s="1434">
         <v>519</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1331" t="s">
+    <row r="18">
+      <c r="A18" t="s" s="1436">
         <v>464</v>
       </c>
-      <c r="B17" s="1348" t="s">
+      <c r="B18" t="s" s="1437">
         <v>467</v>
       </c>
-      <c r="C17" s="1331" t="s">
+      <c r="C18" t="s" s="1436">
         <v>446</v>
       </c>
-      <c r="D17" s="1331" t="s">
+      <c r="D18" t="s" s="1436">
         <v>519</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1331" t="s">
+    <row r="19">
+      <c r="A19" t="s" s="1438">
         <v>465</v>
       </c>
-      <c r="B18" s="1349" t="s">
+      <c r="B19" t="s" s="1439">
         <v>432</v>
       </c>
-      <c r="C18" s="1331" t="s">
+      <c r="C19" t="s" s="1438">
         <v>338</v>
       </c>
-      <c r="D18" s="1331" t="s">
+      <c r="D19" t="s" s="1438">
         <v>519</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1331" t="s">
+    <row r="20">
+      <c r="A20" t="s" s="1440">
         <v>466</v>
       </c>
-      <c r="B19" s="1350" t="s">
+      <c r="B20" t="s" s="1441">
         <v>467</v>
       </c>
-      <c r="C19" s="1331" t="s">
+      <c r="C20" t="s" s="1440">
         <v>446</v>
       </c>
-      <c r="D19" s="1331" t="s">
+      <c r="D20" t="s" s="1440">
         <v>519</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1331" t="s">
+    <row r="21">
+      <c r="A21" t="s" s="1442">
         <v>468</v>
       </c>
-      <c r="B20" s="1351" t="s">
+      <c r="B21" t="s" s="1443">
         <v>469</v>
       </c>
-      <c r="C20" s="1331" t="s">
+      <c r="C21" t="s" s="1442">
         <v>446</v>
       </c>
-      <c r="D20" s="1331" t="s">
+      <c r="D21" t="s" s="1442">
         <v>519</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1331" t="s">
+    <row r="22">
+      <c r="A22" t="s" s="1444">
         <v>470</v>
       </c>
-      <c r="B21" s="1352" t="s">
+      <c r="B22" t="s" s="1445">
         <v>520</v>
       </c>
-      <c r="C21" s="1331" t="s">
+      <c r="C22" t="s" s="1444">
         <v>338</v>
       </c>
-      <c r="D21" s="1331" t="s">
+      <c r="D22" t="s" s="1444">
         <v>519</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1331" t="s">
+    <row r="23">
+      <c r="A23" t="s" s="1446">
         <v>471</v>
       </c>
-      <c r="B22" s="1353" t="s">
+      <c r="B23" t="s" s="1447">
         <v>36</v>
       </c>
-      <c r="C22" s="1331" t="s">
+      <c r="C23" t="s" s="1446">
         <v>338</v>
       </c>
-      <c r="D22" s="1331" t="s">
+      <c r="D23" t="s" s="1446">
         <v>519</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1331" t="s">
+    <row r="24">
+      <c r="A24" t="s" s="1448">
         <v>472</v>
       </c>
-      <c r="B23" s="1354" t="s">
+      <c r="B24" t="s" s="1449">
         <v>432</v>
       </c>
-      <c r="C23" s="1331" t="s">
+      <c r="C24" t="s" s="1448">
         <v>338</v>
       </c>
-      <c r="D23" s="1331" t="s">
+      <c r="D24" t="s" s="1448">
         <v>519</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1331" t="s">
+    <row r="25">
+      <c r="A25" t="s" s="1450">
         <v>473</v>
       </c>
-      <c r="B24" s="1355" t="s">
+      <c r="B25" t="s" s="1451">
         <v>18</v>
       </c>
-      <c r="C24" s="1331" t="s">
+      <c r="C25" t="s" s="1450">
         <v>446</v>
       </c>
-      <c r="D24" s="1331" t="s">
+      <c r="D25" t="s" s="1450">
         <v>519</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1331" t="s">
+    <row r="26">
+      <c r="A26" t="s" s="1452">
         <v>474</v>
       </c>
-      <c r="B25" s="1356" t="s">
+      <c r="B26" t="s" s="1453">
         <v>36</v>
       </c>
-      <c r="C25" s="1331" t="s">
+      <c r="C26" t="s" s="1452">
         <v>338</v>
       </c>
-      <c r="D25" s="1331" t="s">
+      <c r="D26" t="s" s="1452">
         <v>519</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1331" t="s">
+    <row r="27">
+      <c r="A27" t="s" s="1454">
         <v>475</v>
       </c>
-      <c r="B26" s="1357" t="s">
+      <c r="B27" t="s" s="1455">
         <v>467</v>
       </c>
-      <c r="C26" s="1331" t="s">
+      <c r="C27" t="s" s="1454">
         <v>338</v>
       </c>
-      <c r="D26" s="1331" t="s">
+      <c r="D27" t="s" s="1454">
         <v>519</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1331" t="s">
+    <row r="28">
+      <c r="A28" t="s" s="1456">
         <v>476</v>
       </c>
-      <c r="B27" s="1358" t="s">
+      <c r="B28" t="s" s="1457">
         <v>457</v>
       </c>
-      <c r="C27" s="1331" t="s">
+      <c r="C28" t="s" s="1456">
         <v>446</v>
       </c>
-      <c r="D27" s="1331" t="s">
+      <c r="D28" t="s" s="1456">
         <v>519</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1331" t="s">
+    <row r="29">
+      <c r="A29" t="s" s="1458">
         <v>477</v>
       </c>
-      <c r="B28" s="1359" t="s">
+      <c r="B29" t="s" s="1459">
         <v>469</v>
       </c>
-      <c r="C28" s="1331" t="s">
+      <c r="C29" t="s" s="1458">
         <v>338</v>
       </c>
-      <c r="D28" s="1331" t="s">
+      <c r="D29" t="s" s="1458">
         <v>519</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1331" t="s">
+    <row r="30">
+      <c r="A30" t="s" s="1460">
         <v>478</v>
       </c>
-      <c r="B29" s="1360" t="s">
+      <c r="B30" t="s" s="1461">
         <v>479</v>
       </c>
-      <c r="C29" s="1331" t="s">
+      <c r="C30" t="s" s="1460">
         <v>446</v>
       </c>
-      <c r="D29" s="1331" t="s">
+      <c r="D30" t="s" s="1460">
         <v>519</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1331" t="s">
+    <row r="31">
+      <c r="A31" t="s" s="1462">
         <v>480</v>
       </c>
-      <c r="B30" s="1361" t="s">
+      <c r="B31" t="s" s="1463">
         <v>479</v>
       </c>
-      <c r="C30" s="1331" t="s">
+      <c r="C31" t="s" s="1462">
         <v>338</v>
       </c>
-      <c r="D30" s="1331" t="s">
+      <c r="D31" t="s" s="1462">
         <v>519</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1331" t="s">
+    <row r="32">
+      <c r="A32" t="s" s="1464">
         <v>481</v>
       </c>
-      <c r="B31" s="1362" t="s">
+      <c r="B32" t="s" s="1465">
         <v>479</v>
       </c>
-      <c r="C31" s="1331" t="s">
+      <c r="C32" t="s" s="1464">
         <v>446</v>
       </c>
-      <c r="D31" s="1331" t="s">
+      <c r="D32" t="s" s="1464">
         <v>519</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1331" t="s">
+    <row r="33">
+      <c r="A33" t="s" s="1466">
         <v>482</v>
       </c>
-      <c r="B32" s="1363" t="s">
+      <c r="B33" t="s" s="1467">
         <v>479</v>
       </c>
-      <c r="C32" s="1331" t="s">
+      <c r="C33" t="s" s="1466">
         <v>446</v>
       </c>
-      <c r="D32" s="1331" t="s">
+      <c r="D33" t="s" s="1466">
         <v>519</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1331" t="s">
+    <row r="34">
+      <c r="A34" t="s" s="1468">
         <v>483</v>
       </c>
-      <c r="B33" s="1364" t="s">
+      <c r="B34" t="s" s="1469">
         <v>484</v>
       </c>
-      <c r="C33" s="1331" t="s">
+      <c r="C34" t="s" s="1468">
         <v>446</v>
       </c>
-      <c r="D33" s="1331" t="s">
+      <c r="D34" t="s" s="1468">
         <v>519</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1331" t="s">
+    <row r="35">
+      <c r="A35" t="s" s="1470">
         <v>485</v>
       </c>
-      <c r="B34" s="1365" t="s">
+      <c r="B35" t="s" s="1471">
         <v>479</v>
       </c>
-      <c r="C34" s="1331" t="s">
+      <c r="C35" t="s" s="1470">
         <v>446</v>
       </c>
-      <c r="D34" s="1331" t="s">
+      <c r="D35" t="s" s="1470">
         <v>519</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1331" t="s">
+    <row r="36">
+      <c r="A36" t="s" s="1472">
         <v>486</v>
       </c>
-      <c r="B35" s="1366" t="s">
+      <c r="B36" t="s" s="1473">
         <v>479</v>
       </c>
-      <c r="C35" s="1331" t="s">
+      <c r="C36" t="s" s="1472">
         <v>338</v>
       </c>
-      <c r="D35" s="1331" t="s">
+      <c r="D36" t="s" s="1472">
         <v>519</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1331" t="s">
+    <row r="37">
+      <c r="A37" t="s" s="1474">
         <v>487</v>
       </c>
-      <c r="B36" s="1367" t="s">
+      <c r="B37" t="s" s="1475">
         <v>372</v>
       </c>
-      <c r="C36" s="1331" t="s">
+      <c r="C37" t="s" s="1474">
         <v>446</v>
       </c>
-      <c r="D36" s="1331" t="s">
+      <c r="D37" t="s" s="1474">
         <v>519</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1331" t="s">
+    <row r="38">
+      <c r="A38" t="s" s="1476">
         <v>488</v>
       </c>
-      <c r="B37" s="1368" t="s">
+      <c r="B38" t="s" s="1477">
         <v>372</v>
       </c>
-      <c r="C37" s="1331" t="s">
+      <c r="C38" t="s" s="1476">
         <v>446</v>
       </c>
-      <c r="D37" s="1331" t="s">
+      <c r="D38" t="s" s="1476">
         <v>519</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1331" t="s">
+    <row r="39">
+      <c r="A39" t="s" s="1478">
         <v>489</v>
       </c>
-      <c r="B38" s="1369" t="s">
+      <c r="B39" t="s" s="1479">
         <v>479</v>
       </c>
-      <c r="C38" s="1331" t="s">
+      <c r="C39" t="s" s="1478">
         <v>338</v>
       </c>
-      <c r="D38" s="1331" t="s">
+      <c r="D39" t="s" s="1478">
         <v>519</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1331" t="s">
+    <row r="40">
+      <c r="A40" t="s" s="1480">
         <v>490</v>
       </c>
-      <c r="B39" s="1370" t="s">
+      <c r="B40" t="s" s="1481">
         <v>479</v>
       </c>
-      <c r="C39" s="1331" t="s">
+      <c r="C40" t="s" s="1480">
         <v>338</v>
       </c>
-      <c r="D39" s="1331" t="s">
+      <c r="D40" t="s" s="1480">
         <v>519</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1331" t="s">
+    <row r="41">
+      <c r="A41" t="s" s="1482">
         <v>491</v>
       </c>
-      <c r="B40" s="1371" t="s">
+      <c r="B41" t="s" s="1483">
         <v>372</v>
       </c>
-      <c r="C40" s="1331" t="s">
+      <c r="C41" t="s" s="1482">
         <v>446</v>
       </c>
-      <c r="D40" s="1331" t="s">
+      <c r="D41" t="s" s="1482">
         <v>519</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1331" t="s">
+    <row r="42">
+      <c r="A42" t="s" s="1484">
         <v>492</v>
       </c>
-      <c r="B41" s="1372" t="s">
+      <c r="B42" t="s" s="1485">
         <v>479</v>
       </c>
-      <c r="C41" s="1331" t="s">
+      <c r="C42" t="s" s="1484">
         <v>338</v>
       </c>
-      <c r="D41" s="1331" t="s">
+      <c r="D42" t="s" s="1484">
         <v>519</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1331" t="s">
+    <row r="43">
+      <c r="A43" t="s" s="1486">
         <v>493</v>
       </c>
-      <c r="B42" s="1373" t="s">
+      <c r="B43" t="s" s="1487">
         <v>372</v>
       </c>
-      <c r="C42" s="1331" t="s">
+      <c r="C43" t="s" s="1486">
         <v>338</v>
       </c>
-      <c r="D42" s="1331" t="s">
+      <c r="D43" t="s" s="1486">
         <v>519</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1331" t="s">
+    <row r="44">
+      <c r="A44" t="s" s="1488">
         <v>524</v>
       </c>
-      <c r="B43" s="1374" t="s">
+      <c r="B44" t="s" s="1489">
         <v>443</v>
       </c>
-      <c r="C43" s="1331" t="s">
+      <c r="C44" t="s" s="1488">
         <v>338</v>
       </c>
-      <c r="D43" s="1331" t="s">
+      <c r="D44" t="s" s="1488">
         <v>519</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1331" t="s">
+    <row r="45">
+      <c r="A45" t="s" s="1490">
         <v>494</v>
       </c>
-      <c r="B44" s="1375" t="s">
+      <c r="B45" t="s" s="1491">
         <v>372</v>
       </c>
-      <c r="C44" s="1331" t="s">
+      <c r="C45" t="s" s="1490">
         <v>338</v>
       </c>
-      <c r="D44" s="1331" t="s">
+      <c r="D45" t="s" s="1490">
         <v>519</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1331" t="s">
+    <row r="46">
+      <c r="A46" t="s" s="1492">
         <v>495</v>
       </c>
-      <c r="B45" s="1376" t="s">
+      <c r="B46" t="s" s="1493">
         <v>372</v>
       </c>
-      <c r="C45" s="1331" t="s">
+      <c r="C46" t="s" s="1492">
         <v>446</v>
       </c>
-      <c r="D45" s="1331" t="s">
+      <c r="D46" t="s" s="1492">
         <v>519</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1331" t="s">
+    <row r="47">
+      <c r="A47" t="s" s="1494">
         <v>496</v>
       </c>
-      <c r="B46" s="1377" t="s">
+      <c r="B47" t="s" s="1495">
         <v>372</v>
       </c>
-      <c r="C46" s="1331" t="s">
+      <c r="C47" t="s" s="1494">
         <v>338</v>
       </c>
-      <c r="D46" s="1331" t="s">
+      <c r="D47" t="s" s="1494">
         <v>519</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1331" t="s">
+    <row r="48">
+      <c r="A48" t="s" s="1496">
         <v>497</v>
       </c>
-      <c r="B47" s="1378" t="s">
+      <c r="B48" t="s" s="1497">
         <v>372</v>
       </c>
-      <c r="C47" s="1331" t="s">
+      <c r="C48" t="s" s="1496">
         <v>338</v>
       </c>
-      <c r="D47" s="1331" t="s">
+      <c r="D48" t="s" s="1496">
         <v>519</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1331" t="s">
+    <row r="49">
+      <c r="A49" t="s" s="1498">
         <v>498</v>
       </c>
-      <c r="B48" s="1379" t="s">
+      <c r="B49" t="s" s="1499">
         <v>372</v>
       </c>
-      <c r="C48" s="1331" t="s">
+      <c r="C49" t="s" s="1498">
         <v>446</v>
       </c>
-      <c r="D48" s="1331" t="s">
+      <c r="D49" t="s" s="1498">
         <v>519</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1331" t="s">
+    <row r="50">
+      <c r="A50" t="s" s="1500">
         <v>499</v>
       </c>
-      <c r="B49" s="1380" t="s">
+      <c r="B50" t="s" s="1501">
         <v>372</v>
       </c>
-      <c r="C49" s="1331" t="s">
+      <c r="C50" t="s" s="1500">
         <v>338</v>
       </c>
-      <c r="D49" s="1331" t="s">
+      <c r="D50" t="s" s="1500">
         <v>519</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1331" t="s">
+    <row r="51">
+      <c r="A51" t="s" s="1502">
         <v>500</v>
       </c>
-      <c r="B50" s="1381" t="s">
+      <c r="B51" t="s" s="1503">
         <v>372</v>
       </c>
-      <c r="C50" s="1331" t="s">
+      <c r="C51" t="s" s="1502">
         <v>338</v>
       </c>
-      <c r="D50" s="1331" t="s">
+      <c r="D51" t="s" s="1502">
         <v>519</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1331" t="s">
+    <row r="52">
+      <c r="A52" t="s" s="1504">
         <v>501</v>
       </c>
-      <c r="B51" s="1382" t="s">
+      <c r="B52" t="s" s="1505">
         <v>372</v>
       </c>
-      <c r="C51" s="1331" t="s">
+      <c r="C52" t="s" s="1504">
         <v>338</v>
       </c>
-      <c r="D51" s="1331" t="s">
+      <c r="D52" t="s" s="1504">
         <v>519</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1331" t="s">
+    <row r="53">
+      <c r="A53" t="s" s="1506">
         <v>502</v>
       </c>
-      <c r="B52" s="1383" t="s">
+      <c r="B53" t="s" s="1507">
         <v>457</v>
       </c>
-      <c r="C52" s="1331" t="s">
+      <c r="C53" t="s" s="1506">
         <v>446</v>
       </c>
-      <c r="D52" s="1331" t="s">
+      <c r="D53" t="s" s="1506">
         <v>519</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1331" t="s">
+    <row r="54">
+      <c r="A54" t="s" s="1508">
         <v>503</v>
       </c>
-      <c r="B53" s="1384" t="s">
+      <c r="B54" t="s" s="1509">
         <v>372</v>
       </c>
-      <c r="C53" s="1331" t="s">
+      <c r="C54" t="s" s="1508">
         <v>446</v>
       </c>
-      <c r="D53" s="1331" t="s">
+      <c r="D54" t="s" s="1508">
         <v>519</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1331" t="s">
+    <row r="55">
+      <c r="A55" t="s" s="1510">
         <v>504</v>
       </c>
-      <c r="B54" s="1385" t="s">
+      <c r="B55" t="s" s="1511">
         <v>505</v>
       </c>
-      <c r="C54" s="1331" t="s">
+      <c r="C55" t="s" s="1510">
         <v>338</v>
       </c>
-      <c r="D54" s="1331" t="s">
+      <c r="D55" t="s" s="1510">
         <v>519</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1332" t="s">
-        <v>531</v>
-      </c>
-      <c r="B55" s="1386" t="s">
-        <v>432</v>
-      </c>
-      <c r="C55" s="1332" t="s">
-        <v>364</v>
-      </c>
-      <c r="D55" s="1332" t="s">
-        <v>519</v>
+    <row r="56">
+      <c r="A56" t="s" s="1512">
+        <v>536</v>
+      </c>
+      <c r="B56" t="s" s="1513">
+        <v>537</v>
+      </c>
+      <c r="C56" t="s" s="1512">
+        <v>345</v>
+      </c>
+      <c r="D56" t="s" s="1512">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="1514">
+        <v>538</v>
+      </c>
+      <c r="B57" t="s" s="1515">
+        <v>539</v>
+      </c>
+      <c r="C57" t="s" s="1514">
+        <v>369</v>
+      </c>
+      <c r="D57" t="s" s="1514">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1387" t="s">
+    <row r="1">
+      <c r="A1" s="1516" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="1387" t="s">
+      <c r="B1" s="1516" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1387" t="s">
+      <c r="C1" s="1516" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="1387" t="s">
+      <c r="D1" s="1516" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1388" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="1517">
         <v>448</v>
       </c>
-      <c r="B2" s="1389" t="s">
+      <c r="B2" t="s" s="1518">
         <v>18</v>
       </c>
-      <c r="C2" s="1388" t="s">
+      <c r="C2" t="s" s="1517">
         <v>446</v>
       </c>
-      <c r="D2" s="1388" t="s">
+      <c r="D2" t="s" s="1517">
         <v>519</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1388" t="s">
+    <row r="3">
+      <c r="A3" t="s" s="1519">
         <v>506</v>
       </c>
-      <c r="B3" s="1390" t="s">
+      <c r="B3" t="s" s="1520">
         <v>24</v>
       </c>
-      <c r="C3" s="1388" t="s">
+      <c r="C3" t="s" s="1519">
         <v>338</v>
       </c>
-      <c r="D3" s="1388" t="s">
+      <c r="D3" t="s" s="1519">
         <v>519</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1388" t="s">
+    <row r="4">
+      <c r="A4" t="s" s="1521">
         <v>507</v>
       </c>
-      <c r="B4" s="1391" t="s">
+      <c r="B4" t="s" s="1522">
         <v>24</v>
       </c>
-      <c r="C4" s="1388" t="s">
+      <c r="C4" t="s" s="1521">
         <v>446</v>
       </c>
-      <c r="D4" s="1388" t="s">
+      <c r="D4" t="s" s="1521">
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1388" t="s">
+    <row r="5">
+      <c r="A5" t="s" s="1523">
         <v>508</v>
       </c>
-      <c r="B5" s="1392" t="s">
+      <c r="B5" t="s" s="1524">
         <v>509</v>
       </c>
-      <c r="C5" s="1388" t="s">
+      <c r="C5" t="s" s="1523">
         <v>338</v>
       </c>
-      <c r="D5" s="1388" t="s">
+      <c r="D5" t="s" s="1523">
         <v>519</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1388" t="s">
+    <row r="6">
+      <c r="A6" t="s" s="1525">
         <v>510</v>
       </c>
-      <c r="B6" s="1393" t="s">
+      <c r="B6" t="s" s="1526">
         <v>24</v>
       </c>
-      <c r="C6" s="1388" t="s">
+      <c r="C6" t="s" s="1525">
         <v>338</v>
       </c>
-      <c r="D6" s="1388" t="s">
+      <c r="D6" t="s" s="1525">
         <v>519</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1388" t="s">
+    <row r="7">
+      <c r="A7" t="s" s="1527">
         <v>511</v>
       </c>
-      <c r="B7" s="1394" t="s">
+      <c r="B7" t="s" s="1528">
         <v>24</v>
       </c>
-      <c r="C7" s="1388" t="s">
+      <c r="C7" t="s" s="1527">
         <v>446</v>
       </c>
-      <c r="D7" s="1388" t="s">
+      <c r="D7" t="s" s="1527">
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1388" t="s">
+    <row r="8">
+      <c r="A8" t="s" s="1529">
         <v>523</v>
       </c>
-      <c r="B8" s="1395" t="s">
+      <c r="B8" t="s" s="1530">
         <v>24</v>
       </c>
-      <c r="C8" s="1388" t="s">
+      <c r="C8" t="s" s="1529">
         <v>446</v>
       </c>
-      <c r="D8" s="1388" t="s">
+      <c r="D8" t="s" s="1529">
         <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1388" t="s">
+    <row r="9">
+      <c r="A9" t="s" s="1531">
         <v>512</v>
       </c>
-      <c r="B9" s="1396" t="s">
+      <c r="B9" t="s" s="1532">
         <v>24</v>
       </c>
-      <c r="C9" s="1388" t="s">
+      <c r="C9" t="s" s="1531">
         <v>446</v>
       </c>
-      <c r="D9" s="1388" t="s">
+      <c r="D9" t="s" s="1531">
         <v>519</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1388" t="s">
+    <row r="10">
+      <c r="A10" t="s" s="1533">
         <v>513</v>
       </c>
-      <c r="B10" s="1397" t="s">
+      <c r="B10" t="s" s="1534">
         <v>514</v>
       </c>
-      <c r="C10" s="1388" t="s">
+      <c r="C10" t="s" s="1533">
         <v>338</v>
       </c>
-      <c r="D10" s="1388" t="s">
+      <c r="D10" t="s" s="1533">
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1388" t="s">
+    <row r="11">
+      <c r="A11" t="s" s="1535">
         <v>515</v>
       </c>
-      <c r="B11" s="1398" t="s">
+      <c r="B11" t="s" s="1536">
         <v>24</v>
       </c>
-      <c r="C11" s="1388" t="s">
+      <c r="C11" t="s" s="1535">
         <v>338</v>
       </c>
-      <c r="D11" s="1388" t="s">
+      <c r="D11" t="s" s="1535">
         <v>519</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1388" t="s">
+    <row r="12">
+      <c r="A12" t="s" s="1537">
         <v>516</v>
       </c>
-      <c r="B12" s="1399" t="s">
+      <c r="B12" t="s" s="1538">
         <v>517</v>
       </c>
-      <c r="C12" s="1388" t="s">
+      <c r="C12" t="s" s="1537">
         <v>338</v>
       </c>
-      <c r="D12" s="1388" t="s">
+      <c r="D12" t="s" s="1537">
         <v>519</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/SonarLysaFX/Suivi_Quality_Gate.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
+    <workbookView xWindow="120" yWindow="360" windowWidth="27315" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="SUIVI Qualité" r:id="rId1" sheetId="8"/>
-    <sheet name="E30" r:id="rId7" sheetId="35"/>
-    <sheet name="E31" r:id="rId8" sheetId="36"/>
+    <sheet name="SUIVI Qualité" sheetId="8" r:id="rId1"/>
+    <sheet name="E30" sheetId="33" r:id="rId2"/>
+    <sheet name="E31" sheetId="34" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'SUIVI Qualité'!$A$1:$M$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SUIVI Qualité'!$A$1:$M$77</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="533">
   <si>
     <t>Edition</t>
   </si>
@@ -1618,34 +1618,12 @@
   </si>
   <si>
     <t>liv E30 FDL RTC 308141</t>
-  </si>
-  <si>
-    <t>Lot 204194</t>
-  </si>
-  <si>
-    <t>E30_Fil_De_Leau FDL/CC 10.03</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Lot 308715</t>
-  </si>
-  <si>
-    <t>CHC2018-S12</t>
-  </si>
-  <si>
-    <t>Lot 309120</t>
-  </si>
-  <si>
-    <t>CHC2018-S15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -1830,7 +1808,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2030,38 +2008,8 @@
         <fgColor indexed="43"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2248,3452 +2196,3037 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="44">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="7" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="10" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="11" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="12" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="5" fontId="13" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="6" fontId="14" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="15" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="16" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="7" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0"/>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="8" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="20" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="20" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="20" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="20" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="20" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="20" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="20" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="20" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="20" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="20" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="20" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="20" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1539">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="11" fontId="5" numFmtId="0" xfId="21">
+  <cellXfs count="1403">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="21" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="0" numFmtId="0" xfId="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="33" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="23" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="23" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="23" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="23" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="23" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="23" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="23" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="23" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="34" fontId="23" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="34" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="33" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="33" fontId="24" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="14" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="14" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="35" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="36" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="35" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="33" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle builtinId="30" customBuiltin="1" name="20 % - Accent1" xfId="20"/>
-    <cellStyle builtinId="34" customBuiltin="1" name="20 % - Accent2" xfId="24"/>
-    <cellStyle builtinId="38" customBuiltin="1" name="20 % - Accent3" xfId="28"/>
-    <cellStyle builtinId="42" customBuiltin="1" name="20 % - Accent4" xfId="32"/>
-    <cellStyle builtinId="46" customBuiltin="1" name="20 % - Accent5" xfId="36"/>
-    <cellStyle builtinId="50" customBuiltin="1" name="20 % - Accent6" xfId="40"/>
-    <cellStyle builtinId="31" customBuiltin="1" name="40 % - Accent1" xfId="21"/>
-    <cellStyle builtinId="35" customBuiltin="1" name="40 % - Accent2" xfId="25"/>
-    <cellStyle builtinId="39" customBuiltin="1" name="40 % - Accent3" xfId="29"/>
-    <cellStyle builtinId="43" customBuiltin="1" name="40 % - Accent4" xfId="33"/>
-    <cellStyle builtinId="47" customBuiltin="1" name="40 % - Accent5" xfId="37"/>
-    <cellStyle builtinId="51" customBuiltin="1" name="40 % - Accent6" xfId="41"/>
-    <cellStyle builtinId="32" customBuiltin="1" name="60 % - Accent1" xfId="22"/>
-    <cellStyle builtinId="36" customBuiltin="1" name="60 % - Accent2" xfId="26"/>
-    <cellStyle builtinId="40" customBuiltin="1" name="60 % - Accent3" xfId="30"/>
-    <cellStyle builtinId="44" customBuiltin="1" name="60 % - Accent4" xfId="34"/>
-    <cellStyle builtinId="48" customBuiltin="1" name="60 % - Accent5" xfId="38"/>
-    <cellStyle builtinId="52" customBuiltin="1" name="60 % - Accent6" xfId="42"/>
-    <cellStyle builtinId="29" customBuiltin="1" name="Accent1" xfId="19"/>
-    <cellStyle builtinId="33" customBuiltin="1" name="Accent2" xfId="23"/>
-    <cellStyle builtinId="37" customBuiltin="1" name="Accent3" xfId="27"/>
-    <cellStyle builtinId="41" customBuiltin="1" name="Accent4" xfId="31"/>
-    <cellStyle builtinId="45" customBuiltin="1" name="Accent5" xfId="35"/>
-    <cellStyle builtinId="49" customBuiltin="1" name="Accent6" xfId="39"/>
-    <cellStyle builtinId="11" customBuiltin="1" name="Avertissement" xfId="15"/>
-    <cellStyle builtinId="22" customBuiltin="1" name="Calcul" xfId="12"/>
-    <cellStyle builtinId="24" customBuiltin="1" name="Cellule liée" xfId="13"/>
-    <cellStyle builtinId="10" customBuiltin="1" name="Commentaire" xfId="16"/>
-    <cellStyle builtinId="20" customBuiltin="1" name="Entrée" xfId="10"/>
-    <cellStyle builtinId="27" customBuiltin="1" name="Insatisfaisant" xfId="8"/>
-    <cellStyle builtinId="8" name="Lien hypertexte" xfId="1"/>
-    <cellStyle builtinId="28" customBuiltin="1" name="Neutre" xfId="9"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="20 % - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutre" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="43"/>
-    <cellStyle builtinId="26" customBuiltin="1" name="Satisfaisant" xfId="7"/>
-    <cellStyle builtinId="21" customBuiltin="1" name="Sortie" xfId="11"/>
-    <cellStyle builtinId="53" customBuiltin="1" name="Texte explicatif" xfId="17"/>
-    <cellStyle builtinId="15" customBuiltin="1" name="Titre" xfId="2"/>
-    <cellStyle builtinId="16" customBuiltin="1" name="Titre 1" xfId="3"/>
-    <cellStyle builtinId="17" customBuiltin="1" name="Titre 2" xfId="4"/>
-    <cellStyle builtinId="18" customBuiltin="1" name="Titre 3" xfId="5"/>
-    <cellStyle builtinId="19" customBuiltin="1" name="Titre 4" xfId="6"/>
-    <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="18"/>
-    <cellStyle builtinId="23" customBuiltin="1" name="Vérification" xfId="14"/>
+    <cellStyle name="Satisfaisant" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="14" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="3" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="0" name="Style de tableau 1" pivot="0"/>
-    <tableStyle count="0" name="Style de tableau 2" pivot="0"/>
-    <tableStyle count="0" name="Style de tableau 3" pivot="0"/>
+  <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Style de tableau 1" pivot="0" count="0"/>
+    <tableStyle name="Style de tableau 2" pivot="0" count="0"/>
+    <tableStyle name="Style de tableau 3" pivot="0" count="0"/>
   </tableStyles>
   <colors>
     <mruColors>
@@ -5713,10 +5246,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5874,7 +5407,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -5883,13 +5416,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5899,7 +5432,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -5908,7 +5441,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5917,7 +5450,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5927,12 +5460,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -5963,7 +5496,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -5982,7 +5515,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -5994,11 +5527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:Z104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E79" workbookViewId="0">
       <selection activeCell="G97" sqref="G97"/>
@@ -6006,22 +5539,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="44.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="18.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="77.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="1" max="1" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="77" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="5.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="15.75" r="1" s="2" spans="1:13" thickBot="1">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>139</v>
       </c>
@@ -6062,7 +5595,7 @@
         <v>149</v>
       </c>
     </row>
-    <row ht="16.5" r="2" spans="1:13" thickBot="1">
+    <row r="2" spans="1:13" ht="16.5" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>150</v>
       </c>
@@ -6101,7 +5634,7 @@
       </c>
       <c r="M2" s="16"/>
     </row>
-    <row ht="16.5" r="3" spans="1:13" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>156</v>
       </c>
@@ -6142,7 +5675,7 @@
         <v>340</v>
       </c>
     </row>
-    <row ht="16.5" r="4" spans="1:13" thickBot="1">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1">
       <c r="A4" s="30" t="s">
         <v>156</v>
       </c>
@@ -6183,7 +5716,7 @@
         <v>341</v>
       </c>
     </row>
-    <row ht="16.5" r="5" spans="1:13" thickBot="1">
+    <row r="5" spans="1:13" ht="16.5" thickBot="1">
       <c r="A5" s="43" t="s">
         <v>156</v>
       </c>
@@ -6224,7 +5757,7 @@
         <v>161</v>
       </c>
     </row>
-    <row ht="16.5" r="6" spans="1:13" thickBot="1">
+    <row r="6" spans="1:13" ht="16.5" thickBot="1">
       <c r="A6" s="56" t="s">
         <v>156</v>
       </c>
@@ -6261,7 +5794,7 @@
       </c>
       <c r="M6" s="68"/>
     </row>
-    <row ht="16.5" r="7" spans="1:13" thickBot="1">
+    <row r="7" spans="1:13" ht="16.5" thickBot="1">
       <c r="A7" s="69" t="s">
         <v>156</v>
       </c>
@@ -6300,7 +5833,7 @@
         <v>344</v>
       </c>
     </row>
-    <row ht="16.5" r="8" spans="1:13" thickBot="1">
+    <row r="8" spans="1:13" ht="16.5" thickBot="1">
       <c r="A8" s="82" t="s">
         <v>156</v>
       </c>
@@ -6339,7 +5872,7 @@
         <v>169</v>
       </c>
     </row>
-    <row ht="16.5" r="9" spans="1:13" thickBot="1">
+    <row r="9" spans="1:13" ht="16.5" thickBot="1">
       <c r="A9" s="95" t="s">
         <v>156</v>
       </c>
@@ -6380,7 +5913,7 @@
         <v>161</v>
       </c>
     </row>
-    <row ht="16.5" r="10" spans="1:13" thickBot="1">
+    <row r="10" spans="1:13" ht="16.5" thickBot="1">
       <c r="A10" s="108" t="s">
         <v>156</v>
       </c>
@@ -6421,7 +5954,7 @@
         <v>175</v>
       </c>
     </row>
-    <row ht="16.5" r="11" spans="1:13" thickBot="1">
+    <row r="11" spans="1:13" ht="16.5" thickBot="1">
       <c r="A11" s="121" t="s">
         <v>156</v>
       </c>
@@ -6462,7 +5995,7 @@
         <v>161</v>
       </c>
     </row>
-    <row ht="16.5" r="12" spans="1:13" thickBot="1">
+    <row r="12" spans="1:13" ht="16.5" thickBot="1">
       <c r="A12" s="134" t="s">
         <v>156</v>
       </c>
@@ -6503,7 +6036,7 @@
         <v>346</v>
       </c>
     </row>
-    <row ht="16.5" r="13" spans="1:13" thickBot="1">
+    <row r="13" spans="1:13" ht="16.5" thickBot="1">
       <c r="A13" s="147" t="s">
         <v>156</v>
       </c>
@@ -6544,7 +6077,7 @@
         <v>161</v>
       </c>
     </row>
-    <row ht="16.5" r="14" spans="1:13" thickBot="1">
+    <row r="14" spans="1:13" ht="16.5" thickBot="1">
       <c r="A14" s="160" t="s">
         <v>179</v>
       </c>
@@ -6583,7 +6116,7 @@
         <v>161</v>
       </c>
     </row>
-    <row ht="16.5" r="15" spans="1:13" thickBot="1">
+    <row r="15" spans="1:13" ht="16.5" thickBot="1">
       <c r="A15" s="173" t="s">
         <v>179</v>
       </c>
@@ -6622,7 +6155,7 @@
         <v>188</v>
       </c>
     </row>
-    <row ht="16.5" r="16" spans="1:13" thickBot="1">
+    <row r="16" spans="1:13" ht="16.5" thickBot="1">
       <c r="A16" s="186" t="s">
         <v>179</v>
       </c>
@@ -6661,7 +6194,7 @@
         <v>192</v>
       </c>
     </row>
-    <row ht="16.5" r="17" spans="1:13" thickBot="1">
+    <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="A17" s="199" t="s">
         <v>179</v>
       </c>
@@ -6702,7 +6235,7 @@
         <v>348</v>
       </c>
     </row>
-    <row ht="16.5" r="18" spans="1:13" thickBot="1">
+    <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="A18" s="212" t="s">
         <v>195</v>
       </c>
@@ -6743,7 +6276,7 @@
         <v>200</v>
       </c>
     </row>
-    <row ht="16.5" r="19" spans="1:13" thickBot="1">
+    <row r="19" spans="1:13" ht="16.5" thickBot="1">
       <c r="A19" s="225" t="s">
         <v>195</v>
       </c>
@@ -6784,7 +6317,7 @@
         <v>349</v>
       </c>
     </row>
-    <row ht="16.5" r="20" spans="1:13" thickBot="1">
+    <row r="20" spans="1:13" ht="16.5" thickBot="1">
       <c r="A20" s="238" t="s">
         <v>195</v>
       </c>
@@ -6825,7 +6358,7 @@
         <v>205</v>
       </c>
     </row>
-    <row ht="16.5" r="21" spans="1:13" thickBot="1">
+    <row r="21" spans="1:13" ht="16.5" thickBot="1">
       <c r="A21" s="251" t="s">
         <v>206</v>
       </c>
@@ -6866,7 +6399,7 @@
         <v>350</v>
       </c>
     </row>
-    <row ht="16.5" r="22" spans="1:13" thickBot="1">
+    <row r="22" spans="1:13" ht="16.5" thickBot="1">
       <c r="A22" s="264" t="s">
         <v>206</v>
       </c>
@@ -6905,7 +6438,7 @@
         <v>216</v>
       </c>
     </row>
-    <row ht="16.5" r="23" spans="1:13" thickBot="1">
+    <row r="23" spans="1:13" ht="16.5" thickBot="1">
       <c r="A23" s="277" t="s">
         <v>206</v>
       </c>
@@ -6946,7 +6479,7 @@
         <v>220</v>
       </c>
     </row>
-    <row ht="16.5" r="24" spans="1:13" thickBot="1">
+    <row r="24" spans="1:13" ht="16.5" thickBot="1">
       <c r="A24" s="290" t="s">
         <v>206</v>
       </c>
@@ -6985,7 +6518,7 @@
         <v>222</v>
       </c>
     </row>
-    <row ht="16.5" r="25" spans="1:13" thickBot="1">
+    <row r="25" spans="1:13" ht="16.5" thickBot="1">
       <c r="A25" s="303" t="s">
         <v>206</v>
       </c>
@@ -7024,7 +6557,7 @@
         <v>225</v>
       </c>
     </row>
-    <row ht="16.5" r="26" spans="1:13" thickBot="1">
+    <row r="26" spans="1:13" ht="16.5" thickBot="1">
       <c r="A26" s="316" t="s">
         <v>206</v>
       </c>
@@ -7063,7 +6596,7 @@
         <v>161</v>
       </c>
     </row>
-    <row ht="16.5" r="27" spans="1:13" thickBot="1">
+    <row r="27" spans="1:13" ht="16.5" thickBot="1">
       <c r="A27" s="329" t="s">
         <v>206</v>
       </c>
@@ -7102,7 +6635,7 @@
         <v>161</v>
       </c>
     </row>
-    <row ht="16.5" r="28" spans="1:13" thickBot="1">
+    <row r="28" spans="1:13" ht="16.5" thickBot="1">
       <c r="A28" s="342" t="s">
         <v>206</v>
       </c>
@@ -7143,7 +6676,7 @@
         <v>353</v>
       </c>
     </row>
-    <row ht="16.5" r="29" spans="1:13" thickBot="1">
+    <row r="29" spans="1:13" ht="16.5" thickBot="1">
       <c r="A29" s="355" t="s">
         <v>206</v>
       </c>
@@ -7182,7 +6715,7 @@
         <v>352</v>
       </c>
     </row>
-    <row ht="16.5" r="30" spans="1:13" thickBot="1">
+    <row r="30" spans="1:13" ht="16.5" thickBot="1">
       <c r="A30" s="368" t="s">
         <v>206</v>
       </c>
@@ -7223,7 +6756,7 @@
         <v>234</v>
       </c>
     </row>
-    <row ht="16.5" r="31" spans="1:13" thickBot="1">
+    <row r="31" spans="1:13" ht="16.5" thickBot="1">
       <c r="A31" s="381" t="s">
         <v>206</v>
       </c>
@@ -7262,7 +6795,7 @@
         <v>236</v>
       </c>
     </row>
-    <row ht="16.5" r="32" spans="1:13" thickBot="1">
+    <row r="32" spans="1:13" ht="16.5" thickBot="1">
       <c r="A32" s="394" t="s">
         <v>206</v>
       </c>
@@ -7301,7 +6834,7 @@
         <v>236</v>
       </c>
     </row>
-    <row ht="16.5" r="33" spans="1:13" thickBot="1">
+    <row r="33" spans="1:13" ht="16.5" thickBot="1">
       <c r="A33" s="407" t="s">
         <v>206</v>
       </c>
@@ -7342,7 +6875,7 @@
         <v>238</v>
       </c>
     </row>
-    <row ht="16.5" r="34" spans="1:13" thickBot="1">
+    <row r="34" spans="1:13" ht="16.5" thickBot="1">
       <c r="A34" s="420" t="s">
         <v>206</v>
       </c>
@@ -7383,7 +6916,7 @@
         <v>355</v>
       </c>
     </row>
-    <row ht="16.5" r="35" spans="1:13" thickBot="1">
+    <row r="35" spans="1:13" ht="16.5" thickBot="1">
       <c r="A35" s="433" t="s">
         <v>206</v>
       </c>
@@ -7424,7 +6957,7 @@
         <v>210</v>
       </c>
     </row>
-    <row ht="16.5" r="36" spans="1:13" thickBot="1">
+    <row r="36" spans="1:13" ht="16.5" thickBot="1">
       <c r="A36" s="446" t="s">
         <v>206</v>
       </c>
@@ -7465,7 +6998,7 @@
         <v>241</v>
       </c>
     </row>
-    <row ht="16.5" r="37" spans="1:13" thickBot="1">
+    <row r="37" spans="1:13" ht="16.5" thickBot="1">
       <c r="A37" s="459" t="s">
         <v>206</v>
       </c>
@@ -7504,7 +7037,7 @@
         <v>356</v>
       </c>
     </row>
-    <row ht="16.5" r="38" spans="1:13" thickBot="1">
+    <row r="38" spans="1:13" ht="16.5" thickBot="1">
       <c r="A38" s="472" t="s">
         <v>206</v>
       </c>
@@ -7545,7 +7078,7 @@
         <v>161</v>
       </c>
     </row>
-    <row ht="16.5" r="39" spans="1:13" thickBot="1">
+    <row r="39" spans="1:13" ht="16.5" thickBot="1">
       <c r="A39" s="485" t="s">
         <v>206</v>
       </c>
@@ -7584,7 +7117,7 @@
         <v>205</v>
       </c>
     </row>
-    <row ht="16.5" r="40" spans="1:13" thickBot="1">
+    <row r="40" spans="1:13" ht="16.5" thickBot="1">
       <c r="A40" s="498" t="s">
         <v>206</v>
       </c>
@@ -7625,7 +7158,7 @@
         <v>357</v>
       </c>
     </row>
-    <row ht="16.5" r="41" spans="1:13" thickBot="1">
+    <row r="41" spans="1:13" ht="16.5" thickBot="1">
       <c r="A41" s="511" t="s">
         <v>206</v>
       </c>
@@ -7664,7 +7197,7 @@
         <v>161</v>
       </c>
     </row>
-    <row ht="16.5" r="42" spans="1:13" thickBot="1">
+    <row r="42" spans="1:13" ht="16.5" thickBot="1">
       <c r="A42" s="524" t="s">
         <v>206</v>
       </c>
@@ -7703,7 +7236,7 @@
         <v>258</v>
       </c>
     </row>
-    <row ht="16.5" r="43" spans="1:13" thickBot="1">
+    <row r="43" spans="1:13" ht="16.5" thickBot="1">
       <c r="A43" s="537" t="s">
         <v>206</v>
       </c>
@@ -7742,7 +7275,7 @@
         <v>260</v>
       </c>
     </row>
-    <row ht="16.5" r="44" spans="1:13" thickBot="1">
+    <row r="44" spans="1:13" ht="16.5" thickBot="1">
       <c r="A44" s="550" t="s">
         <v>206</v>
       </c>
@@ -7783,7 +7316,7 @@
         <v>358</v>
       </c>
     </row>
-    <row ht="16.5" r="45" spans="1:13" thickBot="1">
+    <row r="45" spans="1:13" ht="16.5" thickBot="1">
       <c r="A45" s="563" t="s">
         <v>206</v>
       </c>
@@ -7822,7 +7355,7 @@
         <v>263</v>
       </c>
     </row>
-    <row ht="16.5" r="46" spans="1:13" thickBot="1">
+    <row r="46" spans="1:13" ht="16.5" thickBot="1">
       <c r="A46" s="576" t="s">
         <v>206</v>
       </c>
@@ -7861,7 +7394,7 @@
         <v>266</v>
       </c>
     </row>
-    <row ht="16.5" r="47" spans="1:13" thickBot="1">
+    <row r="47" spans="1:13" ht="16.5" thickBot="1">
       <c r="A47" s="589" t="s">
         <v>206</v>
       </c>
@@ -7900,7 +7433,7 @@
         <v>270</v>
       </c>
     </row>
-    <row ht="16.5" r="48" spans="1:13" thickBot="1">
+    <row r="48" spans="1:13" ht="16.5" thickBot="1">
       <c r="A48" s="602" t="s">
         <v>271</v>
       </c>
@@ -7941,7 +7474,7 @@
         <v>161</v>
       </c>
     </row>
-    <row ht="16.5" r="49" spans="1:13" thickBot="1">
+    <row r="49" spans="1:13" ht="16.5" thickBot="1">
       <c r="A49" s="615" t="s">
         <v>271</v>
       </c>
@@ -7982,7 +7515,7 @@
         <v>276</v>
       </c>
     </row>
-    <row ht="16.5" r="50" spans="1:13" thickBot="1">
+    <row r="50" spans="1:13" ht="16.5" thickBot="1">
       <c r="A50" s="628" t="s">
         <v>271</v>
       </c>
@@ -8021,7 +7554,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="16.5" r="51" spans="1:13" thickBot="1">
+    <row r="51" spans="1:13" ht="16.5" thickBot="1">
       <c r="A51" s="641" t="s">
         <v>271</v>
       </c>
@@ -8060,7 +7593,7 @@
         <v>161</v>
       </c>
     </row>
-    <row ht="16.5" r="52" spans="1:13" thickBot="1">
+    <row r="52" spans="1:13" ht="16.5" thickBot="1">
       <c r="A52" s="654" t="s">
         <v>278</v>
       </c>
@@ -8101,7 +7634,7 @@
         <v>283</v>
       </c>
     </row>
-    <row ht="16.5" r="53" spans="1:13" thickBot="1">
+    <row r="53" spans="1:13" ht="16.5" thickBot="1">
       <c r="A53" s="667" t="s">
         <v>278</v>
       </c>
@@ -8142,7 +7675,7 @@
         <v>283</v>
       </c>
     </row>
-    <row ht="16.5" r="54" spans="1:13" thickBot="1">
+    <row r="54" spans="1:13" ht="16.5" thickBot="1">
       <c r="A54" s="680" t="s">
         <v>206</v>
       </c>
@@ -8183,7 +7716,7 @@
         <v>348</v>
       </c>
     </row>
-    <row ht="16.5" r="55" spans="1:13" thickBot="1">
+    <row r="55" spans="1:13" ht="16.5" thickBot="1">
       <c r="A55" s="693" t="s">
         <v>206</v>
       </c>
@@ -8220,7 +7753,7 @@
       </c>
       <c r="M55" s="705"/>
     </row>
-    <row ht="16.5" r="56" spans="1:13" thickBot="1">
+    <row r="56" spans="1:13" ht="16.5" thickBot="1">
       <c r="A56" s="706"/>
       <c r="B56" s="707"/>
       <c r="C56" s="708"/>
@@ -8247,7 +7780,7 @@
       </c>
       <c r="M56" s="718"/>
     </row>
-    <row ht="16.5" r="57" spans="1:13" thickBot="1">
+    <row r="57" spans="1:13" ht="16.5" thickBot="1">
       <c r="A57" s="719"/>
       <c r="B57" s="720"/>
       <c r="C57" s="721"/>
@@ -8276,7 +7809,7 @@
         <v>361</v>
       </c>
     </row>
-    <row ht="16.5" r="58" spans="1:13" thickBot="1">
+    <row r="58" spans="1:13" ht="16.5" thickBot="1">
       <c r="A58" s="732"/>
       <c r="B58" s="733"/>
       <c r="C58" s="734"/>
@@ -8297,7 +7830,7 @@
         <v>293</v>
       </c>
     </row>
-    <row ht="16.5" r="59" spans="1:13" thickBot="1">
+    <row r="59" spans="1:13" ht="16.5" thickBot="1">
       <c r="A59" s="745"/>
       <c r="B59" s="746"/>
       <c r="C59" s="747"/>
@@ -8326,7 +7859,7 @@
         <v>362</v>
       </c>
     </row>
-    <row ht="16.5" r="60" spans="1:13" thickBot="1">
+    <row r="60" spans="1:13" ht="16.5" thickBot="1">
       <c r="A60" s="758"/>
       <c r="B60" s="759"/>
       <c r="C60" s="760"/>
@@ -8347,7 +7880,7 @@
         <v>293</v>
       </c>
     </row>
-    <row ht="16.5" r="61" spans="1:13" thickBot="1">
+    <row r="61" spans="1:13" ht="16.5" thickBot="1">
       <c r="A61" s="771" t="s">
         <v>206</v>
       </c>
@@ -8384,7 +7917,7 @@
       <c r="L61" s="782"/>
       <c r="M61" s="783"/>
     </row>
-    <row ht="16.5" r="62" spans="1:13" thickBot="1">
+    <row r="62" spans="1:13" ht="16.5" thickBot="1">
       <c r="A62" s="784"/>
       <c r="B62" s="785"/>
       <c r="C62" s="786"/>
@@ -8405,7 +7938,7 @@
         <v>299</v>
       </c>
     </row>
-    <row ht="16.5" r="63" spans="1:13" thickBot="1">
+    <row r="63" spans="1:13" ht="16.5" thickBot="1">
       <c r="A63" s="797" t="s">
         <v>206</v>
       </c>
@@ -8442,7 +7975,7 @@
       </c>
       <c r="M63" s="809"/>
     </row>
-    <row ht="16.5" r="64" spans="1:13" thickBot="1">
+    <row r="64" spans="1:13" ht="16.5" thickBot="1">
       <c r="A64" s="810" t="s">
         <v>206</v>
       </c>
@@ -8477,7 +8010,7 @@
         <v>306</v>
       </c>
     </row>
-    <row ht="16.5" r="65" spans="1:13" thickBot="1">
+    <row r="65" spans="1:13" ht="16.5" thickBot="1">
       <c r="A65" s="823"/>
       <c r="B65" s="824"/>
       <c r="C65" s="825"/>
@@ -8498,7 +8031,7 @@
         <v>307</v>
       </c>
     </row>
-    <row ht="16.5" r="66" spans="1:13" thickBot="1">
+    <row r="66" spans="1:13" ht="16.5" thickBot="1">
       <c r="A66" s="836"/>
       <c r="B66" s="837"/>
       <c r="C66" s="838"/>
@@ -8517,7 +8050,7 @@
         <v>293</v>
       </c>
     </row>
-    <row ht="16.5" r="67" spans="1:13" thickBot="1">
+    <row r="67" spans="1:13" ht="16.5" thickBot="1">
       <c r="A67" s="849" t="s">
         <v>206</v>
       </c>
@@ -8554,7 +8087,7 @@
       </c>
       <c r="M67" s="861"/>
     </row>
-    <row ht="16.5" r="68" spans="1:13" thickBot="1">
+    <row r="68" spans="1:13" ht="16.5" thickBot="1">
       <c r="A68" s="862"/>
       <c r="B68" s="863"/>
       <c r="C68" s="864"/>
@@ -8577,7 +8110,7 @@
         <v>307</v>
       </c>
     </row>
-    <row ht="16.5" r="69" spans="1:13" thickBot="1">
+    <row r="69" spans="1:13" ht="16.5" thickBot="1">
       <c r="A69" s="875" t="s">
         <v>179</v>
       </c>
@@ -8616,7 +8149,7 @@
         <v>363</v>
       </c>
     </row>
-    <row ht="16.5" r="70" spans="1:13" thickBot="1">
+    <row r="70" spans="1:13" ht="16.5" thickBot="1">
       <c r="A70" s="888" t="s">
         <v>156</v>
       </c>
@@ -8655,7 +8188,7 @@
         <v>363</v>
       </c>
     </row>
-    <row ht="16.5" r="71" spans="1:13" thickBot="1">
+    <row r="71" spans="1:13" ht="16.5" thickBot="1">
       <c r="A71" s="901" t="s">
         <v>156</v>
       </c>
@@ -8694,7 +8227,7 @@
         <v>363</v>
       </c>
     </row>
-    <row ht="16.5" r="72" spans="1:13" thickBot="1">
+    <row r="72" spans="1:13" ht="16.5" thickBot="1">
       <c r="A72" s="914" t="s">
         <v>206</v>
       </c>
@@ -8733,7 +8266,7 @@
       </c>
       <c r="M72" s="926"/>
     </row>
-    <row ht="16.5" r="73" spans="1:13" thickBot="1">
+    <row r="73" spans="1:13" ht="16.5" thickBot="1">
       <c r="A73" s="927" t="s">
         <v>179</v>
       </c>
@@ -8772,7 +8305,7 @@
         <v>365</v>
       </c>
     </row>
-    <row ht="16.5" r="74" spans="1:13" thickBot="1">
+    <row r="74" spans="1:13" ht="16.5" thickBot="1">
       <c r="A74" s="940"/>
       <c r="B74" s="941"/>
       <c r="C74" s="942"/>
@@ -8801,7 +8334,7 @@
       </c>
       <c r="M74" s="952"/>
     </row>
-    <row ht="16.5" r="75" spans="1:13" thickBot="1">
+    <row r="75" spans="1:13" ht="16.5" thickBot="1">
       <c r="A75" s="953"/>
       <c r="B75" s="954"/>
       <c r="C75" s="955"/>
@@ -8830,7 +8363,7 @@
         <v>366</v>
       </c>
     </row>
-    <row ht="16.5" r="76" spans="1:13" thickBot="1">
+    <row r="76" spans="1:13" ht="16.5" thickBot="1">
       <c r="A76" s="966"/>
       <c r="B76" s="967"/>
       <c r="C76" s="968"/>
@@ -8857,7 +8390,7 @@
       </c>
       <c r="M76" s="978"/>
     </row>
-    <row ht="16.5" r="77" spans="1:13" thickBot="1">
+    <row r="77" spans="1:13" ht="16.5" thickBot="1">
       <c r="A77" s="979"/>
       <c r="B77" s="980"/>
       <c r="C77" s="981"/>
@@ -8886,7 +8419,7 @@
         <v>363</v>
       </c>
     </row>
-    <row ht="16.5" r="78" spans="1:13" thickBot="1">
+    <row r="78" spans="1:13" ht="16.5" thickBot="1">
       <c r="A78" s="992" t="s">
         <v>206</v>
       </c>
@@ -8925,7 +8458,7 @@
       </c>
       <c r="M78" s="1004"/>
     </row>
-    <row ht="16.5" r="79" spans="1:13" thickBot="1">
+    <row r="79" spans="1:13" ht="16.5" thickBot="1">
       <c r="A79" s="1005" t="s">
         <v>206</v>
       </c>
@@ -8964,7 +8497,7 @@
       </c>
       <c r="M79" s="1017"/>
     </row>
-    <row ht="16.5" r="80" spans="1:13" thickBot="1">
+    <row r="80" spans="1:13" ht="16.5" thickBot="1">
       <c r="A80" s="1018" t="s">
         <v>206</v>
       </c>
@@ -9003,7 +8536,7 @@
       </c>
       <c r="M80" s="1030"/>
     </row>
-    <row ht="16.5" r="81" spans="1:13" thickBot="1">
+    <row r="81" spans="1:13" ht="16.5" thickBot="1">
       <c r="A81" s="1031" t="s">
         <v>156</v>
       </c>
@@ -9042,7 +8575,7 @@
       </c>
       <c r="M81" s="1043"/>
     </row>
-    <row ht="16.5" r="82" spans="1:13" thickBot="1">
+    <row r="82" spans="1:13" ht="16.5" thickBot="1">
       <c r="A82" s="1044"/>
       <c r="B82" s="1045"/>
       <c r="C82" s="1046"/>
@@ -9071,7 +8604,7 @@
       </c>
       <c r="M82" s="1056"/>
     </row>
-    <row ht="16.5" r="83" spans="1:13" thickBot="1">
+    <row r="83" spans="1:13" ht="16.5" thickBot="1">
       <c r="A83" s="1057"/>
       <c r="B83" s="1058"/>
       <c r="C83" s="1059"/>
@@ -9100,7 +8633,7 @@
       </c>
       <c r="M83" s="1069"/>
     </row>
-    <row ht="16.5" r="84" spans="1:13" thickBot="1">
+    <row r="84" spans="1:13" ht="16.5" thickBot="1">
       <c r="A84" s="1070"/>
       <c r="B84" s="1071"/>
       <c r="C84" s="1072"/>
@@ -9127,7 +8660,7 @@
       </c>
       <c r="M84" s="1082"/>
     </row>
-    <row ht="16.5" r="85" spans="1:13" thickBot="1">
+    <row r="85" spans="1:13" ht="16.5" thickBot="1">
       <c r="A85" s="1083"/>
       <c r="B85" s="1084"/>
       <c r="C85" s="1085"/>
@@ -9154,7 +8687,7 @@
       </c>
       <c r="M85" s="1095"/>
     </row>
-    <row ht="16.5" r="86" spans="1:13" thickBot="1">
+    <row r="86" spans="1:13" ht="16.5" thickBot="1">
       <c r="A86" s="1096" t="s">
         <v>179</v>
       </c>
@@ -9193,7 +8726,7 @@
       </c>
       <c r="M86" s="1108"/>
     </row>
-    <row ht="16.5" r="87" spans="1:13" thickBot="1">
+    <row r="87" spans="1:13" ht="16.5" thickBot="1">
       <c r="A87" s="1109" t="s">
         <v>206</v>
       </c>
@@ -9232,7 +8765,7 @@
       </c>
       <c r="M87" s="1121"/>
     </row>
-    <row ht="16.5" r="88" spans="1:13" thickBot="1">
+    <row r="88" spans="1:13" ht="16.5" thickBot="1">
       <c r="A88" s="1122" t="s">
         <v>418</v>
       </c>
@@ -9267,7 +8800,7 @@
       </c>
       <c r="M88" s="1134"/>
     </row>
-    <row ht="16.5" r="89" spans="1:13" thickBot="1">
+    <row r="89" spans="1:13" ht="16.5" thickBot="1">
       <c r="A89" s="1135" t="s">
         <v>195</v>
       </c>
@@ -9306,7 +8839,7 @@
       </c>
       <c r="M89" s="1147"/>
     </row>
-    <row ht="16.5" r="90" spans="1:13" thickBot="1">
+    <row r="90" spans="1:13" ht="16.5" thickBot="1">
       <c r="A90" s="1148" t="s">
         <v>206</v>
       </c>
@@ -9345,7 +8878,7 @@
       </c>
       <c r="M90" s="1160"/>
     </row>
-    <row ht="16.5" r="91" spans="1:13" thickBot="1">
+    <row r="91" spans="1:13" ht="16.5" thickBot="1">
       <c r="A91" s="1161"/>
       <c r="B91" s="1162"/>
       <c r="C91" s="1163"/>
@@ -9372,7 +8905,7 @@
         <v>403</v>
       </c>
     </row>
-    <row ht="16.5" r="92" spans="1:13" thickBot="1">
+    <row r="92" spans="1:13" ht="16.5" thickBot="1">
       <c r="A92" s="1174" t="s">
         <v>156</v>
       </c>
@@ -9411,7 +8944,7 @@
       </c>
       <c r="M92" s="1186"/>
     </row>
-    <row ht="16.5" r="93" spans="1:13" thickBot="1">
+    <row r="93" spans="1:13" ht="16.5" thickBot="1">
       <c r="A93" s="1187" t="s">
         <v>195</v>
       </c>
@@ -9450,7 +8983,7 @@
       </c>
       <c r="M93" s="1199"/>
     </row>
-    <row ht="16.5" r="94" spans="1:13" thickBot="1">
+    <row r="94" spans="1:13" ht="16.5" thickBot="1">
       <c r="A94" s="1200" t="s">
         <v>206</v>
       </c>
@@ -9489,7 +9022,7 @@
       </c>
       <c r="M94" s="1212"/>
     </row>
-    <row ht="16.5" r="95" spans="1:13" thickBot="1">
+    <row r="95" spans="1:13" ht="16.5" thickBot="1">
       <c r="A95" s="1213"/>
       <c r="B95" s="1214"/>
       <c r="C95" s="1215"/>
@@ -9712,7 +9245,7 @@
       <c r="L103" s="1328"/>
       <c r="M103" s="1329"/>
     </row>
-    <row customFormat="1" r="104" s="1402" spans="1:13">
+    <row r="104" spans="1:13" s="1402" customFormat="1">
       <c r="A104" s="1400"/>
       <c r="B104" s="1400"/>
       <c r="C104" s="1400"/>
@@ -9744,1163 +9277,1139 @@
   </sheetData>
   <autoFilter ref="A1:M77"/>
   <hyperlinks>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/745316" r:id="rId1" ref="I37" tooltip="view_lot_270040"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/752982" r:id="rId2" ref="I23" tooltip="view_lot_272467"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/771933" r:id="rId3" ref="I45" tooltip="view_lot_275117"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/758600" r:id="rId4" ref="I7" tooltip="view_lot_275457"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/770581" r:id="rId5" ref="I17" tooltip="view_lot_277288"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/774447" r:id="rId6" ref="I10" tooltip="view_lot_278180"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/784997" r:id="rId7" ref="I12" tooltip="view_lot_279752"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/768824" r:id="rId8" ref="I38" tooltip="view_lot_252247"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/813364" r:id="rId9" ref="I44" tooltip="view_lot_283790"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFMKRT_MDP_Ma Carte - action=com.ibm.team.workitem.viewWorkItem&amp;id=292305" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292305" r:id="rId10" ref="K13"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=292436" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292436" r:id="rId11" ref="K48"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0232_CRE_P%C3%A9gase - action=com.ibm.team.workitem.viewWorkItem&amp;id=292625" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292625" r:id="rId12" ref="K15"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00157_MSP_NEO_D%C3%A9mat doss engagt entrep - action=com.ibm.team.workitem.viewWorkItem&amp;id=292694" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292694" r:id="rId13" ref="K55"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P01212_CCP_OFAC NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292733" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292733" r:id="rId14" ref="K5"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P01212_CCP_OFAC NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292733" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292733" r:id="rId15" ref="K4"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00739_MSP_Decom Oscare - action=com.ibm.team.workitem.viewWorkItem&amp;id=292795" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292795" r:id="rId16" ref="K57"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0300_DML_Sol Genesys Multicanal - action=com.ibm.team.workitem.viewWorkItem&amp;id=294063" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294063" r:id="rId17" ref="K41"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0211_TRV_Dossier Num. Client NPC - action=com.ibm.team.workitem.viewWorkItem&amp;id=294266" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294266" r:id="rId18" ref="K26"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0231_CRE_DIGICONSO - action=com.ibm.team.workitem.viewWorkItem&amp;id=294308" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294308" r:id="rId19" ref="K14"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFCC70_MKT_Mise place pr%C3%A9req Charte - action=com.ibm.team.workitem.viewWorkItem&amp;id=294325" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294325" r:id="rId20" ref="K31"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00589_PLA_Base Fiscale - action=com.ibm.team.workitem.viewWorkItem&amp;id=294337" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294337" r:id="rId21" ref="K8"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000036_GSI EER PCH VP EPTICA EDS - action=com.ibm.team.workitem.viewWorkItem&amp;id=294352" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294352" r:id="rId22" ref="K35"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P01181_DML_OIC - Compl%C3%A9ments fonc. - action=com.ibm.team.workitem.viewWorkItem&amp;id=294356" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294356" r:id="rId23" ref="K28"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0337_DML_SiMM Lot 4 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294360" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294360" r:id="rId24" ref="K46"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFCC20_MKT_Comm client Etape 2 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294402" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294402" r:id="rId25" ref="K30"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0248_PLA_D%C3%A9marche Epargne Patrim. - action=com.ibm.team.workitem.viewWorkItem&amp;id=294406" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294406" r:id="rId26" ref="K32"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0220_DML_Bouton Vert - action=com.ibm.team.workitem.viewWorkItem&amp;id=294407" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294407" r:id="rId27" ref="K27"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0315_DML_MDC NPCD lot3 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294408" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294408" r:id="rId28" ref="K33"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_T300473 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294412" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294412" r:id="rId29" ref="K36"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294414" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294414" r:id="rId30" ref="K50"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=294418" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294418" r:id="rId31" ref="K20"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0170_TRV_Refonte Docth%C3%A8que - action=com.ibm.team.workitem.viewWorkItem&amp;id=294426" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294426" r:id="rId32" ref="K29"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000062_Coclico_SOA - action=com.ibm.team.workitem.viewWorkItem&amp;id=294554" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294554" r:id="rId33" ref="K51"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000063 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294555" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294555" r:id="rId34" ref="K53"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=294484" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294484" r:id="rId35" ref="K21"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFMKRT_MDP_Ma Carte - action=com.ibm.team.workitem.viewWorkItem&amp;id=294557" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294557" r:id="rId36" ref="K11"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294560" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294560" r:id="rId37" ref="K49"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000026_GSI Risques Bale II - action=com.ibm.team.workitem.viewWorkItem&amp;id=294568" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294568" r:id="rId38" ref="K59"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000036_GSI EER PCH VP EPTICA EDS - action=com.ibm.team.workitem.viewWorkItem&amp;id=294573" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294573" r:id="rId39" ref="K34"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000013_GSI_CCP_Client - action=com.ibm.team.workitem.viewWorkItem&amp;id=294577" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294577" r:id="rId40" ref="K3"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0070_MSP_Evol. Gestion Conseill%C3%A9e - action=com.ibm.team.workitem.viewWorkItem&amp;id=294588" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294588" r:id="rId41" ref="K40"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00849_MSP_INTEGR OUTIL SOUSCR SCPI - action=com.ibm.team.workitem.viewWorkItem&amp;id=294590" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294590" r:id="rId42" ref="K43"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000026_GSI Risques Bale II - action=com.ibm.team.workitem.viewWorkItem&amp;id=294591" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294591" r:id="rId43" ref="K60"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00738_MSP_Urba SI International - action=com.ibm.team.workitem.viewWorkItem&amp;id=294594" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294594" r:id="rId44" ref="K56"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0083_MDP_Rep. BDF recyclage billet - action=com.ibm.team.workitem.viewWorkItem&amp;id=294600" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294600" r:id="rId45" ref="K9"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_FE000066_Maintenance Portail-IA-SEA-Ergo - action=com.ibm.team.workitem.viewWorkItem&amp;id=294604" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294604" r:id="rId46" ref="K54"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00739_MSP_Decom Oscare - action=com.ibm.team.workitem.viewWorkItem&amp;id=294804" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294804" r:id="rId47" ref="K58"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0377_DML_Refonte Ident Auth forte - action=com.ibm.team.workitem.viewWorkItem&amp;id=294809" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294809" r:id="rId48" ref="K42"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0369_CCP_NPC Access Banking Cible - action=com.ibm.team.workitem.viewWorkItem&amp;id=298836" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298836" r:id="rId49" ref="K6"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00184_CRE_Process Agri-Pro - action=com.ibm.team.workitem.viewWorkItem&amp;id=298838" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298838" r:id="rId50" ref="K19"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJT_SDJ_PE000133 - action=com.ibm.team.workitem.viewWorkItem&amp;id=298842" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298842" r:id="rId51" ref="K2"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000062_Coclico_SOA - action=com.ibm.team.workitem.viewWorkItem&amp;id=298846" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298846" r:id="rId52" ref="K52"/>
-    <hyperlink r:id="rId53" ref="I13"/>
-    <hyperlink r:id="rId54" ref="I48"/>
-    <hyperlink r:id="rId55" ref="I15"/>
-    <hyperlink r:id="rId56" ref="I55"/>
-    <hyperlink r:id="rId57" ref="I5"/>
-    <hyperlink r:id="rId58" ref="I4"/>
-    <hyperlink r:id="rId59" ref="I57"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=790392" r:id="rId60" ref="I16"/>
-    <hyperlink r:id="rId61" ref="I21"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=846505" r:id="rId62" ref="I20"/>
-    <hyperlink r:id="rId63" ref="I46"/>
-    <hyperlink r:id="rId64" ref="I50"/>
-    <hyperlink r:id="rId65" ref="I28"/>
-    <hyperlink r:id="rId66" ref="I43"/>
-    <hyperlink r:id="rId67" ref="I35"/>
-    <hyperlink r:id="rId68" ref="I14"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=841853" r:id="rId69" ref="I36"/>
-    <hyperlink r:id="rId70" ref="I40"/>
-    <hyperlink r:id="rId71" ref="I33"/>
-    <hyperlink r:id="rId72" ref="I54"/>
-    <hyperlink r:id="rId73" ref="I59"/>
-    <hyperlink r:id="rId74" ref="I53"/>
-    <hyperlink r:id="rId75" ref="I49"/>
-    <hyperlink r:id="rId76" ref="I41"/>
-    <hyperlink r:id="rId77" ref="I34"/>
-    <hyperlink r:id="rId78" ref="I51"/>
-    <hyperlink r:id="rId79" ref="I9"/>
-    <hyperlink r:id="rId80" ref="I27"/>
-    <hyperlink r:id="rId81" ref="I29"/>
-    <hyperlink r:id="rId82" ref="I56"/>
-    <hyperlink r:id="rId83" ref="I11"/>
-    <hyperlink r:id="rId84" ref="I3"/>
-    <hyperlink r:id="rId85" ref="I8"/>
-    <hyperlink r:id="rId86" ref="I32"/>
-    <hyperlink r:id="rId87" ref="I60"/>
-    <hyperlink r:id="rId88" ref="I26"/>
-    <hyperlink r:id="rId89" ref="I30"/>
-    <hyperlink r:id="rId90" ref="I31"/>
-    <hyperlink r:id="rId91" ref="I58"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=846900" r:id="rId92" ref="I42"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/776827" r:id="rId93" ref="I52" tooltip="view_lot_280871"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/851214" r:id="rId94" ref="I2" tooltip="view_lot_295711"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/852227" r:id="rId95" ref="I19" tooltip="view_lot_292978"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/dashboard/index/847192" r:id="rId96" ref="I6" tooltip="view_lot_259176"/>
-    <hyperlink r:id="rId97" ref="I63"/>
-    <hyperlink r:id="rId98" ref="I64"/>
-    <hyperlink r:id="rId99" ref="I65"/>
-    <hyperlink r:id="rId100" ref="I66"/>
-    <hyperlink r:id="rId101" ref="I67"/>
-    <hyperlink r:id="rId102" ref="I68"/>
-    <hyperlink r:id="rId103" ref="I69"/>
-    <hyperlink r:id="rId104" ref="I70"/>
-    <hyperlink r:id="rId105" ref="I71"/>
-    <hyperlink r:id="rId106" ref="I72"/>
-    <hyperlink r:id="rId107" ref="I73"/>
-    <hyperlink r:id="rId108" ref="I74"/>
-    <hyperlink r:id="rId109" ref="I75"/>
-    <hyperlink r:id="rId110" ref="I76"/>
-    <hyperlink r:id="rId111" ref="I77"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_T300473 - action=com.ibm.team.workitem.viewWorkItem&amp;id=301700" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301700" r:id="rId112" ref="K63"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0106_ASS_Refonte PREDICA pour NPV - action=com.ibm.team.workitem.viewWorkItem&amp;id=301702" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301702" r:id="rId113" ref="K64"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_RE0127_Portail-IA-ERGO - action=com.ibm.team.workitem.viewWorkItem&amp;id=301710" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301710" r:id="rId114" ref="K65"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000063 - action=com.ibm.team.workitem.viewWorkItem&amp;id=301717" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301717" r:id="rId115" ref="K66"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_RE0134_Maintenance SEA - action=com.ibm.team.workitem.viewWorkItem&amp;id=301750" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301750" r:id="rId116" ref="K68"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0437_PLA_Process epargn patrim PCO - action=com.ibm.team.workitem.viewWorkItem&amp;id=301765" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301765" r:id="rId117" ref="K71"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0106_ASS_Refonte PREDICA pour NPV - action=com.ibm.team.workitem.viewWorkItem&amp;id=301771" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301771" r:id="rId118" ref="K75"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000046_GSI_CRE_U4 - action=com.ibm.team.workitem.viewWorkItem&amp;id=301775" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301775" r:id="rId119" ref="K77"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_227799" r:id="rId120" ref="I78"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_253567" r:id="rId121" ref="I79"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_275647" r:id="rId122" ref="I80"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_279136" r:id="rId123" ref="I81"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_279749" r:id="rId124" ref="I82"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_286290" r:id="rId125" ref="I83"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_288672" r:id="rId126" ref="I84"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_293974" r:id="rId127" ref="I85"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_294256" r:id="rId128" ref="I86"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_295576" r:id="rId129" ref="I87"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_299372" r:id="rId130" ref="I88"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_299960" r:id="rId131" ref="I89"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_300888" r:id="rId132" ref="I90"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_301508" r:id="rId133" ref="I91"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_301648" r:id="rId134" ref="I92"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_301946" r:id="rId135" ref="I93"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_305990" r:id="rId136" ref="I94"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0220_DML_Bouton Vert - action=com.ibm.team.workitem.viewWorkItem&amp;id=307394" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307394" r:id="rId137" ref="K78"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFP031_DML_Fonct transactionnelles - action=com.ibm.team.workitem.viewWorkItem&amp;id=307395" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307395" r:id="rId138" ref="K79"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0377_DML_Refonte Ident Auth forte - action=com.ibm.team.workitem.viewWorkItem&amp;id=307396" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307396" r:id="rId139" ref="K80"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0319_CCP_Access Banking - action=com.ibm.team.workitem.viewWorkItem&amp;id=307398" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307398" r:id="rId140" ref="K81"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFMKRT_MDP_Ma Carte - action=com.ibm.team.workitem.viewWorkItem&amp;id=307400" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307400" r:id="rId141" ref="K82"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0298_DML_Mont%C3%A9e version EPTICA - action=com.ibm.team.workitem.viewWorkItem&amp;id=307402" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307402" r:id="rId142" ref="K83"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_RE0057_CCP_WDRC - action=com.ibm.team.workitem.viewWorkItem&amp;id=307405" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307405" r:id="rId143" ref="K84"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0379_MDP_DSP2 - action=com.ibm.team.workitem.viewWorkItem&amp;id=307407" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307407" r:id="rId144" ref="K85"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0398_CRE_Loi Sapin 2 R%C3%A9sil. ADE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307408" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307408" r:id="rId145" ref="K86"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0441_DML_Outils commerciaux Agenda - action=com.ibm.team.workitem.viewWorkItem&amp;id=307494" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307494" r:id="rId146" ref="K87"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000018_GSI PLA Titres - action=com.ibm.team.workitem.viewWorkItem&amp;id=307527" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307527" r:id="rId147" ref="K88"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=307534" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307534" r:id="rId148" ref="K89"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0211_TRV_Dossier Num. Client NPC - action=com.ibm.team.workitem.viewWorkItem&amp;id=307535" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307535" r:id="rId149" ref="K90"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00521_MDP_BOA - action=com.ibm.team.workitem.viewWorkItem&amp;id=307542" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307542" r:id="rId150" ref="K92"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=307551" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307551" r:id="rId151" ref="K93"/>
-    <hyperlink display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFP031_DML_Fonct transactionnelles - action=com.ibm.team.workitem.viewWorkItem&amp;id=307554" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307554" r:id="rId152" ref="K94"/>
-    <hyperlink display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_304138" r:id="rId153" ref="I95"/>
+    <hyperlink ref="I37" r:id="rId1" tooltip="view_lot_270040" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/745316"/>
+    <hyperlink ref="I23" r:id="rId2" tooltip="view_lot_272467" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/752982"/>
+    <hyperlink ref="I45" r:id="rId3" tooltip="view_lot_275117" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/771933"/>
+    <hyperlink ref="I7" r:id="rId4" tooltip="view_lot_275457" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/758600"/>
+    <hyperlink ref="I17" r:id="rId5" tooltip="view_lot_277288" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/770581"/>
+    <hyperlink ref="I10" r:id="rId6" tooltip="view_lot_278180" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/774447"/>
+    <hyperlink ref="I12" r:id="rId7" tooltip="view_lot_279752" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/784997"/>
+    <hyperlink ref="I38" r:id="rId8" tooltip="view_lot_252247" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/768824"/>
+    <hyperlink ref="I44" r:id="rId9" tooltip="view_lot_283790" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/813364"/>
+    <hyperlink ref="K13" r:id="rId10" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292305" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFMKRT_MDP_Ma Carte - action=com.ibm.team.workitem.viewWorkItem&amp;id=292305"/>
+    <hyperlink ref="K48" r:id="rId11" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292436" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=292436"/>
+    <hyperlink ref="K15" r:id="rId12" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292625" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0232_CRE_P%C3%A9gase - action=com.ibm.team.workitem.viewWorkItem&amp;id=292625"/>
+    <hyperlink ref="K55" r:id="rId13" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292694" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00157_MSP_NEO_D%C3%A9mat doss engagt entrep - action=com.ibm.team.workitem.viewWorkItem&amp;id=292694"/>
+    <hyperlink ref="K5" r:id="rId14" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292733" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P01212_CCP_OFAC NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292733"/>
+    <hyperlink ref="K4" r:id="rId15" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292733" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P01212_CCP_OFAC NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292733"/>
+    <hyperlink ref="K57" r:id="rId16" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292795" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00739_MSP_Decom Oscare - action=com.ibm.team.workitem.viewWorkItem&amp;id=292795"/>
+    <hyperlink ref="K41" r:id="rId17" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294063" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0300_DML_Sol Genesys Multicanal - action=com.ibm.team.workitem.viewWorkItem&amp;id=294063"/>
+    <hyperlink ref="K26" r:id="rId18" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294266" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0211_TRV_Dossier Num. Client NPC - action=com.ibm.team.workitem.viewWorkItem&amp;id=294266"/>
+    <hyperlink ref="K14" r:id="rId19" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294308" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0231_CRE_DIGICONSO - action=com.ibm.team.workitem.viewWorkItem&amp;id=294308"/>
+    <hyperlink ref="K31" r:id="rId20" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294325" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFCC70_MKT_Mise place pr%C3%A9req Charte - action=com.ibm.team.workitem.viewWorkItem&amp;id=294325"/>
+    <hyperlink ref="K8" r:id="rId21" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294337" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00589_PLA_Base Fiscale - action=com.ibm.team.workitem.viewWorkItem&amp;id=294337"/>
+    <hyperlink ref="K35" r:id="rId22" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294352" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000036_GSI EER PCH VP EPTICA EDS - action=com.ibm.team.workitem.viewWorkItem&amp;id=294352"/>
+    <hyperlink ref="K28" r:id="rId23" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294356" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P01181_DML_OIC - Compl%C3%A9ments fonc. - action=com.ibm.team.workitem.viewWorkItem&amp;id=294356"/>
+    <hyperlink ref="K46" r:id="rId24" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294360" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0337_DML_SiMM Lot 4 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294360"/>
+    <hyperlink ref="K30" r:id="rId25" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294402" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFCC20_MKT_Comm client Etape 2 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294402"/>
+    <hyperlink ref="K32" r:id="rId26" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294406" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0248_PLA_D%C3%A9marche Epargne Patrim. - action=com.ibm.team.workitem.viewWorkItem&amp;id=294406"/>
+    <hyperlink ref="K27" r:id="rId27" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294407" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0220_DML_Bouton Vert - action=com.ibm.team.workitem.viewWorkItem&amp;id=294407"/>
+    <hyperlink ref="K33" r:id="rId28" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294408" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0315_DML_MDC NPCD lot3 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294408"/>
+    <hyperlink ref="K36" r:id="rId29" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294412" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_T300473 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294412"/>
+    <hyperlink ref="K50" r:id="rId30" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294414" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294414"/>
+    <hyperlink ref="K20" r:id="rId31" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294418" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=294418"/>
+    <hyperlink ref="K29" r:id="rId32" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294426" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0170_TRV_Refonte Docth%C3%A8que - action=com.ibm.team.workitem.viewWorkItem&amp;id=294426"/>
+    <hyperlink ref="K51" r:id="rId33" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294554" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000062_Coclico_SOA - action=com.ibm.team.workitem.viewWorkItem&amp;id=294554"/>
+    <hyperlink ref="K53" r:id="rId34" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294555" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000063 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294555"/>
+    <hyperlink ref="K21" r:id="rId35" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294484" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=294484"/>
+    <hyperlink ref="K11" r:id="rId36" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294557" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFMKRT_MDP_Ma Carte - action=com.ibm.team.workitem.viewWorkItem&amp;id=294557"/>
+    <hyperlink ref="K49" r:id="rId37" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294560" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294560"/>
+    <hyperlink ref="K59" r:id="rId38" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294568" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000026_GSI Risques Bale II - action=com.ibm.team.workitem.viewWorkItem&amp;id=294568"/>
+    <hyperlink ref="K34" r:id="rId39" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294573" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000036_GSI EER PCH VP EPTICA EDS - action=com.ibm.team.workitem.viewWorkItem&amp;id=294573"/>
+    <hyperlink ref="K3" r:id="rId40" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294577" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000013_GSI_CCP_Client - action=com.ibm.team.workitem.viewWorkItem&amp;id=294577"/>
+    <hyperlink ref="K40" r:id="rId41" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294588" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0070_MSP_Evol. Gestion Conseill%C3%A9e - action=com.ibm.team.workitem.viewWorkItem&amp;id=294588"/>
+    <hyperlink ref="K43" r:id="rId42" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294590" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00849_MSP_INTEGR OUTIL SOUSCR SCPI - action=com.ibm.team.workitem.viewWorkItem&amp;id=294590"/>
+    <hyperlink ref="K60" r:id="rId43" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294591" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000026_GSI Risques Bale II - action=com.ibm.team.workitem.viewWorkItem&amp;id=294591"/>
+    <hyperlink ref="K56" r:id="rId44" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294594" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00738_MSP_Urba SI International - action=com.ibm.team.workitem.viewWorkItem&amp;id=294594"/>
+    <hyperlink ref="K9" r:id="rId45" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294600" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0083_MDP_Rep. BDF recyclage billet - action=com.ibm.team.workitem.viewWorkItem&amp;id=294600"/>
+    <hyperlink ref="K54" r:id="rId46" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294604" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_FE000066_Maintenance Portail-IA-SEA-Ergo - action=com.ibm.team.workitem.viewWorkItem&amp;id=294604"/>
+    <hyperlink ref="K58" r:id="rId47" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294804" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00739_MSP_Decom Oscare - action=com.ibm.team.workitem.viewWorkItem&amp;id=294804"/>
+    <hyperlink ref="K42" r:id="rId48" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294809" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0377_DML_Refonte Ident Auth forte - action=com.ibm.team.workitem.viewWorkItem&amp;id=294809"/>
+    <hyperlink ref="K6" r:id="rId49" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298836" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0369_CCP_NPC Access Banking Cible - action=com.ibm.team.workitem.viewWorkItem&amp;id=298836"/>
+    <hyperlink ref="K19" r:id="rId50" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298838" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00184_CRE_Process Agri-Pro - action=com.ibm.team.workitem.viewWorkItem&amp;id=298838"/>
+    <hyperlink ref="K2" r:id="rId51" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298842" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJT_SDJ_PE000133 - action=com.ibm.team.workitem.viewWorkItem&amp;id=298842"/>
+    <hyperlink ref="K52" r:id="rId52" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298846" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000062_Coclico_SOA - action=com.ibm.team.workitem.viewWorkItem&amp;id=298846"/>
+    <hyperlink ref="I13" r:id="rId53"/>
+    <hyperlink ref="I48" r:id="rId54"/>
+    <hyperlink ref="I15" r:id="rId55"/>
+    <hyperlink ref="I55" r:id="rId56"/>
+    <hyperlink ref="I5" r:id="rId57"/>
+    <hyperlink ref="I4" r:id="rId58"/>
+    <hyperlink ref="I57" r:id="rId59"/>
+    <hyperlink ref="I16" r:id="rId60" display="http://ttp10-snar.ca-technologies.fr/governance?id=790392"/>
+    <hyperlink ref="I21" r:id="rId61"/>
+    <hyperlink ref="I20" r:id="rId62" display="http://ttp10-snar.ca-technologies.fr/governance?id=846505"/>
+    <hyperlink ref="I46" r:id="rId63"/>
+    <hyperlink ref="I50" r:id="rId64"/>
+    <hyperlink ref="I28" r:id="rId65"/>
+    <hyperlink ref="I43" r:id="rId66"/>
+    <hyperlink ref="I35" r:id="rId67"/>
+    <hyperlink ref="I14" r:id="rId68"/>
+    <hyperlink ref="I36" r:id="rId69" display="http://ttp10-snar.ca-technologies.fr/governance?id=841853"/>
+    <hyperlink ref="I40" r:id="rId70"/>
+    <hyperlink ref="I33" r:id="rId71"/>
+    <hyperlink ref="I54" r:id="rId72"/>
+    <hyperlink ref="I59" r:id="rId73"/>
+    <hyperlink ref="I53" r:id="rId74"/>
+    <hyperlink ref="I49" r:id="rId75"/>
+    <hyperlink ref="I41" r:id="rId76"/>
+    <hyperlink ref="I34" r:id="rId77"/>
+    <hyperlink ref="I51" r:id="rId78"/>
+    <hyperlink ref="I9" r:id="rId79"/>
+    <hyperlink ref="I27" r:id="rId80"/>
+    <hyperlink ref="I29" r:id="rId81"/>
+    <hyperlink ref="I56" r:id="rId82"/>
+    <hyperlink ref="I11" r:id="rId83"/>
+    <hyperlink ref="I3" r:id="rId84"/>
+    <hyperlink ref="I8" r:id="rId85"/>
+    <hyperlink ref="I32" r:id="rId86"/>
+    <hyperlink ref="I60" r:id="rId87"/>
+    <hyperlink ref="I26" r:id="rId88"/>
+    <hyperlink ref="I30" r:id="rId89"/>
+    <hyperlink ref="I31" r:id="rId90"/>
+    <hyperlink ref="I58" r:id="rId91"/>
+    <hyperlink ref="I42" r:id="rId92" display="http://ttp10-snar.ca-technologies.fr/governance?id=846900"/>
+    <hyperlink ref="I52" r:id="rId93" tooltip="view_lot_280871" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/776827"/>
+    <hyperlink ref="I2" r:id="rId94" tooltip="view_lot_295711" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/851214"/>
+    <hyperlink ref="I19" r:id="rId95" tooltip="view_lot_292978" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/852227"/>
+    <hyperlink ref="I6" r:id="rId96" tooltip="view_lot_259176" display="http://ttp10-snar.ca-technologies.fr/dashboard/index/847192"/>
+    <hyperlink ref="I63" r:id="rId97"/>
+    <hyperlink ref="I64" r:id="rId98"/>
+    <hyperlink ref="I65" r:id="rId99"/>
+    <hyperlink ref="I66" r:id="rId100"/>
+    <hyperlink ref="I67" r:id="rId101"/>
+    <hyperlink ref="I68" r:id="rId102"/>
+    <hyperlink ref="I69" r:id="rId103"/>
+    <hyperlink ref="I70" r:id="rId104"/>
+    <hyperlink ref="I71" r:id="rId105"/>
+    <hyperlink ref="I72" r:id="rId106"/>
+    <hyperlink ref="I73" r:id="rId107"/>
+    <hyperlink ref="I74" r:id="rId108"/>
+    <hyperlink ref="I75" r:id="rId109"/>
+    <hyperlink ref="I76" r:id="rId110"/>
+    <hyperlink ref="I77" r:id="rId111"/>
+    <hyperlink ref="K63" r:id="rId112" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301700" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_T300473 - action=com.ibm.team.workitem.viewWorkItem&amp;id=301700"/>
+    <hyperlink ref="K64" r:id="rId113" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301702" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0106_ASS_Refonte PREDICA pour NPV - action=com.ibm.team.workitem.viewWorkItem&amp;id=301702"/>
+    <hyperlink ref="K65" r:id="rId114" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301710" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_RE0127_Portail-IA-ERGO - action=com.ibm.team.workitem.viewWorkItem&amp;id=301710"/>
+    <hyperlink ref="K66" r:id="rId115" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301717" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000063 - action=com.ibm.team.workitem.viewWorkItem&amp;id=301717"/>
+    <hyperlink ref="K68" r:id="rId116" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301750" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_RE0134_Maintenance SEA - action=com.ibm.team.workitem.viewWorkItem&amp;id=301750"/>
+    <hyperlink ref="K71" r:id="rId117" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301765" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0437_PLA_Process epargn patrim PCO - action=com.ibm.team.workitem.viewWorkItem&amp;id=301765"/>
+    <hyperlink ref="K75" r:id="rId118" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301771" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0106_ASS_Refonte PREDICA pour NPV - action=com.ibm.team.workitem.viewWorkItem&amp;id=301771"/>
+    <hyperlink ref="K77" r:id="rId119" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301775" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000046_GSI_CRE_U4 - action=com.ibm.team.workitem.viewWorkItem&amp;id=301775"/>
+    <hyperlink ref="I78" r:id="rId120" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_227799"/>
+    <hyperlink ref="I79" r:id="rId121" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_253567"/>
+    <hyperlink ref="I80" r:id="rId122" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_275647"/>
+    <hyperlink ref="I81" r:id="rId123" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_279136"/>
+    <hyperlink ref="I82" r:id="rId124" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_279749"/>
+    <hyperlink ref="I83" r:id="rId125" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_286290"/>
+    <hyperlink ref="I84" r:id="rId126" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_288672"/>
+    <hyperlink ref="I85" r:id="rId127" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_293974"/>
+    <hyperlink ref="I86" r:id="rId128" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_294256"/>
+    <hyperlink ref="I87" r:id="rId129" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_295576"/>
+    <hyperlink ref="I88" r:id="rId130" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_299372"/>
+    <hyperlink ref="I89" r:id="rId131" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_299960"/>
+    <hyperlink ref="I90" r:id="rId132" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_300888"/>
+    <hyperlink ref="I91" r:id="rId133" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_301508"/>
+    <hyperlink ref="I92" r:id="rId134" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_301648"/>
+    <hyperlink ref="I93" r:id="rId135" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_301946"/>
+    <hyperlink ref="I94" r:id="rId136" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_305990"/>
+    <hyperlink ref="K78" r:id="rId137" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307394" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0220_DML_Bouton Vert - action=com.ibm.team.workitem.viewWorkItem&amp;id=307394"/>
+    <hyperlink ref="K79" r:id="rId138" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307395" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFP031_DML_Fonct transactionnelles - action=com.ibm.team.workitem.viewWorkItem&amp;id=307395"/>
+    <hyperlink ref="K80" r:id="rId139" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307396" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0377_DML_Refonte Ident Auth forte - action=com.ibm.team.workitem.viewWorkItem&amp;id=307396"/>
+    <hyperlink ref="K81" r:id="rId140" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307398" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0319_CCP_Access Banking - action=com.ibm.team.workitem.viewWorkItem&amp;id=307398"/>
+    <hyperlink ref="K82" r:id="rId141" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307400" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFMKRT_MDP_Ma Carte - action=com.ibm.team.workitem.viewWorkItem&amp;id=307400"/>
+    <hyperlink ref="K83" r:id="rId142" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307402" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0298_DML_Mont%C3%A9e version EPTICA - action=com.ibm.team.workitem.viewWorkItem&amp;id=307402"/>
+    <hyperlink ref="K84" r:id="rId143" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307405" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_RE0057_CCP_WDRC - action=com.ibm.team.workitem.viewWorkItem&amp;id=307405"/>
+    <hyperlink ref="K85" r:id="rId144" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307407" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0379_MDP_DSP2 - action=com.ibm.team.workitem.viewWorkItem&amp;id=307407"/>
+    <hyperlink ref="K86" r:id="rId145" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307408" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0398_CRE_Loi Sapin 2 R%C3%A9sil. ADE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307408"/>
+    <hyperlink ref="K87" r:id="rId146" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307494" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0441_DML_Outils commerciaux Agenda - action=com.ibm.team.workitem.viewWorkItem&amp;id=307494"/>
+    <hyperlink ref="K88" r:id="rId147" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307527" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000018_GSI PLA Titres - action=com.ibm.team.workitem.viewWorkItem&amp;id=307527"/>
+    <hyperlink ref="K89" r:id="rId148" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307534" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=307534"/>
+    <hyperlink ref="K90" r:id="rId149" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307535" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0211_TRV_Dossier Num. Client NPC - action=com.ibm.team.workitem.viewWorkItem&amp;id=307535"/>
+    <hyperlink ref="K92" r:id="rId150" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307542" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00521_MDP_BOA - action=com.ibm.team.workitem.viewWorkItem&amp;id=307542"/>
+    <hyperlink ref="K93" r:id="rId151" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307551" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=307551"/>
+    <hyperlink ref="K94" r:id="rId152" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307554" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFP031_DML_Fonct transactionnelles - action=com.ibm.team.workitem.viewWorkItem&amp;id=307554"/>
+    <hyperlink ref="I95" r:id="rId153" display="http://ttp10-snar.ca-technologies.fr/governance?id=view_lot_304138"/>
   </hyperlinks>
-  <pageMargins bottom="0" footer="0.31496062992125984" header="0.31496062992125984" left="0" right="0" top="0"/>
-  <pageSetup orientation="landscape" paperSize="9" r:id="rId154" scale="53"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId154"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E57"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.4921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.84375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1403" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1330" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="1403" t="s">
+      <c r="B1" s="1330" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1403" t="s">
+      <c r="C1" s="1330" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="1403" t="s">
+      <c r="D1" s="1330" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="1404">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1331" t="s">
         <v>444</v>
       </c>
-      <c r="B2" t="s" s="1405">
+      <c r="B2" s="1333" t="s">
         <v>445</v>
       </c>
-      <c r="C2" t="s" s="1404">
+      <c r="C2" s="1331" t="s">
         <v>446</v>
       </c>
-      <c r="D2" t="s" s="1404">
+      <c r="D2" s="1331" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="1406">
-        <v>533</v>
-      </c>
-      <c r="B3" t="s" s="1407">
-        <v>534</v>
-      </c>
-      <c r="C3" t="s" s="1406">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1331" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="1334" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1331" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4" s="1335" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1331" t="s">
         <v>446</v>
       </c>
-      <c r="D3" t="s" s="1406">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1408">
-        <v>447</v>
-      </c>
-      <c r="B4" t="s" s="1409">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s" s="1408">
+      <c r="D4" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1331" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5" s="1336" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1331" t="s">
+        <v>446</v>
+      </c>
+      <c r="D5" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1331" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" s="1337" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1331" t="s">
         <v>338</v>
       </c>
-      <c r="D4" t="s" s="1408">
+      <c r="D6" s="1331" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="1410">
-        <v>448</v>
-      </c>
-      <c r="B5" t="s" s="1411">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1331" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" s="1338" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7" s="1331" t="s">
+        <v>446</v>
+      </c>
+      <c r="D7" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1331" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" s="1339" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s" s="1410">
+      <c r="C8" s="1331" t="s">
         <v>446</v>
       </c>
-      <c r="D5" t="s" s="1410">
+      <c r="D8" s="1331" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="1412">
-        <v>449</v>
-      </c>
-      <c r="B6" t="s" s="1413">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1331" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9" s="1340" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s" s="1412">
+      <c r="C9" s="1331" t="s">
         <v>446</v>
       </c>
-      <c r="D6" t="s" s="1412">
+      <c r="D9" s="1331" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="1414">
-        <v>450</v>
-      </c>
-      <c r="B7" t="s" s="1415">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1331" t="s">
+        <v>455</v>
+      </c>
+      <c r="B10" s="1341" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s" s="1414">
+      <c r="C10" s="1331" t="s">
+        <v>446</v>
+      </c>
+      <c r="D10" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1331" t="s">
+        <v>456</v>
+      </c>
+      <c r="B11" s="1342" t="s">
+        <v>520</v>
+      </c>
+      <c r="C11" s="1331" t="s">
+        <v>446</v>
+      </c>
+      <c r="D11" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1331" t="s">
+        <v>458</v>
+      </c>
+      <c r="B12" s="1343" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1331" t="s">
+        <v>446</v>
+      </c>
+      <c r="D12" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1331" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" s="1344" t="s">
+        <v>467</v>
+      </c>
+      <c r="C13" s="1331" t="s">
         <v>338</v>
       </c>
-      <c r="D7" t="s" s="1414">
+      <c r="D13" s="1331" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="1416">
-        <v>451</v>
-      </c>
-      <c r="B8" t="s" s="1417">
-        <v>452</v>
-      </c>
-      <c r="C8" t="s" s="1416">
+    <row r="14" spans="1:4">
+      <c r="A14" s="1331" t="s">
+        <v>460</v>
+      </c>
+      <c r="B14" s="1345" t="s">
+        <v>461</v>
+      </c>
+      <c r="C14" s="1331" t="s">
         <v>446</v>
       </c>
-      <c r="D8" t="s" s="1416">
+      <c r="D14" s="1331" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="1418">
-        <v>453</v>
-      </c>
-      <c r="B9" t="s" s="1419">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1331" t="s">
+        <v>462</v>
+      </c>
+      <c r="B15" s="1346" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1331" t="s">
+        <v>446</v>
+      </c>
+      <c r="D15" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1331" t="s">
+        <v>463</v>
+      </c>
+      <c r="B16" s="1347" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1331" t="s">
+        <v>446</v>
+      </c>
+      <c r="D16" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1331" t="s">
+        <v>464</v>
+      </c>
+      <c r="B17" s="1348" t="s">
+        <v>467</v>
+      </c>
+      <c r="C17" s="1331" t="s">
+        <v>446</v>
+      </c>
+      <c r="D17" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1331" t="s">
+        <v>465</v>
+      </c>
+      <c r="B18" s="1349" t="s">
+        <v>432</v>
+      </c>
+      <c r="C18" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1331" t="s">
+        <v>466</v>
+      </c>
+      <c r="B19" s="1350" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" s="1331" t="s">
+        <v>446</v>
+      </c>
+      <c r="D19" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1331" t="s">
+        <v>468</v>
+      </c>
+      <c r="B20" s="1351" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" s="1331" t="s">
+        <v>446</v>
+      </c>
+      <c r="D20" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1331" t="s">
+        <v>470</v>
+      </c>
+      <c r="B21" s="1352" t="s">
+        <v>520</v>
+      </c>
+      <c r="C21" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1331" t="s">
+        <v>471</v>
+      </c>
+      <c r="B22" s="1353" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D22" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1331" t="s">
+        <v>472</v>
+      </c>
+      <c r="B23" s="1354" t="s">
+        <v>432</v>
+      </c>
+      <c r="C23" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D23" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1331" t="s">
+        <v>473</v>
+      </c>
+      <c r="B24" s="1355" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s" s="1418">
+      <c r="C24" s="1331" t="s">
         <v>446</v>
       </c>
-      <c r="D9" t="s" s="1418">
+      <c r="D24" s="1331" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="1420">
-        <v>454</v>
-      </c>
-      <c r="B10" t="s" s="1421">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s" s="1420">
+    <row r="25" spans="1:4">
+      <c r="A25" s="1331" t="s">
+        <v>474</v>
+      </c>
+      <c r="B25" s="1356" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D25" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1331" t="s">
+        <v>475</v>
+      </c>
+      <c r="B26" s="1357" t="s">
+        <v>467</v>
+      </c>
+      <c r="C26" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D26" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1331" t="s">
+        <v>476</v>
+      </c>
+      <c r="B27" s="1358" t="s">
+        <v>457</v>
+      </c>
+      <c r="C27" s="1331" t="s">
         <v>446</v>
       </c>
-      <c r="D10" t="s" s="1420">
+      <c r="D27" s="1331" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="1422">
-        <v>455</v>
-      </c>
-      <c r="B11" t="s" s="1423">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s" s="1422">
+    <row r="28" spans="1:4">
+      <c r="A28" s="1331" t="s">
+        <v>477</v>
+      </c>
+      <c r="B28" s="1359" t="s">
+        <v>469</v>
+      </c>
+      <c r="C28" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D28" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1331" t="s">
+        <v>478</v>
+      </c>
+      <c r="B29" s="1360" t="s">
+        <v>479</v>
+      </c>
+      <c r="C29" s="1331" t="s">
         <v>446</v>
       </c>
-      <c r="D11" t="s" s="1422">
+      <c r="D29" s="1331" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="1424">
-        <v>456</v>
-      </c>
-      <c r="B12" t="s" s="1425">
-        <v>520</v>
-      </c>
-      <c r="C12" t="s" s="1424">
+    <row r="30" spans="1:4">
+      <c r="A30" s="1331" t="s">
+        <v>480</v>
+      </c>
+      <c r="B30" s="1361" t="s">
+        <v>479</v>
+      </c>
+      <c r="C30" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D30" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1331" t="s">
+        <v>481</v>
+      </c>
+      <c r="B31" s="1362" t="s">
+        <v>479</v>
+      </c>
+      <c r="C31" s="1331" t="s">
         <v>446</v>
       </c>
-      <c r="D12" t="s" s="1424">
+      <c r="D31" s="1331" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="1426">
-        <v>458</v>
-      </c>
-      <c r="B13" t="s" s="1427">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s" s="1426">
+    <row r="32" spans="1:4">
+      <c r="A32" s="1331" t="s">
+        <v>482</v>
+      </c>
+      <c r="B32" s="1363" t="s">
+        <v>479</v>
+      </c>
+      <c r="C32" s="1331" t="s">
         <v>446</v>
       </c>
-      <c r="D13" t="s" s="1426">
+      <c r="D32" s="1331" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="1428">
-        <v>459</v>
-      </c>
-      <c r="B14" t="s" s="1429">
-        <v>467</v>
-      </c>
-      <c r="C14" t="s" s="1428">
+    <row r="33" spans="1:4">
+      <c r="A33" s="1331" t="s">
+        <v>483</v>
+      </c>
+      <c r="B33" s="1364" t="s">
+        <v>484</v>
+      </c>
+      <c r="C33" s="1331" t="s">
+        <v>446</v>
+      </c>
+      <c r="D33" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1331" t="s">
+        <v>485</v>
+      </c>
+      <c r="B34" s="1365" t="s">
+        <v>479</v>
+      </c>
+      <c r="C34" s="1331" t="s">
+        <v>446</v>
+      </c>
+      <c r="D34" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1331" t="s">
+        <v>486</v>
+      </c>
+      <c r="B35" s="1366" t="s">
+        <v>479</v>
+      </c>
+      <c r="C35" s="1331" t="s">
         <v>338</v>
       </c>
-      <c r="D14" t="s" s="1428">
+      <c r="D35" s="1331" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="1430">
-        <v>460</v>
-      </c>
-      <c r="B15" t="s" s="1431">
-        <v>461</v>
-      </c>
-      <c r="C15" t="s" s="1430">
+    <row r="36" spans="1:4">
+      <c r="A36" s="1331" t="s">
+        <v>487</v>
+      </c>
+      <c r="B36" s="1367" t="s">
+        <v>372</v>
+      </c>
+      <c r="C36" s="1331" t="s">
         <v>446</v>
       </c>
-      <c r="D15" t="s" s="1430">
+      <c r="D36" s="1331" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="1432">
-        <v>462</v>
-      </c>
-      <c r="B16" t="s" s="1433">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s" s="1432">
+    <row r="37" spans="1:4">
+      <c r="A37" s="1331" t="s">
+        <v>488</v>
+      </c>
+      <c r="B37" s="1368" t="s">
+        <v>372</v>
+      </c>
+      <c r="C37" s="1331" t="s">
         <v>446</v>
       </c>
-      <c r="D16" t="s" s="1432">
+      <c r="D37" s="1331" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="1434">
-        <v>463</v>
-      </c>
-      <c r="B17" t="s" s="1435">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s" s="1434">
+    <row r="38" spans="1:4">
+      <c r="A38" s="1331" t="s">
+        <v>489</v>
+      </c>
+      <c r="B38" s="1369" t="s">
+        <v>479</v>
+      </c>
+      <c r="C38" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D38" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1331" t="s">
+        <v>490</v>
+      </c>
+      <c r="B39" s="1370" t="s">
+        <v>479</v>
+      </c>
+      <c r="C39" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D39" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1331" t="s">
+        <v>491</v>
+      </c>
+      <c r="B40" s="1371" t="s">
+        <v>372</v>
+      </c>
+      <c r="C40" s="1331" t="s">
         <v>446</v>
       </c>
-      <c r="D17" t="s" s="1434">
+      <c r="D40" s="1331" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="1436">
-        <v>464</v>
-      </c>
-      <c r="B18" t="s" s="1437">
-        <v>467</v>
-      </c>
-      <c r="C18" t="s" s="1436">
+    <row r="41" spans="1:4">
+      <c r="A41" s="1331" t="s">
+        <v>492</v>
+      </c>
+      <c r="B41" s="1372" t="s">
+        <v>479</v>
+      </c>
+      <c r="C41" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D41" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1331" t="s">
+        <v>493</v>
+      </c>
+      <c r="B42" s="1373" t="s">
+        <v>372</v>
+      </c>
+      <c r="C42" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D42" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1331" t="s">
+        <v>524</v>
+      </c>
+      <c r="B43" s="1374" t="s">
+        <v>443</v>
+      </c>
+      <c r="C43" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D43" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1331" t="s">
+        <v>494</v>
+      </c>
+      <c r="B44" s="1375" t="s">
+        <v>372</v>
+      </c>
+      <c r="C44" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D44" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1331" t="s">
+        <v>495</v>
+      </c>
+      <c r="B45" s="1376" t="s">
+        <v>372</v>
+      </c>
+      <c r="C45" s="1331" t="s">
         <v>446</v>
       </c>
-      <c r="D18" t="s" s="1436">
+      <c r="D45" s="1331" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="1438">
-        <v>465</v>
-      </c>
-      <c r="B19" t="s" s="1439">
+    <row r="46" spans="1:4">
+      <c r="A46" s="1331" t="s">
+        <v>496</v>
+      </c>
+      <c r="B46" s="1377" t="s">
+        <v>372</v>
+      </c>
+      <c r="C46" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D46" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1331" t="s">
+        <v>497</v>
+      </c>
+      <c r="B47" s="1378" t="s">
+        <v>372</v>
+      </c>
+      <c r="C47" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D47" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1331" t="s">
+        <v>498</v>
+      </c>
+      <c r="B48" s="1379" t="s">
+        <v>372</v>
+      </c>
+      <c r="C48" s="1331" t="s">
+        <v>446</v>
+      </c>
+      <c r="D48" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1331" t="s">
+        <v>499</v>
+      </c>
+      <c r="B49" s="1380" t="s">
+        <v>372</v>
+      </c>
+      <c r="C49" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D49" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1331" t="s">
+        <v>500</v>
+      </c>
+      <c r="B50" s="1381" t="s">
+        <v>372</v>
+      </c>
+      <c r="C50" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D50" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1331" t="s">
+        <v>501</v>
+      </c>
+      <c r="B51" s="1382" t="s">
+        <v>372</v>
+      </c>
+      <c r="C51" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D51" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1331" t="s">
+        <v>502</v>
+      </c>
+      <c r="B52" s="1383" t="s">
+        <v>457</v>
+      </c>
+      <c r="C52" s="1331" t="s">
+        <v>446</v>
+      </c>
+      <c r="D52" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1331" t="s">
+        <v>503</v>
+      </c>
+      <c r="B53" s="1384" t="s">
+        <v>372</v>
+      </c>
+      <c r="C53" s="1331" t="s">
+        <v>446</v>
+      </c>
+      <c r="D53" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1331" t="s">
+        <v>504</v>
+      </c>
+      <c r="B54" s="1385" t="s">
+        <v>505</v>
+      </c>
+      <c r="C54" s="1331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54" s="1331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1332" t="s">
+        <v>531</v>
+      </c>
+      <c r="B55" s="1386" t="s">
         <v>432</v>
       </c>
-      <c r="C19" t="s" s="1438">
-        <v>338</v>
-      </c>
-      <c r="D19" t="s" s="1438">
+      <c r="C55" s="1332" t="s">
+        <v>364</v>
+      </c>
+      <c r="D55" s="1332" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="1440">
-        <v>466</v>
-      </c>
-      <c r="B20" t="s" s="1441">
-        <v>467</v>
-      </c>
-      <c r="C20" t="s" s="1440">
-        <v>446</v>
-      </c>
-      <c r="D20" t="s" s="1440">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="1442">
-        <v>468</v>
-      </c>
-      <c r="B21" t="s" s="1443">
-        <v>469</v>
-      </c>
-      <c r="C21" t="s" s="1442">
-        <v>446</v>
-      </c>
-      <c r="D21" t="s" s="1442">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="1444">
-        <v>470</v>
-      </c>
-      <c r="B22" t="s" s="1445">
-        <v>520</v>
-      </c>
-      <c r="C22" t="s" s="1444">
-        <v>338</v>
-      </c>
-      <c r="D22" t="s" s="1444">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="1446">
-        <v>471</v>
-      </c>
-      <c r="B23" t="s" s="1447">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s" s="1446">
-        <v>338</v>
-      </c>
-      <c r="D23" t="s" s="1446">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="1448">
-        <v>472</v>
-      </c>
-      <c r="B24" t="s" s="1449">
-        <v>432</v>
-      </c>
-      <c r="C24" t="s" s="1448">
-        <v>338</v>
-      </c>
-      <c r="D24" t="s" s="1448">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="1450">
-        <v>473</v>
-      </c>
-      <c r="B25" t="s" s="1451">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s" s="1450">
-        <v>446</v>
-      </c>
-      <c r="D25" t="s" s="1450">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="1452">
-        <v>474</v>
-      </c>
-      <c r="B26" t="s" s="1453">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s" s="1452">
-        <v>338</v>
-      </c>
-      <c r="D26" t="s" s="1452">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="1454">
-        <v>475</v>
-      </c>
-      <c r="B27" t="s" s="1455">
-        <v>467</v>
-      </c>
-      <c r="C27" t="s" s="1454">
-        <v>338</v>
-      </c>
-      <c r="D27" t="s" s="1454">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="1456">
-        <v>476</v>
-      </c>
-      <c r="B28" t="s" s="1457">
-        <v>457</v>
-      </c>
-      <c r="C28" t="s" s="1456">
-        <v>446</v>
-      </c>
-      <c r="D28" t="s" s="1456">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="1458">
-        <v>477</v>
-      </c>
-      <c r="B29" t="s" s="1459">
-        <v>469</v>
-      </c>
-      <c r="C29" t="s" s="1458">
-        <v>338</v>
-      </c>
-      <c r="D29" t="s" s="1458">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="1460">
-        <v>478</v>
-      </c>
-      <c r="B30" t="s" s="1461">
-        <v>479</v>
-      </c>
-      <c r="C30" t="s" s="1460">
-        <v>446</v>
-      </c>
-      <c r="D30" t="s" s="1460">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="1462">
-        <v>480</v>
-      </c>
-      <c r="B31" t="s" s="1463">
-        <v>479</v>
-      </c>
-      <c r="C31" t="s" s="1462">
-        <v>338</v>
-      </c>
-      <c r="D31" t="s" s="1462">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="1464">
-        <v>481</v>
-      </c>
-      <c r="B32" t="s" s="1465">
-        <v>479</v>
-      </c>
-      <c r="C32" t="s" s="1464">
-        <v>446</v>
-      </c>
-      <c r="D32" t="s" s="1464">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="1466">
-        <v>482</v>
-      </c>
-      <c r="B33" t="s" s="1467">
-        <v>479</v>
-      </c>
-      <c r="C33" t="s" s="1466">
-        <v>446</v>
-      </c>
-      <c r="D33" t="s" s="1466">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="1468">
-        <v>483</v>
-      </c>
-      <c r="B34" t="s" s="1469">
-        <v>484</v>
-      </c>
-      <c r="C34" t="s" s="1468">
-        <v>446</v>
-      </c>
-      <c r="D34" t="s" s="1468">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="1470">
-        <v>485</v>
-      </c>
-      <c r="B35" t="s" s="1471">
-        <v>479</v>
-      </c>
-      <c r="C35" t="s" s="1470">
-        <v>446</v>
-      </c>
-      <c r="D35" t="s" s="1470">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="1472">
-        <v>486</v>
-      </c>
-      <c r="B36" t="s" s="1473">
-        <v>479</v>
-      </c>
-      <c r="C36" t="s" s="1472">
-        <v>338</v>
-      </c>
-      <c r="D36" t="s" s="1472">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="1474">
-        <v>487</v>
-      </c>
-      <c r="B37" t="s" s="1475">
-        <v>372</v>
-      </c>
-      <c r="C37" t="s" s="1474">
-        <v>446</v>
-      </c>
-      <c r="D37" t="s" s="1474">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="1476">
-        <v>488</v>
-      </c>
-      <c r="B38" t="s" s="1477">
-        <v>372</v>
-      </c>
-      <c r="C38" t="s" s="1476">
-        <v>446</v>
-      </c>
-      <c r="D38" t="s" s="1476">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="1478">
-        <v>489</v>
-      </c>
-      <c r="B39" t="s" s="1479">
-        <v>479</v>
-      </c>
-      <c r="C39" t="s" s="1478">
-        <v>338</v>
-      </c>
-      <c r="D39" t="s" s="1478">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="1480">
-        <v>490</v>
-      </c>
-      <c r="B40" t="s" s="1481">
-        <v>479</v>
-      </c>
-      <c r="C40" t="s" s="1480">
-        <v>338</v>
-      </c>
-      <c r="D40" t="s" s="1480">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="1482">
-        <v>491</v>
-      </c>
-      <c r="B41" t="s" s="1483">
-        <v>372</v>
-      </c>
-      <c r="C41" t="s" s="1482">
-        <v>446</v>
-      </c>
-      <c r="D41" t="s" s="1482">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="1484">
-        <v>492</v>
-      </c>
-      <c r="B42" t="s" s="1485">
-        <v>479</v>
-      </c>
-      <c r="C42" t="s" s="1484">
-        <v>338</v>
-      </c>
-      <c r="D42" t="s" s="1484">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="1486">
-        <v>493</v>
-      </c>
-      <c r="B43" t="s" s="1487">
-        <v>372</v>
-      </c>
-      <c r="C43" t="s" s="1486">
-        <v>338</v>
-      </c>
-      <c r="D43" t="s" s="1486">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="1488">
-        <v>524</v>
-      </c>
-      <c r="B44" t="s" s="1489">
-        <v>443</v>
-      </c>
-      <c r="C44" t="s" s="1488">
-        <v>338</v>
-      </c>
-      <c r="D44" t="s" s="1488">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="1490">
-        <v>494</v>
-      </c>
-      <c r="B45" t="s" s="1491">
-        <v>372</v>
-      </c>
-      <c r="C45" t="s" s="1490">
-        <v>338</v>
-      </c>
-      <c r="D45" t="s" s="1490">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="1492">
-        <v>495</v>
-      </c>
-      <c r="B46" t="s" s="1493">
-        <v>372</v>
-      </c>
-      <c r="C46" t="s" s="1492">
-        <v>446</v>
-      </c>
-      <c r="D46" t="s" s="1492">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="1494">
-        <v>496</v>
-      </c>
-      <c r="B47" t="s" s="1495">
-        <v>372</v>
-      </c>
-      <c r="C47" t="s" s="1494">
-        <v>338</v>
-      </c>
-      <c r="D47" t="s" s="1494">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="1496">
-        <v>497</v>
-      </c>
-      <c r="B48" t="s" s="1497">
-        <v>372</v>
-      </c>
-      <c r="C48" t="s" s="1496">
-        <v>338</v>
-      </c>
-      <c r="D48" t="s" s="1496">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="1498">
-        <v>498</v>
-      </c>
-      <c r="B49" t="s" s="1499">
-        <v>372</v>
-      </c>
-      <c r="C49" t="s" s="1498">
-        <v>446</v>
-      </c>
-      <c r="D49" t="s" s="1498">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="1500">
-        <v>499</v>
-      </c>
-      <c r="B50" t="s" s="1501">
-        <v>372</v>
-      </c>
-      <c r="C50" t="s" s="1500">
-        <v>338</v>
-      </c>
-      <c r="D50" t="s" s="1500">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="1502">
-        <v>500</v>
-      </c>
-      <c r="B51" t="s" s="1503">
-        <v>372</v>
-      </c>
-      <c r="C51" t="s" s="1502">
-        <v>338</v>
-      </c>
-      <c r="D51" t="s" s="1502">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="1504">
-        <v>501</v>
-      </c>
-      <c r="B52" t="s" s="1505">
-        <v>372</v>
-      </c>
-      <c r="C52" t="s" s="1504">
-        <v>338</v>
-      </c>
-      <c r="D52" t="s" s="1504">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="1506">
-        <v>502</v>
-      </c>
-      <c r="B53" t="s" s="1507">
-        <v>457</v>
-      </c>
-      <c r="C53" t="s" s="1506">
-        <v>446</v>
-      </c>
-      <c r="D53" t="s" s="1506">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="1508">
-        <v>503</v>
-      </c>
-      <c r="B54" t="s" s="1509">
-        <v>372</v>
-      </c>
-      <c r="C54" t="s" s="1508">
-        <v>446</v>
-      </c>
-      <c r="D54" t="s" s="1508">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="1510">
-        <v>504</v>
-      </c>
-      <c r="B55" t="s" s="1511">
-        <v>505</v>
-      </c>
-      <c r="C55" t="s" s="1510">
-        <v>338</v>
-      </c>
-      <c r="D55" t="s" s="1510">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="1512">
-        <v>536</v>
-      </c>
-      <c r="B56" t="s" s="1513">
-        <v>537</v>
-      </c>
-      <c r="C56" t="s" s="1512">
-        <v>345</v>
-      </c>
-      <c r="D56" t="s" s="1512">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="1514">
-        <v>538</v>
-      </c>
-      <c r="B57" t="s" s="1515">
-        <v>539</v>
-      </c>
-      <c r="C57" t="s" s="1514">
-        <v>369</v>
-      </c>
-      <c r="D57" t="s" s="1514">
-        <v>535</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E12"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.4921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.84375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1516" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1387" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="1516" t="s">
+      <c r="B1" s="1387" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1516" t="s">
+      <c r="C1" s="1387" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="1516" t="s">
+      <c r="D1" s="1387" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="1517">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1388" t="s">
         <v>448</v>
       </c>
-      <c r="B2" t="s" s="1518">
+      <c r="B2" s="1389" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s" s="1517">
+      <c r="C2" s="1388" t="s">
         <v>446</v>
       </c>
-      <c r="D2" t="s" s="1517">
+      <c r="D2" s="1388" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="1519">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1388" t="s">
         <v>506</v>
       </c>
-      <c r="B3" t="s" s="1520">
+      <c r="B3" s="1390" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s" s="1519">
+      <c r="C3" s="1388" t="s">
         <v>338</v>
       </c>
-      <c r="D3" t="s" s="1519">
+      <c r="D3" s="1388" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="1521">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1388" t="s">
         <v>507</v>
       </c>
-      <c r="B4" t="s" s="1522">
+      <c r="B4" s="1391" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s" s="1521">
+      <c r="C4" s="1388" t="s">
         <v>446</v>
       </c>
-      <c r="D4" t="s" s="1521">
+      <c r="D4" s="1388" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="1523">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1388" t="s">
         <v>508</v>
       </c>
-      <c r="B5" t="s" s="1524">
+      <c r="B5" s="1392" t="s">
         <v>509</v>
       </c>
-      <c r="C5" t="s" s="1523">
+      <c r="C5" s="1388" t="s">
         <v>338</v>
       </c>
-      <c r="D5" t="s" s="1523">
+      <c r="D5" s="1388" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="1525">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1388" t="s">
         <v>510</v>
       </c>
-      <c r="B6" t="s" s="1526">
+      <c r="B6" s="1393" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s" s="1525">
+      <c r="C6" s="1388" t="s">
         <v>338</v>
       </c>
-      <c r="D6" t="s" s="1525">
+      <c r="D6" s="1388" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="1527">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1388" t="s">
         <v>511</v>
       </c>
-      <c r="B7" t="s" s="1528">
+      <c r="B7" s="1394" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s" s="1527">
+      <c r="C7" s="1388" t="s">
         <v>446</v>
       </c>
-      <c r="D7" t="s" s="1527">
+      <c r="D7" s="1388" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="1529">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1388" t="s">
         <v>523</v>
       </c>
-      <c r="B8" t="s" s="1530">
+      <c r="B8" s="1395" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s" s="1529">
+      <c r="C8" s="1388" t="s">
         <v>446</v>
       </c>
-      <c r="D8" t="s" s="1529">
+      <c r="D8" s="1388" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="1531">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1388" t="s">
         <v>512</v>
       </c>
-      <c r="B9" t="s" s="1532">
+      <c r="B9" s="1396" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s" s="1531">
+      <c r="C9" s="1388" t="s">
         <v>446</v>
       </c>
-      <c r="D9" t="s" s="1531">
+      <c r="D9" s="1388" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="1533">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1388" t="s">
         <v>513</v>
       </c>
-      <c r="B10" t="s" s="1534">
+      <c r="B10" s="1397" t="s">
         <v>514</v>
       </c>
-      <c r="C10" t="s" s="1533">
+      <c r="C10" s="1388" t="s">
         <v>338</v>
       </c>
-      <c r="D10" t="s" s="1533">
+      <c r="D10" s="1388" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="1535">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1388" t="s">
         <v>515</v>
       </c>
-      <c r="B11" t="s" s="1536">
+      <c r="B11" s="1398" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s" s="1535">
+      <c r="C11" s="1388" t="s">
         <v>338</v>
       </c>
-      <c r="D11" t="s" s="1535">
+      <c r="D11" s="1388" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="1537">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1388" t="s">
         <v>516</v>
       </c>
-      <c r="B12" t="s" s="1538">
+      <c r="B12" s="1399" t="s">
         <v>517</v>
       </c>
-      <c r="C12" t="s" s="1537">
+      <c r="C12" s="1388" t="s">
         <v>338</v>
       </c>
-      <c r="D12" t="s" s="1537">
+      <c r="D12" s="1388" t="s">
         <v>519</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>